--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3</v>
+        <v>11.32</v>
       </c>
       <c r="C2" t="n">
         <v>11.3</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3</v>
+        <v>11.32</v>
       </c>
       <c r="E2" t="n">
         <v>11.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1082.8881</v>
+        <v>6517.3565</v>
       </c>
       <c r="G2" t="n">
-        <v>11.68366666666667</v>
+        <v>11.68716666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>11.3</v>
       </c>
       <c r="C3" t="n">
-        <v>11.28</v>
+        <v>11.3</v>
       </c>
       <c r="D3" t="n">
         <v>11.3</v>
       </c>
       <c r="E3" t="n">
-        <v>11.28</v>
+        <v>11.3</v>
       </c>
       <c r="F3" t="n">
-        <v>133835.72</v>
+        <v>1082.8881</v>
       </c>
       <c r="G3" t="n">
-        <v>11.67416666666667</v>
+        <v>11.68366666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.36</v>
+        <v>11.28</v>
       </c>
       <c r="D4" t="n">
-        <v>11.36</v>
+        <v>11.3</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>11.28</v>
       </c>
       <c r="F4" t="n">
-        <v>625673.6917</v>
+        <v>133835.72</v>
       </c>
       <c r="G4" t="n">
-        <v>11.66583333333334</v>
+        <v>11.67416666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>11.63</v>
+        <v>11.36</v>
       </c>
       <c r="D5" t="n">
-        <v>11.64</v>
+        <v>11.36</v>
       </c>
       <c r="E5" t="n">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>13077.8854</v>
+        <v>625673.6917</v>
       </c>
       <c r="G5" t="n">
-        <v>11.649</v>
+        <v>11.66583333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="C6" t="n">
-        <v>11.59</v>
+        <v>11.63</v>
       </c>
       <c r="D6" t="n">
-        <v>11.59</v>
+        <v>11.64</v>
       </c>
       <c r="E6" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="F6" t="n">
-        <v>11687.4223</v>
+        <v>13077.8854</v>
       </c>
       <c r="G6" t="n">
-        <v>11.63</v>
+        <v>11.649</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>11.59</v>
       </c>
       <c r="F7" t="n">
-        <v>38300</v>
+        <v>11687.4223</v>
       </c>
       <c r="G7" t="n">
-        <v>11.61266666666667</v>
+        <v>11.63</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="D8" t="n">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="E8" t="n">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="F8" t="n">
-        <v>29623.1659</v>
+        <v>38300</v>
       </c>
       <c r="G8" t="n">
-        <v>11.60916666666667</v>
+        <v>11.61266666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="C9" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D9" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="E9" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F9" t="n">
-        <v>7000</v>
+        <v>29623.1659</v>
       </c>
       <c r="G9" t="n">
-        <v>11.59083333333334</v>
+        <v>11.60916666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.32</v>
+        <v>11.59</v>
       </c>
       <c r="C10" t="n">
-        <v>11.32</v>
+        <v>11.3</v>
       </c>
       <c r="D10" t="n">
-        <v>11.32</v>
+        <v>11.59</v>
       </c>
       <c r="E10" t="n">
-        <v>11.32</v>
+        <v>11.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2289.6006</v>
+        <v>7000</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57483333333334</v>
+        <v>11.59083333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.5</v>
+        <v>11.32</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5</v>
+        <v>11.32</v>
       </c>
       <c r="D11" t="n">
-        <v>11.5</v>
+        <v>11.32</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5</v>
+        <v>11.32</v>
       </c>
       <c r="F11" t="n">
-        <v>7225</v>
+        <v>2289.6006</v>
       </c>
       <c r="G11" t="n">
-        <v>11.56350000000001</v>
+        <v>11.57483333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>11.5</v>
       </c>
       <c r="F12" t="n">
-        <v>18733.5913</v>
+        <v>7225</v>
       </c>
       <c r="G12" t="n">
-        <v>11.55066666666667</v>
+        <v>11.56350000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C13" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D13" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="E13" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F13" t="n">
-        <v>73998.234</v>
+        <v>18733.5913</v>
       </c>
       <c r="G13" t="n">
-        <v>11.53733333333334</v>
+        <v>11.55066666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C14" t="n">
-        <v>11.58</v>
+        <v>11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>11.58</v>
+        <v>11.4</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F14" t="n">
-        <v>68214.724</v>
+        <v>73998.234</v>
       </c>
       <c r="G14" t="n">
-        <v>11.52750000000001</v>
+        <v>11.53733333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.58</v>
+        <v>11.5</v>
       </c>
       <c r="C15" t="n">
         <v>11.58</v>
@@ -897,13 +897,13 @@
         <v>11.58</v>
       </c>
       <c r="E15" t="n">
-        <v>11.58</v>
+        <v>11.5</v>
       </c>
       <c r="F15" t="n">
-        <v>445.276</v>
+        <v>68214.724</v>
       </c>
       <c r="G15" t="n">
-        <v>11.52216666666667</v>
+        <v>11.52750000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.61</v>
+        <v>11.58</v>
       </c>
       <c r="C16" t="n">
-        <v>11.61</v>
+        <v>11.58</v>
       </c>
       <c r="D16" t="n">
-        <v>11.61</v>
+        <v>11.58</v>
       </c>
       <c r="E16" t="n">
-        <v>11.61</v>
+        <v>11.58</v>
       </c>
       <c r="F16" t="n">
-        <v>225.2332</v>
+        <v>445.276</v>
       </c>
       <c r="G16" t="n">
-        <v>11.51733333333334</v>
+        <v>11.52216666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>11.61</v>
       </c>
       <c r="F17" t="n">
-        <v>12077.3166</v>
+        <v>225.2332</v>
       </c>
       <c r="G17" t="n">
-        <v>11.51416666666668</v>
+        <v>11.51733333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>11.61</v>
       </c>
       <c r="F18" t="n">
-        <v>22605.8806</v>
+        <v>12077.3166</v>
       </c>
       <c r="G18" t="n">
-        <v>11.50483333333334</v>
+        <v>11.51416666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="C19" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="D19" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="E19" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="F19" t="n">
-        <v>255.2586206896552</v>
+        <v>22605.8806</v>
       </c>
       <c r="G19" t="n">
-        <v>11.50166666666668</v>
+        <v>11.50483333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>11.6</v>
       </c>
       <c r="C20" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="D20" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="E20" t="n">
         <v>11.6</v>
       </c>
       <c r="F20" t="n">
-        <v>9719</v>
+        <v>255.2586206896552</v>
       </c>
       <c r="G20" t="n">
-        <v>11.50033333333334</v>
+        <v>11.50166666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="C21" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="D21" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="E21" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="F21" t="n">
-        <v>3665.1763</v>
+        <v>9719</v>
       </c>
       <c r="G21" t="n">
-        <v>11.49716666666668</v>
+        <v>11.50033333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>11.46</v>
       </c>
       <c r="C22" t="n">
-        <v>11.36</v>
+        <v>11.51</v>
       </c>
       <c r="D22" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E22" t="n">
         <v>11.46</v>
       </c>
-      <c r="E22" t="n">
-        <v>11.36</v>
-      </c>
       <c r="F22" t="n">
-        <v>8000</v>
+        <v>3665.1763</v>
       </c>
       <c r="G22" t="n">
-        <v>11.48883333333334</v>
+        <v>11.49716666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="C23" t="n">
-        <v>11.51</v>
+        <v>11.36</v>
       </c>
       <c r="D23" t="n">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="E23" t="n">
-        <v>11.51</v>
+        <v>11.36</v>
       </c>
       <c r="F23" t="n">
-        <v>373.142</v>
+        <v>8000</v>
       </c>
       <c r="G23" t="n">
-        <v>11.48300000000001</v>
+        <v>11.48883333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.46</v>
+        <v>11.51</v>
       </c>
       <c r="C24" t="n">
-        <v>11.46</v>
+        <v>11.51</v>
       </c>
       <c r="D24" t="n">
-        <v>11.46</v>
+        <v>11.51</v>
       </c>
       <c r="E24" t="n">
-        <v>11.46</v>
+        <v>11.51</v>
       </c>
       <c r="F24" t="n">
-        <v>9788.491900000001</v>
+        <v>373.142</v>
       </c>
       <c r="G24" t="n">
-        <v>11.47966666666668</v>
+        <v>11.48300000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="C25" t="n">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="D25" t="n">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="E25" t="n">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="F25" t="n">
-        <v>111.9725</v>
+        <v>9788.491900000001</v>
       </c>
       <c r="G25" t="n">
-        <v>11.47066666666668</v>
+        <v>11.47966666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="C26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="D26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="E26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="F26" t="n">
-        <v>197.2242</v>
+        <v>111.9725</v>
       </c>
       <c r="G26" t="n">
         <v>11.47066666666668</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.61</v>
+        <v>11.5</v>
       </c>
       <c r="C27" t="n">
-        <v>11.61</v>
+        <v>11.5</v>
       </c>
       <c r="D27" t="n">
-        <v>11.61</v>
+        <v>11.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.61</v>
+        <v>11.5</v>
       </c>
       <c r="F27" t="n">
-        <v>123774.6290793103</v>
+        <v>197.2242</v>
       </c>
       <c r="G27" t="n">
-        <v>11.46833333333334</v>
+        <v>11.47066666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="C28" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="D28" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="E28" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="F28" t="n">
-        <v>80301.9393</v>
+        <v>123774.6290793103</v>
       </c>
       <c r="G28" t="n">
-        <v>11.47100000000001</v>
+        <v>11.46833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="C29" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="D29" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="E29" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="F29" t="n">
-        <v>248.035</v>
+        <v>80301.9393</v>
       </c>
       <c r="G29" t="n">
-        <v>11.47450000000001</v>
+        <v>11.47100000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.61</v>
+        <v>11.7</v>
       </c>
       <c r="C30" t="n">
-        <v>11.36</v>
+        <v>11.7</v>
       </c>
       <c r="D30" t="n">
-        <v>11.61</v>
+        <v>11.7</v>
       </c>
       <c r="E30" t="n">
-        <v>11.36</v>
+        <v>11.7</v>
       </c>
       <c r="F30" t="n">
-        <v>211449.308</v>
+        <v>248.035</v>
       </c>
       <c r="G30" t="n">
-        <v>11.47233333333335</v>
+        <v>11.47450000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.7</v>
+        <v>11.61</v>
       </c>
       <c r="C31" t="n">
-        <v>11.7</v>
+        <v>11.36</v>
       </c>
       <c r="D31" t="n">
-        <v>11.7</v>
+        <v>11.61</v>
       </c>
       <c r="E31" t="n">
-        <v>11.7</v>
+        <v>11.36</v>
       </c>
       <c r="F31" t="n">
-        <v>55</v>
+        <v>211449.308</v>
       </c>
       <c r="G31" t="n">
-        <v>11.47583333333335</v>
+        <v>11.47233333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.59</v>
+        <v>11.7</v>
       </c>
       <c r="C32" t="n">
-        <v>11.59</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.59</v>
+        <v>11.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.36</v>
+        <v>11.7</v>
       </c>
       <c r="F32" t="n">
-        <v>159064.4889</v>
+        <v>55</v>
       </c>
       <c r="G32" t="n">
-        <v>11.48033333333334</v>
+        <v>11.47583333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.39</v>
+        <v>11.59</v>
       </c>
       <c r="C33" t="n">
-        <v>11.38</v>
+        <v>11.59</v>
       </c>
       <c r="D33" t="n">
-        <v>11.39</v>
+        <v>11.59</v>
       </c>
       <c r="E33" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="F33" t="n">
-        <v>72983.98910000001</v>
+        <v>159064.4889</v>
       </c>
       <c r="G33" t="n">
-        <v>11.48133333333334</v>
+        <v>11.48033333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="C34" t="n">
         <v>11.38</v>
       </c>
-      <c r="C34" t="n">
-        <v>11.5</v>
-      </c>
       <c r="D34" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="E34" t="n">
         <v>11.38</v>
       </c>
       <c r="F34" t="n">
-        <v>63297.9075</v>
+        <v>72983.98910000001</v>
       </c>
       <c r="G34" t="n">
-        <v>11.47950000000001</v>
+        <v>11.48133333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.39</v>
+        <v>11.38</v>
       </c>
       <c r="C35" t="n">
-        <v>11.39</v>
+        <v>11.5</v>
       </c>
       <c r="D35" t="n">
-        <v>11.39</v>
+        <v>11.5</v>
       </c>
       <c r="E35" t="n">
-        <v>11.39</v>
+        <v>11.38</v>
       </c>
       <c r="F35" t="n">
-        <v>1458.1331</v>
+        <v>63297.9075</v>
       </c>
       <c r="G35" t="n">
-        <v>11.48016666666668</v>
+        <v>11.47950000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="C36" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="D36" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="E36" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="F36" t="n">
-        <v>179740.9121</v>
+        <v>1458.1331</v>
       </c>
       <c r="G36" t="n">
-        <v>11.48083333333334</v>
+        <v>11.48016666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>11.5</v>
       </c>
       <c r="F37" t="n">
-        <v>31632.7456</v>
+        <v>179740.9121</v>
       </c>
       <c r="G37" t="n">
-        <v>11.48150000000001</v>
+        <v>11.48083333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="C38" t="n">
         <v>11.5</v>
@@ -1702,13 +1702,13 @@
         <v>11.5</v>
       </c>
       <c r="E38" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="F38" t="n">
-        <v>26542.3892</v>
+        <v>31632.7456</v>
       </c>
       <c r="G38" t="n">
-        <v>11.48450000000001</v>
+        <v>11.48150000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="C39" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D39" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E39" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="F39" t="n">
-        <v>67000</v>
+        <v>26542.3892</v>
       </c>
       <c r="G39" t="n">
-        <v>11.48350000000001</v>
+        <v>11.48450000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.69</v>
+        <v>11.59</v>
       </c>
       <c r="C40" t="n">
-        <v>11.69</v>
+        <v>11.6</v>
       </c>
       <c r="D40" t="n">
-        <v>11.69</v>
+        <v>11.6</v>
       </c>
       <c r="E40" t="n">
-        <v>11.69</v>
+        <v>11.59</v>
       </c>
       <c r="F40" t="n">
-        <v>50.3098</v>
+        <v>67000</v>
       </c>
       <c r="G40" t="n">
-        <v>11.48966666666668</v>
+        <v>11.48350000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>11.69</v>
       </c>
       <c r="F41" t="n">
-        <v>7950.4775</v>
+        <v>50.3098</v>
       </c>
       <c r="G41" t="n">
-        <v>11.49016666666668</v>
+        <v>11.48966666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>11.69</v>
       </c>
       <c r="C42" t="n">
-        <v>12.04</v>
+        <v>11.69</v>
       </c>
       <c r="D42" t="n">
-        <v>12.04</v>
+        <v>11.69</v>
       </c>
       <c r="E42" t="n">
         <v>11.69</v>
       </c>
       <c r="F42" t="n">
-        <v>20182.9936</v>
+        <v>7950.4775</v>
       </c>
       <c r="G42" t="n">
-        <v>11.49916666666668</v>
+        <v>11.49016666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.05</v>
+        <v>11.69</v>
       </c>
       <c r="C43" t="n">
-        <v>12.15</v>
+        <v>12.04</v>
       </c>
       <c r="D43" t="n">
-        <v>12.15</v>
+        <v>12.04</v>
       </c>
       <c r="E43" t="n">
-        <v>12.05</v>
+        <v>11.69</v>
       </c>
       <c r="F43" t="n">
-        <v>7433.2883</v>
+        <v>20182.9936</v>
       </c>
       <c r="G43" t="n">
-        <v>11.50933333333334</v>
+        <v>11.49916666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>12.05</v>
       </c>
       <c r="C44" t="n">
-        <v>12.05</v>
+        <v>12.15</v>
       </c>
       <c r="D44" t="n">
-        <v>12.05</v>
+        <v>12.15</v>
       </c>
       <c r="E44" t="n">
         <v>12.05</v>
       </c>
       <c r="F44" t="n">
-        <v>23658.8386</v>
+        <v>7433.2883</v>
       </c>
       <c r="G44" t="n">
-        <v>11.51766666666668</v>
+        <v>11.50933333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.15</v>
+        <v>12.05</v>
       </c>
       <c r="C45" t="n">
-        <v>12.24</v>
+        <v>12.05</v>
       </c>
       <c r="D45" t="n">
-        <v>12.24</v>
+        <v>12.05</v>
       </c>
       <c r="E45" t="n">
-        <v>12.15</v>
+        <v>12.05</v>
       </c>
       <c r="F45" t="n">
-        <v>15075.6686</v>
+        <v>23658.8386</v>
       </c>
       <c r="G45" t="n">
-        <v>11.52916666666668</v>
+        <v>11.51766666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.24</v>
+        <v>12.15</v>
       </c>
       <c r="C46" t="n">
         <v>12.24</v>
@@ -1982,13 +1982,13 @@
         <v>12.24</v>
       </c>
       <c r="E46" t="n">
-        <v>12.24</v>
+        <v>12.15</v>
       </c>
       <c r="F46" t="n">
-        <v>15076.116</v>
+        <v>15075.6686</v>
       </c>
       <c r="G46" t="n">
-        <v>11.54066666666668</v>
+        <v>11.52916666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="C47" t="n">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="D47" t="n">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="E47" t="n">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="F47" t="n">
-        <v>34864.2346</v>
+        <v>15076.116</v>
       </c>
       <c r="G47" t="n">
-        <v>11.55116666666668</v>
+        <v>11.54066666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.27</v>
+        <v>12.25</v>
       </c>
       <c r="C48" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="D48" t="n">
-        <v>12.31</v>
+        <v>12.25</v>
       </c>
       <c r="E48" t="n">
-        <v>12.27</v>
+        <v>12.25</v>
       </c>
       <c r="F48" t="n">
-        <v>112572.5421573984</v>
+        <v>34864.2346</v>
       </c>
       <c r="G48" t="n">
-        <v>11.56600000000001</v>
+        <v>11.55116666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.28</v>
+        <v>12.27</v>
       </c>
       <c r="C49" t="n">
-        <v>12.28</v>
+        <v>12.3</v>
       </c>
       <c r="D49" t="n">
-        <v>12.28</v>
+        <v>12.31</v>
       </c>
       <c r="E49" t="n">
-        <v>12.28</v>
+        <v>12.27</v>
       </c>
       <c r="F49" t="n">
-        <v>37820.0281</v>
+        <v>112572.5421573984</v>
       </c>
       <c r="G49" t="n">
-        <v>11.58183333333334</v>
+        <v>11.56600000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="C50" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="D50" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="E50" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="F50" t="n">
-        <v>906.5416</v>
+        <v>37820.0281</v>
       </c>
       <c r="G50" t="n">
-        <v>11.59816666666668</v>
+        <v>11.58183333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>12.38</v>
       </c>
       <c r="C51" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="D51" t="n">
         <v>12.38</v>
       </c>
       <c r="E51" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="F51" t="n">
-        <v>5462.0063</v>
+        <v>906.5416</v>
       </c>
       <c r="G51" t="n">
-        <v>11.61433333333335</v>
+        <v>11.59816666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,25 +2186,25 @@
         <v>12.38</v>
       </c>
       <c r="C52" t="n">
-        <v>12.38</v>
+        <v>12.37</v>
       </c>
       <c r="D52" t="n">
         <v>12.38</v>
       </c>
       <c r="E52" t="n">
-        <v>12.38</v>
+        <v>12.37</v>
       </c>
       <c r="F52" t="n">
-        <v>271.971</v>
+        <v>5462.0063</v>
       </c>
       <c r="G52" t="n">
-        <v>11.62850000000001</v>
+        <v>11.61433333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="C53" t="n">
-        <v>12.75</v>
+        <v>12.38</v>
       </c>
       <c r="D53" t="n">
-        <v>12.75</v>
+        <v>12.38</v>
       </c>
       <c r="E53" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="F53" t="n">
-        <v>79336.68850339011</v>
+        <v>271.971</v>
       </c>
       <c r="G53" t="n">
-        <v>11.65233333333334</v>
+        <v>11.62850000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.12</v>
+        <v>12.37</v>
       </c>
       <c r="C54" t="n">
-        <v>12.57</v>
+        <v>12.75</v>
       </c>
       <c r="D54" t="n">
-        <v>12.57</v>
+        <v>12.75</v>
       </c>
       <c r="E54" t="n">
-        <v>12.12</v>
+        <v>12.37</v>
       </c>
       <c r="F54" t="n">
-        <v>27401.0948</v>
+        <v>79336.68850339011</v>
       </c>
       <c r="G54" t="n">
-        <v>11.67300000000001</v>
+        <v>11.65233333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.46</v>
+        <v>12.12</v>
       </c>
       <c r="C55" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="D55" t="n">
         <v>12.57</v>
       </c>
       <c r="E55" t="n">
-        <v>12.42</v>
+        <v>12.12</v>
       </c>
       <c r="F55" t="n">
-        <v>2606.292</v>
+        <v>27401.0948</v>
       </c>
       <c r="G55" t="n">
-        <v>11.68983333333335</v>
+        <v>11.67300000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.4</v>
+        <v>12.46</v>
       </c>
       <c r="C56" t="n">
-        <v>12.33</v>
+        <v>12.54</v>
       </c>
       <c r="D56" t="n">
-        <v>12.4</v>
+        <v>12.57</v>
       </c>
       <c r="E56" t="n">
-        <v>12.32</v>
+        <v>12.42</v>
       </c>
       <c r="F56" t="n">
-        <v>8829.266600000001</v>
+        <v>2606.292</v>
       </c>
       <c r="G56" t="n">
-        <v>11.70316666666668</v>
+        <v>11.68983333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="C57" t="n">
-        <v>12.38</v>
+        <v>12.33</v>
       </c>
       <c r="D57" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="E57" t="n">
-        <v>12.38</v>
+        <v>12.32</v>
       </c>
       <c r="F57" t="n">
-        <v>8613.920700000001</v>
+        <v>8829.266600000001</v>
       </c>
       <c r="G57" t="n">
-        <v>11.72066666666668</v>
+        <v>11.70316666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.43</v>
+        <v>12.48</v>
       </c>
       <c r="C58" t="n">
-        <v>12.43</v>
+        <v>12.38</v>
       </c>
       <c r="D58" t="n">
-        <v>12.43</v>
+        <v>12.48</v>
       </c>
       <c r="E58" t="n">
-        <v>12.43</v>
+        <v>12.38</v>
       </c>
       <c r="F58" t="n">
-        <v>15640</v>
+        <v>8613.920700000001</v>
       </c>
       <c r="G58" t="n">
-        <v>11.73883333333334</v>
+        <v>11.72066666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>12.43</v>
       </c>
       <c r="F59" t="n">
-        <v>9186</v>
+        <v>15640</v>
       </c>
       <c r="G59" t="n">
-        <v>11.75716666666668</v>
+        <v>11.73883333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>12.43</v>
       </c>
       <c r="F60" t="n">
-        <v>3063</v>
+        <v>9186</v>
       </c>
       <c r="G60" t="n">
-        <v>11.77550000000001</v>
+        <v>11.75716666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.46</v>
+        <v>12.43</v>
       </c>
       <c r="C61" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
       <c r="D61" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
       <c r="E61" t="n">
-        <v>12.46</v>
+        <v>12.43</v>
       </c>
       <c r="F61" t="n">
-        <v>5797.1694</v>
+        <v>3063</v>
       </c>
       <c r="G61" t="n">
-        <v>11.79500000000001</v>
+        <v>11.77550000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.58</v>
+        <v>12.46</v>
       </c>
       <c r="C62" t="n">
-        <v>12.58</v>
+        <v>12.47</v>
       </c>
       <c r="D62" t="n">
-        <v>12.68</v>
+        <v>12.47</v>
       </c>
       <c r="E62" t="n">
-        <v>12.58</v>
+        <v>12.46</v>
       </c>
       <c r="F62" t="n">
-        <v>52708.201</v>
+        <v>5797.1694</v>
       </c>
       <c r="G62" t="n">
-        <v>11.81633333333334</v>
+        <v>11.79500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.68</v>
+        <v>12.58</v>
       </c>
       <c r="C63" t="n">
-        <v>12.65</v>
+        <v>12.58</v>
       </c>
       <c r="D63" t="n">
         <v>12.68</v>
       </c>
       <c r="E63" t="n">
-        <v>12.65</v>
+        <v>12.58</v>
       </c>
       <c r="F63" t="n">
-        <v>25024.2515</v>
+        <v>52708.201</v>
       </c>
       <c r="G63" t="n">
-        <v>11.83916666666668</v>
+        <v>11.81633333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C64" t="n">
         <v>12.65</v>
       </c>
-      <c r="C64" t="n">
-        <v>12.69</v>
-      </c>
       <c r="D64" t="n">
-        <v>12.69</v>
+        <v>12.68</v>
       </c>
       <c r="E64" t="n">
         <v>12.65</v>
       </c>
       <c r="F64" t="n">
-        <v>86712.87059999999</v>
+        <v>25024.2515</v>
       </c>
       <c r="G64" t="n">
-        <v>11.86133333333334</v>
+        <v>11.83916666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>12.65</v>
       </c>
       <c r="C65" t="n">
-        <v>12.65</v>
+        <v>12.69</v>
       </c>
       <c r="D65" t="n">
-        <v>12.65</v>
+        <v>12.69</v>
       </c>
       <c r="E65" t="n">
         <v>12.65</v>
       </c>
       <c r="F65" t="n">
-        <v>5149.1934</v>
+        <v>86712.87059999999</v>
       </c>
       <c r="G65" t="n">
-        <v>11.87833333333334</v>
+        <v>11.86133333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.43</v>
+        <v>12.65</v>
       </c>
       <c r="C66" t="n">
-        <v>12.43</v>
+        <v>12.65</v>
       </c>
       <c r="D66" t="n">
-        <v>12.43</v>
+        <v>12.65</v>
       </c>
       <c r="E66" t="n">
-        <v>12.43</v>
+        <v>12.65</v>
       </c>
       <c r="F66" t="n">
-        <v>7950.4775</v>
+        <v>5149.1934</v>
       </c>
       <c r="G66" t="n">
-        <v>11.89233333333334</v>
+        <v>11.87833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.55</v>
+        <v>12.43</v>
       </c>
       <c r="C67" t="n">
-        <v>12.55</v>
+        <v>12.43</v>
       </c>
       <c r="D67" t="n">
-        <v>12.55</v>
+        <v>12.43</v>
       </c>
       <c r="E67" t="n">
-        <v>12.55</v>
+        <v>12.43</v>
       </c>
       <c r="F67" t="n">
-        <v>158.8836</v>
+        <v>7950.4775</v>
       </c>
       <c r="G67" t="n">
-        <v>11.90833333333334</v>
+        <v>11.89233333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>12.55</v>
       </c>
       <c r="F68" t="n">
-        <v>3816.1164</v>
+        <v>158.8836</v>
       </c>
       <c r="G68" t="n">
-        <v>11.92416666666667</v>
+        <v>11.90833333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>12.55</v>
       </c>
       <c r="F69" t="n">
-        <v>168.4545</v>
+        <v>3816.1164</v>
       </c>
       <c r="G69" t="n">
-        <v>11.94500000000001</v>
+        <v>11.92416666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>12.55</v>
       </c>
       <c r="F70" t="n">
-        <v>5422.9787</v>
+        <v>168.4545</v>
       </c>
       <c r="G70" t="n">
-        <v>11.9655</v>
+        <v>11.94500000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.43</v>
+        <v>12.55</v>
       </c>
       <c r="C71" t="n">
-        <v>11.53</v>
+        <v>12.55</v>
       </c>
       <c r="D71" t="n">
-        <v>12.43</v>
+        <v>12.55</v>
       </c>
       <c r="E71" t="n">
-        <v>11.53</v>
+        <v>12.55</v>
       </c>
       <c r="F71" t="n">
-        <v>72285.38310000001</v>
+        <v>5422.9787</v>
       </c>
       <c r="G71" t="n">
-        <v>11.966</v>
+        <v>11.9655</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.45</v>
+        <v>12.43</v>
       </c>
       <c r="C72" t="n">
-        <v>12.45</v>
+        <v>11.53</v>
       </c>
       <c r="D72" t="n">
-        <v>12.45</v>
+        <v>12.43</v>
       </c>
       <c r="E72" t="n">
-        <v>12.45</v>
+        <v>11.53</v>
       </c>
       <c r="F72" t="n">
-        <v>120.3829</v>
+        <v>72285.38310000001</v>
       </c>
       <c r="G72" t="n">
-        <v>11.98183333333334</v>
+        <v>11.966</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="C73" t="n">
-        <v>12.06</v>
+        <v>12.45</v>
       </c>
       <c r="D73" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="E73" t="n">
-        <v>12.06</v>
+        <v>12.45</v>
       </c>
       <c r="F73" t="n">
-        <v>8048.1201</v>
+        <v>120.3829</v>
       </c>
       <c r="G73" t="n">
-        <v>11.99450000000001</v>
+        <v>11.98183333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C74" t="n">
         <v>12.06</v>
       </c>
-      <c r="C74" t="n">
-        <v>12.33</v>
-      </c>
       <c r="D74" t="n">
-        <v>12.33</v>
+        <v>12.55</v>
       </c>
       <c r="E74" t="n">
         <v>12.06</v>
       </c>
       <c r="F74" t="n">
-        <v>17449.9883</v>
+        <v>8048.1201</v>
       </c>
       <c r="G74" t="n">
-        <v>12.00700000000001</v>
+        <v>11.99450000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.47</v>
+        <v>12.06</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>12.33</v>
       </c>
       <c r="D75" t="n">
-        <v>12.6</v>
+        <v>12.33</v>
       </c>
       <c r="E75" t="n">
-        <v>12.47</v>
+        <v>12.06</v>
       </c>
       <c r="F75" t="n">
-        <v>84882.2643</v>
+        <v>17449.9883</v>
       </c>
       <c r="G75" t="n">
-        <v>12.02233333333334</v>
+        <v>12.00700000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.5</v>
+        <v>12.47</v>
       </c>
       <c r="C76" t="n">
         <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5</v>
+        <v>12.47</v>
       </c>
       <c r="F76" t="n">
-        <v>1303.8057</v>
+        <v>84882.2643</v>
       </c>
       <c r="G76" t="n">
-        <v>12.03716666666667</v>
+        <v>12.02233333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="D77" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
         <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>89743.3305</v>
+        <v>1303.8057</v>
       </c>
       <c r="G77" t="n">
-        <v>12.0535</v>
+        <v>12.03716666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.64</v>
+        <v>12.5</v>
       </c>
       <c r="C78" t="n">
-        <v>12.65</v>
+        <v>12.59</v>
       </c>
       <c r="D78" t="n">
-        <v>12.65</v>
+        <v>12.59</v>
       </c>
       <c r="E78" t="n">
-        <v>12.64</v>
+        <v>12.5</v>
       </c>
       <c r="F78" t="n">
-        <v>92542.9678</v>
+        <v>89743.3305</v>
       </c>
       <c r="G78" t="n">
-        <v>12.07083333333334</v>
+        <v>12.0535</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.4</v>
+        <v>12.64</v>
       </c>
       <c r="C79" t="n">
-        <v>12.4</v>
+        <v>12.65</v>
       </c>
       <c r="D79" t="n">
-        <v>12.4</v>
+        <v>12.65</v>
       </c>
       <c r="E79" t="n">
-        <v>12.4</v>
+        <v>12.64</v>
       </c>
       <c r="F79" t="n">
-        <v>26814.516</v>
+        <v>92542.9678</v>
       </c>
       <c r="G79" t="n">
-        <v>12.08416666666667</v>
+        <v>12.07083333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="C80" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="D80" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="E80" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="F80" t="n">
-        <v>9522.8758</v>
+        <v>26814.516</v>
       </c>
       <c r="G80" t="n">
-        <v>12.097</v>
+        <v>12.08416666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.16</v>
+        <v>12.38</v>
       </c>
       <c r="C81" t="n">
-        <v>12.16</v>
+        <v>12.38</v>
       </c>
       <c r="D81" t="n">
-        <v>12.16</v>
+        <v>12.38</v>
       </c>
       <c r="E81" t="n">
-        <v>12.16</v>
+        <v>12.38</v>
       </c>
       <c r="F81" t="n">
-        <v>6112.9758</v>
+        <v>9522.8758</v>
       </c>
       <c r="G81" t="n">
-        <v>12.10783333333334</v>
+        <v>12.097</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="C82" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="D82" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="E82" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="F82" t="n">
-        <v>1265.7598</v>
+        <v>6112.9758</v>
       </c>
       <c r="G82" t="n">
-        <v>12.121</v>
+        <v>12.10783333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.06</v>
+        <v>12.15</v>
       </c>
       <c r="C83" t="n">
-        <v>12.06</v>
+        <v>12.15</v>
       </c>
       <c r="D83" t="n">
-        <v>12.06</v>
+        <v>12.15</v>
       </c>
       <c r="E83" t="n">
-        <v>12.06</v>
+        <v>12.15</v>
       </c>
       <c r="F83" t="n">
-        <v>5136.1925</v>
+        <v>1265.7598</v>
       </c>
       <c r="G83" t="n">
-        <v>12.13016666666667</v>
+        <v>12.121</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="C84" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D84" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E84" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="F84" t="n">
-        <v>97.9195</v>
+        <v>5136.1925</v>
       </c>
       <c r="G84" t="n">
-        <v>12.14</v>
+        <v>12.13016666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="F85" t="n">
-        <v>29407.2242</v>
+        <v>97.9195</v>
       </c>
       <c r="G85" t="n">
-        <v>12.14816666666667</v>
+        <v>12.14</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,31 +3373,35 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>6849.7431</v>
+        <v>29407.2242</v>
       </c>
       <c r="G86" t="n">
-        <v>12.15816666666667</v>
+        <v>12.14816666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="K86" t="n">
+        <v>12.05</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3408,32 +3412,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="C87" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="E87" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>16381.273</v>
+        <v>6849.7431</v>
       </c>
       <c r="G87" t="n">
-        <v>12.16933333333333</v>
+        <v>12.15816666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12</v>
+      </c>
+      <c r="K87" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="C88" t="n">
         <v>12.28</v>
@@ -3452,23 +3464,31 @@
         <v>12.28</v>
       </c>
       <c r="E88" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="F88" t="n">
-        <v>133.6942</v>
+        <v>16381.273</v>
       </c>
       <c r="G88" t="n">
-        <v>12.17966666666667</v>
+        <v>12.16933333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3490,19 +3510,23 @@
         <v>12.28</v>
       </c>
       <c r="F89" t="n">
-        <v>365.2064</v>
+        <v>133.6942</v>
       </c>
       <c r="G89" t="n">
-        <v>12.18933333333333</v>
+        <v>12.17966666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3516,19 +3540,19 @@
         <v>12.28</v>
       </c>
       <c r="C90" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="D90" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="E90" t="n">
         <v>12.28</v>
       </c>
       <c r="F90" t="n">
-        <v>3417.317805331179</v>
+        <v>365.2064</v>
       </c>
       <c r="G90" t="n">
-        <v>12.20633333333333</v>
+        <v>12.18933333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3578,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.16</v>
+        <v>12.28</v>
       </c>
       <c r="C91" t="n">
-        <v>12.16</v>
+        <v>12.38</v>
       </c>
       <c r="D91" t="n">
-        <v>12.16</v>
+        <v>12.38</v>
       </c>
       <c r="E91" t="n">
-        <v>12.16</v>
+        <v>12.28</v>
       </c>
       <c r="F91" t="n">
-        <v>6000</v>
+        <v>3417.317805331179</v>
       </c>
       <c r="G91" t="n">
-        <v>12.214</v>
+        <v>12.20633333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3586,19 +3622,19 @@
         <v>12.16</v>
       </c>
       <c r="C92" t="n">
-        <v>11.76</v>
+        <v>12.16</v>
       </c>
       <c r="D92" t="n">
         <v>12.16</v>
       </c>
       <c r="E92" t="n">
-        <v>11.76</v>
+        <v>12.16</v>
       </c>
       <c r="F92" t="n">
-        <v>66423.7133</v>
+        <v>6000</v>
       </c>
       <c r="G92" t="n">
-        <v>12.21683333333333</v>
+        <v>12.214</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3643,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3660,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="C93" t="n">
-        <v>12.28</v>
+        <v>11.76</v>
       </c>
       <c r="D93" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="E93" t="n">
-        <v>12.28</v>
+        <v>11.76</v>
       </c>
       <c r="F93" t="n">
-        <v>205.7291</v>
+        <v>66423.7133</v>
       </c>
       <c r="G93" t="n">
-        <v>12.23183333333333</v>
+        <v>12.21683333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3684,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3701,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.85</v>
+        <v>12.28</v>
       </c>
       <c r="C94" t="n">
-        <v>11.4</v>
+        <v>12.28</v>
       </c>
       <c r="D94" t="n">
-        <v>11.85</v>
+        <v>12.28</v>
       </c>
       <c r="E94" t="n">
-        <v>11.4</v>
+        <v>12.28</v>
       </c>
       <c r="F94" t="n">
-        <v>32101.2162</v>
+        <v>205.7291</v>
       </c>
       <c r="G94" t="n">
-        <v>12.23016666666666</v>
+        <v>12.23183333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3742,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.17</v>
+        <v>11.85</v>
       </c>
       <c r="C95" t="n">
-        <v>12.17</v>
+        <v>11.4</v>
       </c>
       <c r="D95" t="n">
-        <v>12.17</v>
+        <v>11.85</v>
       </c>
       <c r="E95" t="n">
-        <v>12.17</v>
+        <v>11.4</v>
       </c>
       <c r="F95" t="n">
-        <v>155.8054</v>
+        <v>32101.2162</v>
       </c>
       <c r="G95" t="n">
-        <v>12.24316666666666</v>
+        <v>12.23016666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3783,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.67</v>
+        <v>12.17</v>
       </c>
       <c r="C96" t="n">
-        <v>11.57</v>
+        <v>12.17</v>
       </c>
       <c r="D96" t="n">
-        <v>11.67</v>
+        <v>12.17</v>
       </c>
       <c r="E96" t="n">
-        <v>11.57</v>
+        <v>12.17</v>
       </c>
       <c r="F96" t="n">
-        <v>9103.501</v>
+        <v>155.8054</v>
       </c>
       <c r="G96" t="n">
-        <v>12.24433333333333</v>
+        <v>12.24316666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3807,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3824,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.06</v>
+        <v>11.67</v>
       </c>
       <c r="C97" t="n">
-        <v>12.05</v>
+        <v>11.57</v>
       </c>
       <c r="D97" t="n">
-        <v>12.06</v>
+        <v>11.67</v>
       </c>
       <c r="E97" t="n">
-        <v>12.05</v>
+        <v>11.57</v>
       </c>
       <c r="F97" t="n">
-        <v>253.6211</v>
+        <v>9103.501</v>
       </c>
       <c r="G97" t="n">
-        <v>12.2535</v>
+        <v>12.24433333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3865,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="C98" t="n">
-        <v>11.54</v>
+        <v>12.05</v>
       </c>
       <c r="D98" t="n">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="E98" t="n">
-        <v>11.54</v>
+        <v>12.05</v>
       </c>
       <c r="F98" t="n">
-        <v>180457.9149</v>
+        <v>253.6211</v>
       </c>
       <c r="G98" t="n">
-        <v>12.25416666666666</v>
+        <v>12.2535</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +3889,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3906,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C99" t="n">
         <v>11.54</v>
       </c>
-      <c r="C99" t="n">
-        <v>11.44</v>
-      </c>
       <c r="D99" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E99" t="n">
         <v>11.54</v>
       </c>
-      <c r="E99" t="n">
-        <v>11.44</v>
-      </c>
       <c r="F99" t="n">
-        <v>50000</v>
+        <v>180457.9149</v>
       </c>
       <c r="G99" t="n">
-        <v>12.25149999999999</v>
+        <v>12.25416666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3947,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.57</v>
+        <v>11.54</v>
       </c>
       <c r="C100" t="n">
-        <v>11.57</v>
+        <v>11.44</v>
       </c>
       <c r="D100" t="n">
-        <v>11.57</v>
+        <v>11.54</v>
       </c>
       <c r="E100" t="n">
-        <v>11.57</v>
+        <v>11.44</v>
       </c>
       <c r="F100" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="G100" t="n">
-        <v>12.24949999999999</v>
+        <v>12.25149999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +3971,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +4000,10 @@
         <v>11.57</v>
       </c>
       <c r="F101" t="n">
-        <v>9252</v>
+        <v>9000</v>
       </c>
       <c r="G101" t="n">
-        <v>12.2475</v>
+        <v>12.24949999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4032,19 @@
         <v>11.57</v>
       </c>
       <c r="C102" t="n">
-        <v>11.68</v>
+        <v>11.57</v>
       </c>
       <c r="D102" t="n">
-        <v>11.68</v>
+        <v>11.57</v>
       </c>
       <c r="E102" t="n">
         <v>11.57</v>
       </c>
       <c r="F102" t="n">
-        <v>82725.2096</v>
+        <v>9252</v>
       </c>
       <c r="G102" t="n">
-        <v>12.24149999999999</v>
+        <v>12.2475</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4053,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4070,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.67</v>
+        <v>11.57</v>
       </c>
       <c r="C103" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="D103" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="E103" t="n">
-        <v>11.67</v>
+        <v>11.57</v>
       </c>
       <c r="F103" t="n">
-        <v>2424.7854</v>
+        <v>82725.2096</v>
       </c>
       <c r="G103" t="n">
-        <v>12.23349999999999</v>
+        <v>12.24149999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4123,10 @@
         <v>11.67</v>
       </c>
       <c r="F104" t="n">
-        <v>9202.581700000001</v>
+        <v>2424.7854</v>
       </c>
       <c r="G104" t="n">
-        <v>12.22716666666666</v>
+        <v>12.23349999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4152,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.88</v>
+        <v>11.67</v>
       </c>
       <c r="C105" t="n">
-        <v>11.88</v>
+        <v>11.67</v>
       </c>
       <c r="D105" t="n">
-        <v>11.88</v>
+        <v>11.67</v>
       </c>
       <c r="E105" t="n">
-        <v>11.88</v>
+        <v>11.67</v>
       </c>
       <c r="F105" t="n">
-        <v>4627</v>
+        <v>9202.581700000001</v>
       </c>
       <c r="G105" t="n">
-        <v>12.22116666666666</v>
+        <v>12.22716666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4176,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4193,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="C106" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="D106" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="E106" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>4627</v>
       </c>
       <c r="G106" t="n">
-        <v>12.21799999999999</v>
+        <v>12.22116666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4217,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4234,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.14</v>
+        <v>12.05</v>
       </c>
       <c r="C107" t="n">
-        <v>11.78</v>
+        <v>12.05</v>
       </c>
       <c r="D107" t="n">
-        <v>12.14</v>
+        <v>12.05</v>
       </c>
       <c r="E107" t="n">
-        <v>11.78</v>
+        <v>12.05</v>
       </c>
       <c r="F107" t="n">
-        <v>6964</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>12.21016666666666</v>
+        <v>12.21799999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4275,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.03</v>
+        <v>12.14</v>
       </c>
       <c r="C108" t="n">
-        <v>12.03</v>
+        <v>11.78</v>
       </c>
       <c r="D108" t="n">
-        <v>12.03</v>
+        <v>12.14</v>
       </c>
       <c r="E108" t="n">
-        <v>12.03</v>
+        <v>11.78</v>
       </c>
       <c r="F108" t="n">
-        <v>1402.347</v>
+        <v>6964</v>
       </c>
       <c r="G108" t="n">
-        <v>12.20566666666666</v>
+        <v>12.21016666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4299,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4316,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.79</v>
+        <v>12.03</v>
       </c>
       <c r="C109" t="n">
-        <v>11.58</v>
+        <v>12.03</v>
       </c>
       <c r="D109" t="n">
-        <v>11.79</v>
+        <v>12.03</v>
       </c>
       <c r="E109" t="n">
-        <v>11.58</v>
+        <v>12.03</v>
       </c>
       <c r="F109" t="n">
-        <v>69567.87910000001</v>
+        <v>1402.347</v>
       </c>
       <c r="G109" t="n">
-        <v>12.19399999999999</v>
+        <v>12.20566666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4357,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.58</v>
+        <v>11.79</v>
       </c>
       <c r="C110" t="n">
         <v>11.58</v>
       </c>
       <c r="D110" t="n">
-        <v>11.58</v>
+        <v>11.79</v>
       </c>
       <c r="E110" t="n">
         <v>11.58</v>
       </c>
       <c r="F110" t="n">
-        <v>4466</v>
+        <v>69567.87910000001</v>
       </c>
       <c r="G110" t="n">
-        <v>12.18066666666666</v>
+        <v>12.19399999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4398,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.7</v>
+        <v>11.58</v>
       </c>
       <c r="C111" t="n">
-        <v>11.7</v>
+        <v>11.58</v>
       </c>
       <c r="D111" t="n">
-        <v>11.7</v>
+        <v>11.58</v>
       </c>
       <c r="E111" t="n">
-        <v>11.7</v>
+        <v>11.58</v>
       </c>
       <c r="F111" t="n">
-        <v>44830.3789</v>
+        <v>4466</v>
       </c>
       <c r="G111" t="n">
-        <v>12.1695</v>
+        <v>12.18066666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4295,10 +4451,10 @@
         <v>11.7</v>
       </c>
       <c r="F112" t="n">
-        <v>3373.2347</v>
+        <v>44830.3789</v>
       </c>
       <c r="G112" t="n">
-        <v>12.15816666666666</v>
+        <v>12.1695</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4463,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4480,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D113" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F113" t="n">
-        <v>319.2477</v>
+        <v>3373.2347</v>
       </c>
       <c r="G113" t="n">
-        <v>12.14566666666666</v>
+        <v>12.15816666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4521,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>30737.6605</v>
+        <v>319.2477</v>
       </c>
       <c r="G114" t="n">
-        <v>12.13116666666666</v>
+        <v>12.14566666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4545,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4562,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="C115" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="D115" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="E115" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F115" t="n">
-        <v>1087.4068</v>
+        <v>30737.6605</v>
       </c>
       <c r="G115" t="n">
-        <v>12.1165</v>
+        <v>12.13116666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4603,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.57</v>
+        <v>11.66</v>
       </c>
       <c r="C116" t="n">
-        <v>11.52</v>
+        <v>11.66</v>
       </c>
       <c r="D116" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="E116" t="n">
-        <v>11.52</v>
+        <v>11.66</v>
       </c>
       <c r="F116" t="n">
-        <v>45271.7225</v>
+        <v>1087.4068</v>
       </c>
       <c r="G116" t="n">
-        <v>12.103</v>
+        <v>12.1165</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4644,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.77</v>
+        <v>11.57</v>
       </c>
       <c r="C117" t="n">
-        <v>11.76</v>
+        <v>11.52</v>
       </c>
       <c r="D117" t="n">
-        <v>11.77</v>
+        <v>11.61</v>
       </c>
       <c r="E117" t="n">
-        <v>11.76</v>
+        <v>11.52</v>
       </c>
       <c r="F117" t="n">
-        <v>1805.7829</v>
+        <v>45271.7225</v>
       </c>
       <c r="G117" t="n">
-        <v>12.09266666666666</v>
+        <v>12.103</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4685,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.71</v>
+        <v>11.77</v>
       </c>
       <c r="C118" t="n">
-        <v>11.71</v>
+        <v>11.76</v>
       </c>
       <c r="D118" t="n">
-        <v>11.71</v>
+        <v>11.77</v>
       </c>
       <c r="E118" t="n">
-        <v>11.71</v>
+        <v>11.76</v>
       </c>
       <c r="F118" t="n">
-        <v>5000</v>
+        <v>1805.7829</v>
       </c>
       <c r="G118" t="n">
-        <v>12.08066666666666</v>
+        <v>12.09266666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4531,19 +4729,19 @@
         <v>11.71</v>
       </c>
       <c r="C119" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="D119" t="n">
         <v>11.71</v>
       </c>
       <c r="E119" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="F119" t="n">
-        <v>71294.2222</v>
+        <v>5000</v>
       </c>
       <c r="G119" t="n">
-        <v>12.0685</v>
+        <v>12.08066666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4750,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,36 +4767,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.78</v>
+        <v>11.71</v>
       </c>
       <c r="C120" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="D120" t="n">
-        <v>11.78</v>
+        <v>11.71</v>
       </c>
       <c r="E120" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F120" t="n">
-        <v>21057.6311</v>
+        <v>71294.2222</v>
       </c>
       <c r="G120" t="n">
-        <v>12.05566666666667</v>
+        <v>12.0685</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4604,33 +4808,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.56</v>
+        <v>11.78</v>
       </c>
       <c r="C121" t="n">
-        <v>11.47</v>
+        <v>11.66</v>
       </c>
       <c r="D121" t="n">
-        <v>11.56</v>
+        <v>11.78</v>
       </c>
       <c r="E121" t="n">
-        <v>11.47</v>
+        <v>11.66</v>
       </c>
       <c r="F121" t="n">
-        <v>100181.1106</v>
+        <v>21057.6311</v>
       </c>
       <c r="G121" t="n">
-        <v>12.039</v>
+        <v>12.05566666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,33 +4849,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.88</v>
+        <v>11.56</v>
       </c>
       <c r="C122" t="n">
-        <v>11.88</v>
+        <v>11.47</v>
       </c>
       <c r="D122" t="n">
-        <v>11.88</v>
+        <v>11.56</v>
       </c>
       <c r="E122" t="n">
-        <v>11.88</v>
+        <v>11.47</v>
       </c>
       <c r="F122" t="n">
-        <v>44.8432</v>
+        <v>100181.1106</v>
       </c>
       <c r="G122" t="n">
-        <v>12.02733333333333</v>
+        <v>12.039</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,33 +4890,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.61</v>
+        <v>11.88</v>
       </c>
       <c r="C123" t="n">
-        <v>11.61</v>
+        <v>11.88</v>
       </c>
       <c r="D123" t="n">
-        <v>11.61</v>
+        <v>11.88</v>
       </c>
       <c r="E123" t="n">
-        <v>11.61</v>
+        <v>11.88</v>
       </c>
       <c r="F123" t="n">
-        <v>2365.6305</v>
+        <v>44.8432</v>
       </c>
       <c r="G123" t="n">
-        <v>12.01</v>
+        <v>12.02733333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,33 +4931,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.92</v>
+        <v>11.61</v>
       </c>
       <c r="C124" t="n">
-        <v>11.92</v>
+        <v>11.61</v>
       </c>
       <c r="D124" t="n">
-        <v>11.92</v>
+        <v>11.61</v>
       </c>
       <c r="E124" t="n">
-        <v>11.92</v>
+        <v>11.61</v>
       </c>
       <c r="F124" t="n">
-        <v>236.2452</v>
+        <v>2365.6305</v>
       </c>
       <c r="G124" t="n">
-        <v>11.99716666666666</v>
+        <v>12.01</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4768,33 +4972,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.62</v>
+        <v>11.92</v>
       </c>
       <c r="C125" t="n">
-        <v>11.62</v>
+        <v>11.92</v>
       </c>
       <c r="D125" t="n">
-        <v>11.62</v>
+        <v>11.92</v>
       </c>
       <c r="E125" t="n">
-        <v>11.62</v>
+        <v>11.92</v>
       </c>
       <c r="F125" t="n">
-        <v>4825.9601</v>
+        <v>236.2452</v>
       </c>
       <c r="G125" t="n">
-        <v>11.98</v>
+        <v>11.99716666666666</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4809,33 +5013,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.92</v>
+        <v>11.62</v>
       </c>
       <c r="C126" t="n">
-        <v>11.92</v>
+        <v>11.62</v>
       </c>
       <c r="D126" t="n">
-        <v>11.92</v>
+        <v>11.62</v>
       </c>
       <c r="E126" t="n">
-        <v>11.92</v>
+        <v>11.62</v>
       </c>
       <c r="F126" t="n">
-        <v>531.807</v>
+        <v>4825.9601</v>
       </c>
       <c r="G126" t="n">
-        <v>11.9715</v>
+        <v>11.98</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,21 +5066,21 @@
         <v>11.92</v>
       </c>
       <c r="F127" t="n">
-        <v>159.4748</v>
+        <v>531.807</v>
       </c>
       <c r="G127" t="n">
-        <v>11.961</v>
+        <v>11.9715</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,33 +5095,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.71</v>
+        <v>11.92</v>
       </c>
       <c r="C128" t="n">
-        <v>11.71</v>
+        <v>11.92</v>
       </c>
       <c r="D128" t="n">
-        <v>11.71</v>
+        <v>11.92</v>
       </c>
       <c r="E128" t="n">
-        <v>11.71</v>
+        <v>11.92</v>
       </c>
       <c r="F128" t="n">
-        <v>57318.9693</v>
+        <v>159.4748</v>
       </c>
       <c r="G128" t="n">
-        <v>11.947</v>
+        <v>11.961</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,10 +5148,10 @@
         <v>11.71</v>
       </c>
       <c r="F129" t="n">
-        <v>57388.4396</v>
+        <v>57318.9693</v>
       </c>
       <c r="G129" t="n">
-        <v>11.933</v>
+        <v>11.947</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4956,7 +5160,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,22 +5177,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.75</v>
+        <v>11.71</v>
       </c>
       <c r="C130" t="n">
-        <v>11.75</v>
+        <v>11.71</v>
       </c>
       <c r="D130" t="n">
-        <v>11.75</v>
+        <v>11.71</v>
       </c>
       <c r="E130" t="n">
-        <v>11.75</v>
+        <v>11.71</v>
       </c>
       <c r="F130" t="n">
-        <v>3975.4278</v>
+        <v>57388.4396</v>
       </c>
       <c r="G130" t="n">
-        <v>11.91966666666667</v>
+        <v>11.933</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4995,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,22 +5218,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="C131" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="D131" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="E131" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="F131" t="n">
-        <v>197198.6496</v>
+        <v>3975.4278</v>
       </c>
       <c r="G131" t="n">
-        <v>11.9225</v>
+        <v>11.91966666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5034,7 +5242,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,22 +5259,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.74</v>
+        <v>11.8</v>
       </c>
       <c r="C132" t="n">
         <v>11.7</v>
       </c>
       <c r="D132" t="n">
-        <v>11.74</v>
+        <v>11.8</v>
       </c>
       <c r="E132" t="n">
         <v>11.7</v>
       </c>
       <c r="F132" t="n">
-        <v>17094.7871</v>
+        <v>197198.6496</v>
       </c>
       <c r="G132" t="n">
-        <v>11.91</v>
+        <v>11.9225</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5073,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,22 +5300,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="C133" t="n">
         <v>11.7</v>
       </c>
       <c r="D133" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="E133" t="n">
         <v>11.7</v>
       </c>
       <c r="F133" t="n">
-        <v>2924.8503</v>
+        <v>17094.7871</v>
       </c>
       <c r="G133" t="n">
-        <v>11.904</v>
+        <v>11.91</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5112,7 +5324,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,22 +5341,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="C134" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="D134" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="E134" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="F134" t="n">
-        <v>327.9686</v>
+        <v>2924.8503</v>
       </c>
       <c r="G134" t="n">
-        <v>11.89316666666667</v>
+        <v>11.904</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5151,7 +5365,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,22 +5382,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.72</v>
+        <v>11.68</v>
       </c>
       <c r="C135" t="n">
-        <v>11.75</v>
+        <v>11.68</v>
       </c>
       <c r="D135" t="n">
-        <v>11.75</v>
+        <v>11.68</v>
       </c>
       <c r="E135" t="n">
-        <v>11.72</v>
+        <v>11.68</v>
       </c>
       <c r="F135" t="n">
-        <v>100000</v>
+        <v>327.9686</v>
       </c>
       <c r="G135" t="n">
-        <v>11.88066666666667</v>
+        <v>11.89316666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5190,7 +5406,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,22 +5423,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.64</v>
+        <v>11.72</v>
       </c>
       <c r="C136" t="n">
-        <v>11.62</v>
+        <v>11.75</v>
       </c>
       <c r="D136" t="n">
-        <v>11.64</v>
+        <v>11.75</v>
       </c>
       <c r="E136" t="n">
-        <v>11.62</v>
+        <v>11.72</v>
       </c>
       <c r="F136" t="n">
-        <v>152012.5493</v>
+        <v>100000</v>
       </c>
       <c r="G136" t="n">
-        <v>11.866</v>
+        <v>11.88066666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5229,7 +5447,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,22 +5464,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.63</v>
+        <v>11.64</v>
       </c>
       <c r="C137" t="n">
-        <v>11.63</v>
+        <v>11.62</v>
       </c>
       <c r="D137" t="n">
-        <v>11.63</v>
+        <v>11.64</v>
       </c>
       <c r="E137" t="n">
-        <v>11.63</v>
+        <v>11.62</v>
       </c>
       <c r="F137" t="n">
-        <v>140232.7984</v>
+        <v>152012.5493</v>
       </c>
       <c r="G137" t="n">
-        <v>11.85</v>
+        <v>11.866</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5268,7 +5488,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,22 +5505,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.76</v>
+        <v>11.63</v>
       </c>
       <c r="C138" t="n">
-        <v>11.79</v>
+        <v>11.63</v>
       </c>
       <c r="D138" t="n">
-        <v>11.79</v>
+        <v>11.63</v>
       </c>
       <c r="E138" t="n">
-        <v>11.76</v>
+        <v>11.63</v>
       </c>
       <c r="F138" t="n">
-        <v>17478.78712663274</v>
+        <v>140232.7984</v>
       </c>
       <c r="G138" t="n">
-        <v>11.83566666666667</v>
+        <v>11.85</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5307,7 +5529,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,7 +5546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="C139" t="n">
         <v>11.79</v>
@@ -5331,13 +5555,13 @@
         <v>11.79</v>
       </c>
       <c r="E139" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="F139" t="n">
-        <v>307.6263</v>
+        <v>17478.78712663274</v>
       </c>
       <c r="G139" t="n">
-        <v>11.8255</v>
+        <v>11.83566666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5346,7 +5570,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,22 +5587,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="C140" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="D140" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="E140" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="F140" t="n">
-        <v>55554.2956</v>
+        <v>307.6263</v>
       </c>
       <c r="G140" t="n">
-        <v>11.81416666666667</v>
+        <v>11.8255</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5385,7 +5611,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5403,19 +5631,19 @@
         <v>11.7</v>
       </c>
       <c r="C141" t="n">
-        <v>11.46</v>
+        <v>11.7</v>
       </c>
       <c r="D141" t="n">
         <v>11.7</v>
       </c>
       <c r="E141" t="n">
-        <v>11.46</v>
+        <v>11.7</v>
       </c>
       <c r="F141" t="n">
-        <v>546273.4696</v>
+        <v>55554.2956</v>
       </c>
       <c r="G141" t="n">
-        <v>11.8025</v>
+        <v>11.81416666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5424,7 +5652,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,22 +5669,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.49</v>
+        <v>11.7</v>
       </c>
       <c r="C142" t="n">
         <v>11.46</v>
       </c>
       <c r="D142" t="n">
-        <v>11.49</v>
+        <v>11.7</v>
       </c>
       <c r="E142" t="n">
         <v>11.46</v>
       </c>
       <c r="F142" t="n">
-        <v>4953.166</v>
+        <v>546273.4696</v>
       </c>
       <c r="G142" t="n">
-        <v>11.791</v>
+        <v>11.8025</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5463,7 +5693,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5478,22 +5710,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.46</v>
+        <v>11.49</v>
       </c>
       <c r="C143" t="n">
         <v>11.46</v>
       </c>
       <c r="D143" t="n">
-        <v>11.46</v>
+        <v>11.49</v>
       </c>
       <c r="E143" t="n">
         <v>11.46</v>
       </c>
       <c r="F143" t="n">
-        <v>13000</v>
+        <v>4953.166</v>
       </c>
       <c r="G143" t="n">
-        <v>11.78100000000001</v>
+        <v>11.791</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5502,7 +5734,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,10 +5763,10 @@
         <v>11.46</v>
       </c>
       <c r="F144" t="n">
-        <v>991.1849999999999</v>
+        <v>13000</v>
       </c>
       <c r="G144" t="n">
-        <v>11.77116666666667</v>
+        <v>11.78100000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5541,7 +5775,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,22 +5792,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.47</v>
+        <v>11.46</v>
       </c>
       <c r="C145" t="n">
-        <v>11.47</v>
+        <v>11.46</v>
       </c>
       <c r="D145" t="n">
-        <v>11.47</v>
+        <v>11.46</v>
       </c>
       <c r="E145" t="n">
-        <v>11.47</v>
+        <v>11.46</v>
       </c>
       <c r="F145" t="n">
-        <v>303.513</v>
+        <v>991.1849999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>11.76233333333334</v>
+        <v>11.77116666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5580,7 +5816,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5595,22 +5833,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.52</v>
+        <v>11.47</v>
       </c>
       <c r="C146" t="n">
-        <v>11.52</v>
+        <v>11.47</v>
       </c>
       <c r="D146" t="n">
-        <v>11.52</v>
+        <v>11.47</v>
       </c>
       <c r="E146" t="n">
-        <v>11.52</v>
+        <v>11.47</v>
       </c>
       <c r="F146" t="n">
-        <v>77600.6603</v>
+        <v>303.513</v>
       </c>
       <c r="G146" t="n">
-        <v>11.75266666666667</v>
+        <v>11.76233333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5619,7 +5857,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5634,22 +5874,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.46</v>
+        <v>11.52</v>
       </c>
       <c r="C147" t="n">
-        <v>11.46</v>
+        <v>11.52</v>
       </c>
       <c r="D147" t="n">
-        <v>11.46</v>
+        <v>11.52</v>
       </c>
       <c r="E147" t="n">
-        <v>11.46</v>
+        <v>11.52</v>
       </c>
       <c r="F147" t="n">
-        <v>4476.8597</v>
+        <v>77600.6603</v>
       </c>
       <c r="G147" t="n">
-        <v>11.73900000000001</v>
+        <v>11.75266666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5658,7 +5898,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,7 +5915,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.45</v>
+        <v>11.46</v>
       </c>
       <c r="C148" t="n">
         <v>11.46</v>
@@ -5682,13 +5924,13 @@
         <v>11.46</v>
       </c>
       <c r="E148" t="n">
-        <v>11.45</v>
+        <v>11.46</v>
       </c>
       <c r="F148" t="n">
-        <v>48682.0386</v>
+        <v>4476.8597</v>
       </c>
       <c r="G148" t="n">
-        <v>11.72533333333334</v>
+        <v>11.73900000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5697,7 +5939,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,22 +5956,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.56</v>
+        <v>11.45</v>
       </c>
       <c r="C149" t="n">
-        <v>11.65</v>
+        <v>11.46</v>
       </c>
       <c r="D149" t="n">
-        <v>11.66</v>
+        <v>11.46</v>
       </c>
       <c r="E149" t="n">
-        <v>11.5</v>
+        <v>11.45</v>
       </c>
       <c r="F149" t="n">
-        <v>190242.0391</v>
+        <v>48682.0386</v>
       </c>
       <c r="G149" t="n">
-        <v>11.71483333333334</v>
+        <v>11.72533333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5736,7 +5980,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,22 +5997,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.91</v>
+        <v>11.56</v>
       </c>
       <c r="C150" t="n">
-        <v>11.91</v>
+        <v>11.65</v>
       </c>
       <c r="D150" t="n">
-        <v>11.91</v>
+        <v>11.66</v>
       </c>
       <c r="E150" t="n">
-        <v>11.91</v>
+        <v>11.5</v>
       </c>
       <c r="F150" t="n">
-        <v>359.6675</v>
+        <v>190242.0391</v>
       </c>
       <c r="G150" t="n">
-        <v>11.70700000000001</v>
+        <v>11.71483333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5775,7 +6021,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,10 +6050,10 @@
         <v>11.91</v>
       </c>
       <c r="F151" t="n">
-        <v>119.4846</v>
+        <v>359.6675</v>
       </c>
       <c r="G151" t="n">
-        <v>11.70283333333334</v>
+        <v>11.70700000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5814,7 +6062,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5829,22 +6079,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.62</v>
+        <v>11.91</v>
       </c>
       <c r="C152" t="n">
-        <v>11.62</v>
+        <v>11.91</v>
       </c>
       <c r="D152" t="n">
-        <v>11.62</v>
+        <v>11.91</v>
       </c>
       <c r="E152" t="n">
-        <v>11.62</v>
+        <v>11.91</v>
       </c>
       <c r="F152" t="n">
-        <v>112.3967</v>
+        <v>119.4846</v>
       </c>
       <c r="G152" t="n">
-        <v>11.70050000000001</v>
+        <v>11.70283333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5853,7 +6103,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5868,22 +6120,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="C153" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="D153" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="E153" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="F153" t="n">
-        <v>84021.8367</v>
+        <v>112.3967</v>
       </c>
       <c r="G153" t="n">
-        <v>11.69066666666668</v>
+        <v>11.70050000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5892,7 +6144,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,22 +6161,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.62</v>
+        <v>11.69</v>
       </c>
       <c r="C154" t="n">
-        <v>11.62</v>
+        <v>11.69</v>
       </c>
       <c r="D154" t="n">
-        <v>11.62</v>
+        <v>11.69</v>
       </c>
       <c r="E154" t="n">
-        <v>11.62</v>
+        <v>11.69</v>
       </c>
       <c r="F154" t="n">
-        <v>12.7502</v>
+        <v>84021.8367</v>
       </c>
       <c r="G154" t="n">
-        <v>11.69433333333334</v>
+        <v>11.69066666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5931,7 +6185,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5946,7 +6202,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="C155" t="n">
         <v>11.62</v>
@@ -5955,13 +6211,13 @@
         <v>11.62</v>
       </c>
       <c r="E155" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="F155" t="n">
-        <v>97044.6211</v>
+        <v>12.7502</v>
       </c>
       <c r="G155" t="n">
-        <v>11.68516666666668</v>
+        <v>11.69433333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5970,7 +6226,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,22 +6243,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="C156" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="D156" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="E156" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="F156" t="n">
-        <v>16680</v>
+        <v>97044.6211</v>
       </c>
       <c r="G156" t="n">
-        <v>11.68566666666668</v>
+        <v>11.68516666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6009,7 +6267,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,10 +6296,10 @@
         <v>11.6</v>
       </c>
       <c r="F157" t="n">
-        <v>158000</v>
+        <v>16680</v>
       </c>
       <c r="G157" t="n">
-        <v>11.67816666666668</v>
+        <v>11.68566666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6048,7 +6308,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,10 +6337,10 @@
         <v>11.6</v>
       </c>
       <c r="F158" t="n">
-        <v>164543.0595</v>
+        <v>158000</v>
       </c>
       <c r="G158" t="n">
-        <v>11.67916666666668</v>
+        <v>11.67816666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6087,7 +6349,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,22 +6366,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="C159" t="n">
-        <v>11.62</v>
+        <v>11.6</v>
       </c>
       <c r="D159" t="n">
-        <v>11.62</v>
+        <v>11.6</v>
       </c>
       <c r="E159" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="F159" t="n">
-        <v>134938.2592</v>
+        <v>164543.0595</v>
       </c>
       <c r="G159" t="n">
-        <v>11.68216666666668</v>
+        <v>11.67916666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,22 +6407,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.61</v>
+        <v>11.59</v>
       </c>
       <c r="C160" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="D160" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="E160" t="n">
-        <v>11.61</v>
+        <v>11.59</v>
       </c>
       <c r="F160" t="n">
-        <v>4531.1532</v>
+        <v>134938.2592</v>
       </c>
       <c r="G160" t="n">
-        <v>11.68283333333335</v>
+        <v>11.68216666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6165,7 +6431,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6180,22 +6448,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.8</v>
+        <v>11.61</v>
       </c>
       <c r="C161" t="n">
-        <v>11.8</v>
+        <v>11.61</v>
       </c>
       <c r="D161" t="n">
-        <v>11.8</v>
+        <v>11.61</v>
       </c>
       <c r="E161" t="n">
-        <v>11.8</v>
+        <v>11.61</v>
       </c>
       <c r="F161" t="n">
-        <v>43</v>
+        <v>4531.1532</v>
       </c>
       <c r="G161" t="n">
-        <v>11.68666666666668</v>
+        <v>11.68283333333335</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6204,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,22 +6489,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F162" t="n">
         <v>43</v>
       </c>
       <c r="G162" t="n">
-        <v>11.69033333333334</v>
+        <v>11.68666666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6243,7 +6513,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6258,22 +6530,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.87</v>
+        <v>11.9</v>
       </c>
       <c r="C163" t="n">
-        <v>11.83</v>
+        <v>11.9</v>
       </c>
       <c r="D163" t="n">
-        <v>11.87</v>
+        <v>11.9</v>
       </c>
       <c r="E163" t="n">
-        <v>11.83</v>
+        <v>11.9</v>
       </c>
       <c r="F163" t="n">
-        <v>152286.8089</v>
+        <v>43</v>
       </c>
       <c r="G163" t="n">
-        <v>11.69300000000001</v>
+        <v>11.69033333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6282,7 +6554,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6297,22 +6571,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.81</v>
+        <v>11.87</v>
       </c>
       <c r="C164" t="n">
-        <v>11.8</v>
+        <v>11.83</v>
       </c>
       <c r="D164" t="n">
-        <v>11.81</v>
+        <v>11.87</v>
       </c>
       <c r="E164" t="n">
-        <v>11.8</v>
+        <v>11.83</v>
       </c>
       <c r="F164" t="n">
-        <v>120346.9183</v>
+        <v>152286.8089</v>
       </c>
       <c r="G164" t="n">
-        <v>11.69516666666668</v>
+        <v>11.69300000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6321,7 +6595,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6336,22 +6612,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.6</v>
+        <v>11.81</v>
       </c>
       <c r="C165" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D165" t="n">
-        <v>11.6</v>
+        <v>11.81</v>
       </c>
       <c r="E165" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F165" t="n">
-        <v>2247.5717</v>
+        <v>120346.9183</v>
       </c>
       <c r="G165" t="n">
-        <v>11.69050000000001</v>
+        <v>11.69516666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6360,7 +6636,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>12.28</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,37 +6653,80 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2247.5717</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11.69050000000001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>11.8</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C167" t="n">
         <v>11.8</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D167" t="n">
         <v>11.8</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E167" t="n">
         <v>11.8</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>86574.0941</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G167" t="n">
         <v>11.68633333333335</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>6517.3565</v>
       </c>
       <c r="G2" t="n">
+        <v>11.402</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.68716666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1082.8881</v>
       </c>
       <c r="G3" t="n">
+        <v>11.38066666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.68366666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,27 @@
         <v>133835.72</v>
       </c>
       <c r="G4" t="n">
+        <v>11.372</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.67416666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.3</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +573,27 @@
         <v>625673.6917</v>
       </c>
       <c r="G5" t="n">
+        <v>11.374</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.66583333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.28</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +617,25 @@
         <v>13077.8854</v>
       </c>
       <c r="G6" t="n">
+        <v>11.38933333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.649</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,25 @@
         <v>11687.4223</v>
       </c>
       <c r="G7" t="n">
+        <v>11.402</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.63</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +701,25 @@
         <v>38300</v>
       </c>
       <c r="G8" t="n">
+        <v>11.406</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.61266666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +743,25 @@
         <v>29623.1659</v>
       </c>
       <c r="G9" t="n">
+        <v>11.42466666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.60916666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +785,25 @@
         <v>7000</v>
       </c>
       <c r="G10" t="n">
+        <v>11.42266666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.59083333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +827,25 @@
         <v>2289.6006</v>
       </c>
       <c r="G11" t="n">
+        <v>11.40866666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.57483333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +869,25 @@
         <v>7225</v>
       </c>
       <c r="G12" t="n">
+        <v>11.40666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.56350000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +911,25 @@
         <v>18733.5913</v>
       </c>
       <c r="G13" t="n">
+        <v>11.418</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.55066666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +953,25 @@
         <v>73998.234</v>
       </c>
       <c r="G14" t="n">
+        <v>11.41533333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.53733333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +995,27 @@
         <v>68214.724</v>
       </c>
       <c r="G15" t="n">
+        <v>11.432</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.52750000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.3</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1039,27 @@
         <v>445.276</v>
       </c>
       <c r="G16" t="n">
+        <v>11.44866666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.52216666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.58</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1083,25 @@
         <v>225.2332</v>
       </c>
       <c r="G17" t="n">
+        <v>11.46933333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.51733333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1125,25 @@
         <v>12077.3166</v>
       </c>
       <c r="G18" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.51416666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1167,25 @@
         <v>22605.8806</v>
       </c>
       <c r="G19" t="n">
+        <v>11.512</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.50483333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1209,27 @@
         <v>255.2586206896552</v>
       </c>
       <c r="G20" t="n">
+        <v>11.528</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.50166666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.61</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1253,25 @@
         <v>9719</v>
       </c>
       <c r="G21" t="n">
+        <v>11.52666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.50033333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1295,25 @@
         <v>3665.1763</v>
       </c>
       <c r="G22" t="n">
+        <v>11.52133333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.49716666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1337,25 @@
         <v>8000</v>
       </c>
       <c r="G23" t="n">
+        <v>11.506</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.48883333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1379,25 @@
         <v>373.142</v>
       </c>
       <c r="G24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.48300000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1421,27 @@
         <v>9788.491900000001</v>
       </c>
       <c r="G25" t="n">
+        <v>11.51066666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.47966666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.51</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1465,27 @@
         <v>111.9725</v>
       </c>
       <c r="G26" t="n">
+        <v>11.52333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.47066666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.46</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1509,27 @@
         <v>197.2242</v>
       </c>
       <c r="G27" t="n">
+        <v>11.52333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.47066666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.51</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1553,27 @@
         <v>123774.6290793103</v>
       </c>
       <c r="G28" t="n">
+        <v>11.53066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.46833333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.5</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1597,27 @@
         <v>80301.9393</v>
       </c>
       <c r="G29" t="n">
+        <v>11.55466666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.47100000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.61</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1641,25 @@
         <v>248.035</v>
       </c>
       <c r="G30" t="n">
+        <v>11.56266666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.47450000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1683,25 @@
         <v>211449.308</v>
       </c>
       <c r="G31" t="n">
+        <v>11.548</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.47233333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1725,25 @@
         <v>55</v>
       </c>
       <c r="G32" t="n">
+        <v>11.554</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.47583333333335</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1767,25 @@
         <v>159064.4889</v>
       </c>
       <c r="G33" t="n">
+        <v>11.55266666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.48033333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1809,25 @@
         <v>72983.98910000001</v>
       </c>
       <c r="G34" t="n">
+        <v>11.53733333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.48133333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1851,25 @@
         <v>63297.9075</v>
       </c>
       <c r="G35" t="n">
+        <v>11.53066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.47950000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1893,25 @@
         <v>1458.1331</v>
       </c>
       <c r="G36" t="n">
+        <v>11.516</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.48016666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1935,27 @@
         <v>179740.9121</v>
       </c>
       <c r="G37" t="n">
+        <v>11.51533333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.48083333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.39</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1979,25 @@
         <v>31632.7456</v>
       </c>
       <c r="G38" t="n">
+        <v>11.52466666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.48150000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2021,25 @@
         <v>26542.3892</v>
       </c>
       <c r="G39" t="n">
+        <v>11.524</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.48450000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2063,25 @@
         <v>67000</v>
       </c>
       <c r="G40" t="n">
+        <v>11.53333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.48350000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2105,25 @@
         <v>50.3098</v>
       </c>
       <c r="G41" t="n">
+        <v>11.54533333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.48966666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2147,25 @@
         <v>7950.4775</v>
       </c>
       <c r="G42" t="n">
+        <v>11.558</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.49016666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2189,25 @@
         <v>20182.9936</v>
       </c>
       <c r="G43" t="n">
+        <v>11.58666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.49916666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2231,25 @@
         <v>7433.2883</v>
       </c>
       <c r="G44" t="n">
+        <v>11.61933333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.50933333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2273,25 @@
         <v>23658.8386</v>
       </c>
       <c r="G45" t="n">
+        <v>11.64266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.51766666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2315,25 @@
         <v>15075.6686</v>
       </c>
       <c r="G46" t="n">
+        <v>11.70133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.52916666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2357,25 @@
         <v>15076.116</v>
       </c>
       <c r="G47" t="n">
+        <v>11.73733333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.54066666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2399,25 @@
         <v>34864.2346</v>
       </c>
       <c r="G48" t="n">
+        <v>11.78133333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.55116666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2441,25 @@
         <v>112572.5421573984</v>
       </c>
       <c r="G49" t="n">
+        <v>11.84266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.56600000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2483,25 @@
         <v>37820.0281</v>
       </c>
       <c r="G50" t="n">
+        <v>11.89466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.58183333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2525,25 @@
         <v>906.5416</v>
       </c>
       <c r="G51" t="n">
+        <v>11.96066666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.59816666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2567,25 @@
         <v>5462.0063</v>
       </c>
       <c r="G52" t="n">
+        <v>12.01866666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.61433333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2609,25 @@
         <v>271.971</v>
       </c>
       <c r="G53" t="n">
+        <v>12.07733333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.62850000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2651,25 @@
         <v>79336.68850339011</v>
       </c>
       <c r="G54" t="n">
+        <v>12.16066666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.65233333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2693,25 @@
         <v>27401.0948</v>
       </c>
       <c r="G55" t="n">
+        <v>12.22533333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.67300000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2735,25 @@
         <v>2606.292</v>
       </c>
       <c r="G56" t="n">
+        <v>12.282</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.68983333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2777,25 @@
         <v>8829.266600000001</v>
       </c>
       <c r="G57" t="n">
+        <v>12.32466666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.70316666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2819,25 @@
         <v>8613.920700000001</v>
       </c>
       <c r="G58" t="n">
+        <v>12.34733333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.72066666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2861,25 @@
         <v>15640</v>
       </c>
       <c r="G59" t="n">
+        <v>12.366</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.73883333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2903,25 @@
         <v>9186</v>
       </c>
       <c r="G60" t="n">
+        <v>12.39133333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.75716666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2945,25 @@
         <v>3063</v>
       </c>
       <c r="G61" t="n">
+        <v>12.404</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.77550000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2987,25 @@
         <v>5797.1694</v>
       </c>
       <c r="G62" t="n">
+        <v>12.41933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.79500000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3029,25 @@
         <v>52708.201</v>
       </c>
       <c r="G63" t="n">
+        <v>12.44133333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.81633333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3071,25 @@
         <v>25024.2515</v>
       </c>
       <c r="G64" t="n">
+        <v>12.46466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.83916666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3113,25 @@
         <v>86712.87059999999</v>
       </c>
       <c r="G65" t="n">
+        <v>12.492</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.86133333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,20 +3155,25 @@
         <v>5149.1934</v>
       </c>
       <c r="G66" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.87833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,18 +3195,21 @@
         <v>7950.4775</v>
       </c>
       <c r="G67" t="n">
+        <v>12.514</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.89233333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3233,21 @@
         <v>158.8836</v>
       </c>
       <c r="G68" t="n">
+        <v>12.52533333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.90833333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3271,21 @@
         <v>3816.1164</v>
       </c>
       <c r="G69" t="n">
+        <v>12.512</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.92416666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3309,21 @@
         <v>168.4545</v>
       </c>
       <c r="G70" t="n">
+        <v>12.51066666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.94500000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3347,21 @@
         <v>5422.9787</v>
       </c>
       <c r="G71" t="n">
+        <v>12.51133333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.9655</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3385,21 @@
         <v>72285.38310000001</v>
       </c>
       <c r="G72" t="n">
+        <v>12.45800000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.966</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3423,21 @@
         <v>120.3829</v>
       </c>
       <c r="G73" t="n">
+        <v>12.46266666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.98183333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3461,21 @@
         <v>8048.1201</v>
       </c>
       <c r="G74" t="n">
+        <v>12.43800000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.99450000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3499,21 @@
         <v>17449.9883</v>
       </c>
       <c r="G75" t="n">
+        <v>12.43133333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.00700000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3537,21 @@
         <v>84882.2643</v>
       </c>
       <c r="G76" t="n">
+        <v>12.43600000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.02233333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3575,21 @@
         <v>1303.8057</v>
       </c>
       <c r="G77" t="n">
+        <v>12.43800000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.03716666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3613,21 @@
         <v>89743.3305</v>
       </c>
       <c r="G78" t="n">
+        <v>12.43866666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.0535</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3651,21 @@
         <v>92542.9678</v>
       </c>
       <c r="G79" t="n">
+        <v>12.43866666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.07083333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3689,21 @@
         <v>26814.516</v>
       </c>
       <c r="G80" t="n">
+        <v>12.41933333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.08416666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3727,21 @@
         <v>9522.8758</v>
       </c>
       <c r="G81" t="n">
+        <v>12.40133333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.097</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3765,21 @@
         <v>6112.9758</v>
       </c>
       <c r="G82" t="n">
+        <v>12.38333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.10783333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3803,21 @@
         <v>1265.7598</v>
       </c>
       <c r="G83" t="n">
+        <v>12.35666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.121</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3841,21 @@
         <v>5136.1925</v>
       </c>
       <c r="G84" t="n">
+        <v>12.324</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.13016666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3879,21 @@
         <v>97.9195</v>
       </c>
       <c r="G85" t="n">
+        <v>12.29066666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.14</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,22 +3917,21 @@
         <v>29407.2242</v>
       </c>
       <c r="G86" t="n">
+        <v>12.254</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.14816666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>12.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3427,26 +3955,21 @@
         <v>6849.7431</v>
       </c>
       <c r="G87" t="n">
+        <v>12.292</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.15816666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>12</v>
-      </c>
-      <c r="K87" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,26 +3993,21 @@
         <v>16381.273</v>
       </c>
       <c r="G88" t="n">
+        <v>12.28066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.16933333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,22 +4031,21 @@
         <v>133.6942</v>
       </c>
       <c r="G89" t="n">
+        <v>12.29533333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.17966666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="K89" t="n">
-        <v>12.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,24 +4069,21 @@
         <v>365.2064</v>
       </c>
       <c r="G90" t="n">
+        <v>12.292</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.18933333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3593,24 +4107,21 @@
         <v>3417.317805331179</v>
       </c>
       <c r="G91" t="n">
+        <v>12.284</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.20633333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,24 +4145,21 @@
         <v>6000</v>
       </c>
       <c r="G92" t="n">
+        <v>12.26133333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.214</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,24 +4183,21 @@
         <v>66423.7133</v>
       </c>
       <c r="G93" t="n">
+        <v>12.206</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.21683333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,24 +4221,21 @@
         <v>205.7291</v>
       </c>
       <c r="G94" t="n">
+        <v>12.18133333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.23183333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,24 +4259,21 @@
         <v>32101.2162</v>
       </c>
       <c r="G95" t="n">
+        <v>12.11466666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.23016666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,24 +4297,21 @@
         <v>155.8054</v>
       </c>
       <c r="G96" t="n">
+        <v>12.10066666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.24316666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,24 +4335,21 @@
         <v>9103.501</v>
       </c>
       <c r="G97" t="n">
+        <v>12.06133333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.24433333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,24 +4373,21 @@
         <v>253.6211</v>
       </c>
       <c r="G98" t="n">
+        <v>12.05466666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.2535</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,24 +4411,21 @@
         <v>180457.9149</v>
       </c>
       <c r="G99" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.25416666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,24 +4449,21 @@
         <v>50000</v>
       </c>
       <c r="G100" t="n">
+        <v>11.97933333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.25149999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,24 +4487,21 @@
         <v>9000</v>
       </c>
       <c r="G101" t="n">
+        <v>11.95066666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.24949999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,24 +4525,21 @@
         <v>9252</v>
       </c>
       <c r="G102" t="n">
+        <v>11.91533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.2475</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,24 +4563,21 @@
         <v>82725.2096</v>
       </c>
       <c r="G103" t="n">
+        <v>11.87533333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.24149999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,24 +4601,21 @@
         <v>2424.7854</v>
       </c>
       <c r="G104" t="n">
+        <v>11.83466666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.23349999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,24 +4639,21 @@
         <v>9202.581700000001</v>
       </c>
       <c r="G105" t="n">
+        <v>11.794</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.22716666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,24 +4677,21 @@
         <v>4627</v>
       </c>
       <c r="G106" t="n">
+        <v>11.76066666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.22116666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,24 +4715,21 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
+        <v>11.75333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.21799999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,24 +4753,21 @@
         <v>6964</v>
       </c>
       <c r="G108" t="n">
+        <v>11.75466666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.21016666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,24 +4791,21 @@
         <v>1402.347</v>
       </c>
       <c r="G109" t="n">
+        <v>11.738</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.20566666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,24 +4829,21 @@
         <v>69567.87910000001</v>
       </c>
       <c r="G110" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.19399999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,24 +4867,21 @@
         <v>4466</v>
       </c>
       <c r="G111" t="n">
+        <v>11.71066666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.18066666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,24 +4905,21 @@
         <v>44830.3789</v>
       </c>
       <c r="G112" t="n">
+        <v>11.71933333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.1695</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,24 +4943,21 @@
         <v>3373.2347</v>
       </c>
       <c r="G113" t="n">
+        <v>11.696</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.15816666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,24 +4981,21 @@
         <v>319.2477</v>
       </c>
       <c r="G114" t="n">
+        <v>11.72666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.14566666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,24 +5019,21 @@
         <v>30737.6605</v>
       </c>
       <c r="G115" t="n">
+        <v>11.744</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.13116666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,24 +5057,21 @@
         <v>1087.4068</v>
       </c>
       <c r="G116" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.1165</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,24 +5095,21 @@
         <v>45271.7225</v>
       </c>
       <c r="G117" t="n">
+        <v>11.74666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.103</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,24 +5133,21 @@
         <v>1805.7829</v>
       </c>
       <c r="G118" t="n">
+        <v>11.752</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.09266666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,24 +5171,21 @@
         <v>5000</v>
       </c>
       <c r="G119" t="n">
+        <v>11.75466666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.08066666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,24 +5209,21 @@
         <v>71294.2222</v>
       </c>
       <c r="G120" t="n">
+        <v>11.75666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.0685</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,24 +5247,21 @@
         <v>21057.6311</v>
       </c>
       <c r="G121" t="n">
+        <v>11.742</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.05566666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,24 +5285,21 @@
         <v>100181.1106</v>
       </c>
       <c r="G122" t="n">
+        <v>11.70333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.039</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4905,24 +5323,21 @@
         <v>44.8432</v>
       </c>
       <c r="G123" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.02733333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,24 +5361,21 @@
         <v>2365.6305</v>
       </c>
       <c r="G124" t="n">
+        <v>11.682</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.01</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,24 +5399,21 @@
         <v>236.2452</v>
       </c>
       <c r="G125" t="n">
+        <v>11.70466666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.99716666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,24 +5437,21 @@
         <v>4825.9601</v>
       </c>
       <c r="G126" t="n">
+        <v>11.70733333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.98</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,24 +5475,21 @@
         <v>531.807</v>
       </c>
       <c r="G127" t="n">
+        <v>11.722</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.9715</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,24 +5513,21 @@
         <v>159.4748</v>
       </c>
       <c r="G128" t="n">
+        <v>11.73666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.961</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5151,24 +5551,21 @@
         <v>57318.9693</v>
       </c>
       <c r="G129" t="n">
+        <v>11.71733333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.947</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,24 +5589,21 @@
         <v>57388.4396</v>
       </c>
       <c r="G130" t="n">
+        <v>11.718</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.933</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,24 +5627,21 @@
         <v>3975.4278</v>
       </c>
       <c r="G131" t="n">
+        <v>11.724</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.91966666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,24 +5665,21 @@
         <v>197198.6496</v>
       </c>
       <c r="G132" t="n">
+        <v>11.736</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.9225</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5315,24 +5703,21 @@
         <v>17094.7871</v>
       </c>
       <c r="G133" t="n">
+        <v>11.732</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.91</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,24 +5741,21 @@
         <v>2924.8503</v>
       </c>
       <c r="G134" t="n">
+        <v>11.73133333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.904</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5397,24 +5779,21 @@
         <v>327.9686</v>
       </c>
       <c r="G135" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.89316666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,24 +5817,21 @@
         <v>100000</v>
       </c>
       <c r="G136" t="n">
+        <v>11.736</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.88066666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,24 +5855,21 @@
         <v>152012.5493</v>
       </c>
       <c r="G137" t="n">
+        <v>11.746</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.866</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,24 +5893,21 @@
         <v>140232.7984</v>
       </c>
       <c r="G138" t="n">
+        <v>11.72933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.85</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,24 +5931,21 @@
         <v>17478.78712663274</v>
       </c>
       <c r="G139" t="n">
+        <v>11.74133333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.83566666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,24 +5969,21 @@
         <v>307.6263</v>
       </c>
       <c r="G140" t="n">
+        <v>11.73266666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.8255</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5643,24 +6007,21 @@
         <v>55554.2956</v>
       </c>
       <c r="G141" t="n">
+        <v>11.738</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.81416666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,24 +6045,21 @@
         <v>546273.4696</v>
       </c>
       <c r="G142" t="n">
+        <v>11.70733333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.8025</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5725,24 +6083,21 @@
         <v>4953.166</v>
       </c>
       <c r="G143" t="n">
+        <v>11.67666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.791</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,24 +6121,21 @@
         <v>13000</v>
       </c>
       <c r="G144" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.78100000000001</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5807,24 +6159,21 @@
         <v>991.1849999999999</v>
       </c>
       <c r="G145" t="n">
+        <v>11.64333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.77116666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,24 +6197,21 @@
         <v>303.513</v>
       </c>
       <c r="G146" t="n">
+        <v>11.62466666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.76233333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,24 +6235,21 @@
         <v>77600.6603</v>
       </c>
       <c r="G147" t="n">
+        <v>11.61266666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.75266666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5930,24 +6273,25 @@
         <v>4476.8597</v>
       </c>
       <c r="G148" t="n">
+        <v>11.59666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.73900000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="L148" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5971,24 +6315,27 @@
         <v>48682.0386</v>
       </c>
       <c r="G149" t="n">
+        <v>11.58066666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.72533333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,24 +6359,29 @@
         <v>190242.0391</v>
       </c>
       <c r="G150" t="n">
+        <v>11.57866666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.71483333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="L150" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6053,24 +6405,29 @@
         <v>359.6675</v>
       </c>
       <c r="G151" t="n">
+        <v>11.58933333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>11.70700000000001</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L151" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,24 +6451,27 @@
         <v>119.4846</v>
       </c>
       <c r="G152" t="n">
+        <v>11.60866666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>11.70283333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,24 +6495,27 @@
         <v>112.3967</v>
       </c>
       <c r="G153" t="n">
+        <v>11.608</v>
+      </c>
+      <c r="H153" t="n">
         <v>11.70050000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,24 +6539,27 @@
         <v>84021.8367</v>
       </c>
       <c r="G154" t="n">
+        <v>11.60133333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>11.69066666666668</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6217,24 +6583,27 @@
         <v>12.7502</v>
       </c>
       <c r="G155" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="H155" t="n">
         <v>11.69433333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,24 +6627,27 @@
         <v>97044.6211</v>
       </c>
       <c r="G156" t="n">
+        <v>11.58466666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>11.68516666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6299,24 +6671,27 @@
         <v>16680</v>
       </c>
       <c r="G157" t="n">
+        <v>11.594</v>
+      </c>
+      <c r="H157" t="n">
         <v>11.68566666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,24 +6715,27 @@
         <v>158000</v>
       </c>
       <c r="G158" t="n">
+        <v>11.60333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>11.67816666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,24 +6759,27 @@
         <v>164543.0595</v>
       </c>
       <c r="G159" t="n">
+        <v>11.61266666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>11.67916666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,24 +6803,27 @@
         <v>134938.2592</v>
       </c>
       <c r="G160" t="n">
+        <v>11.62333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>11.68216666666668</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,24 +6847,29 @@
         <v>4531.1532</v>
       </c>
       <c r="G161" t="n">
+        <v>11.63266666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>11.68283333333335</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="L161" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,24 +6893,27 @@
         <v>43</v>
       </c>
       <c r="G162" t="n">
+        <v>11.65133333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>11.68666666666668</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,24 +6937,27 @@
         <v>43</v>
       </c>
       <c r="G163" t="n">
+        <v>11.68066666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>11.69033333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6586,24 +6981,27 @@
         <v>152286.8089</v>
       </c>
       <c r="G164" t="n">
+        <v>11.70533333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>11.69300000000001</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,24 +7025,27 @@
         <v>120346.9183</v>
       </c>
       <c r="G165" t="n">
+        <v>11.71533333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>11.69516666666668</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,24 +7069,27 @@
         <v>2247.5717</v>
       </c>
       <c r="G166" t="n">
+        <v>11.69466666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>11.69050000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,24 +7113,467 @@
         <v>86574.0941</v>
       </c>
       <c r="G167" t="n">
+        <v>11.68733333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>11.68633333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3407</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11.69266666666667</v>
+      </c>
+      <c r="H168" t="n">
+        <v>11.68500000000001</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F169" t="n">
+        <v>41013.1031</v>
+      </c>
+      <c r="G169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H169" t="n">
+        <v>11.68116666666668</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>45906.1296</v>
+      </c>
+      <c r="G170" t="n">
+        <v>11.71200000000001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>11.68483333333335</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12469.1261</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11.72333333333334</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11.68833333333334</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F172" t="n">
+        <v>16749.5659</v>
+      </c>
+      <c r="G172" t="n">
+        <v>11.736</v>
+      </c>
+      <c r="H172" t="n">
+        <v>11.68983333333334</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F173" t="n">
+        <v>37785.9611</v>
+      </c>
+      <c r="G173" t="n">
+        <v>11.74933333333334</v>
+      </c>
+      <c r="H173" t="n">
+        <v>11.69150000000001</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F174" t="n">
+        <v>55544.3486</v>
+      </c>
+      <c r="G174" t="n">
+        <v>11.76133333333334</v>
+      </c>
+      <c r="H174" t="n">
+        <v>11.68783333333334</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F175" t="n">
+        <v>83121.3067</v>
+      </c>
+      <c r="G175" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="H175" t="n">
+        <v>11.68866666666667</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F176" t="n">
+        <v>116793.0554</v>
+      </c>
+      <c r="G176" t="n">
+        <v>11.77933333333334</v>
+      </c>
+      <c r="H176" t="n">
+        <v>11.69016666666667</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F177" t="n">
+        <v>82497.6609</v>
+      </c>
+      <c r="G177" t="n">
+        <v>11.77933333333334</v>
+      </c>
+      <c r="H177" t="n">
+        <v>11.69483333333334</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.32</v>
+        <v>11.5</v>
       </c>
       <c r="C2" t="n">
-        <v>11.32</v>
+        <v>11.58</v>
       </c>
       <c r="D2" t="n">
-        <v>11.32</v>
+        <v>11.58</v>
       </c>
       <c r="E2" t="n">
-        <v>11.32</v>
+        <v>11.5</v>
       </c>
       <c r="F2" t="n">
-        <v>45777.7843</v>
+        <v>68214.724</v>
       </c>
       <c r="G2" t="n">
-        <v>4846.497586141406</v>
+        <v>-189229.7000138586</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.33</v>
+        <v>11.58</v>
       </c>
       <c r="C3" t="n">
-        <v>11.32</v>
+        <v>11.58</v>
       </c>
       <c r="D3" t="n">
-        <v>11.33</v>
+        <v>11.58</v>
       </c>
       <c r="E3" t="n">
-        <v>11.32</v>
+        <v>11.58</v>
       </c>
       <c r="F3" t="n">
-        <v>66583.7424</v>
+        <v>445.276</v>
       </c>
       <c r="G3" t="n">
-        <v>4846.497586141406</v>
+        <v>-189229.7000138586</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -515,10 +522,10 @@
         <v>11.61</v>
       </c>
       <c r="F4" t="n">
-        <v>6510</v>
+        <v>225.2332</v>
       </c>
       <c r="G4" t="n">
-        <v>11356.49758614141</v>
+        <v>-189004.4668138586</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,67 +539,65 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.35</v>
+        <v>11.61</v>
       </c>
       <c r="C5" t="n">
-        <v>11.35</v>
+        <v>11.61</v>
       </c>
       <c r="D5" t="n">
-        <v>11.35</v>
+        <v>11.61</v>
       </c>
       <c r="E5" t="n">
-        <v>11.35</v>
+        <v>11.61</v>
       </c>
       <c r="F5" t="n">
-        <v>46319.5789</v>
+        <v>12077.3166</v>
       </c>
       <c r="G5" t="n">
-        <v>-34963.08131385859</v>
+        <v>-189004.4668138586</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.61</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.46</v>
+        <v>11.61</v>
       </c>
       <c r="C6" t="n">
-        <v>11.46</v>
+        <v>11.61</v>
       </c>
       <c r="D6" t="n">
-        <v>11.46</v>
+        <v>11.61</v>
       </c>
       <c r="E6" t="n">
-        <v>11.46</v>
+        <v>11.61</v>
       </c>
       <c r="F6" t="n">
-        <v>2131.5987</v>
+        <v>22605.8806</v>
       </c>
       <c r="G6" t="n">
-        <v>-32831.48261385859</v>
+        <v>-189004.4668138586</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -601,39 +606,34 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="C7" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="D7" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="E7" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1866.0439</v>
+        <v>255.2586206896552</v>
       </c>
       <c r="G7" t="n">
-        <v>-32831.48261385859</v>
+        <v>-189259.7254345482</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,39 +642,34 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.46</v>
+        <v>11.6</v>
       </c>
       <c r="C8" t="n">
-        <v>11.32</v>
+        <v>11.61</v>
       </c>
       <c r="D8" t="n">
-        <v>11.46</v>
+        <v>11.61</v>
       </c>
       <c r="E8" t="n">
-        <v>11.32</v>
+        <v>11.6</v>
       </c>
       <c r="F8" t="n">
-        <v>464249.907</v>
+        <v>9719</v>
       </c>
       <c r="G8" t="n">
-        <v>-497081.3896138586</v>
+        <v>-179540.7254345482</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -688,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.66</v>
+        <v>11.46</v>
       </c>
       <c r="C9" t="n">
-        <v>11.66</v>
+        <v>11.51</v>
       </c>
       <c r="D9" t="n">
-        <v>11.66</v>
+        <v>11.51</v>
       </c>
       <c r="E9" t="n">
-        <v>11.66</v>
+        <v>11.46</v>
       </c>
       <c r="F9" t="n">
-        <v>77.72799999999999</v>
+        <v>3665.1763</v>
       </c>
       <c r="G9" t="n">
-        <v>-497003.6616138586</v>
+        <v>-183205.9017345482</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -723,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.33</v>
+        <v>11.46</v>
       </c>
       <c r="C10" t="n">
-        <v>11.32</v>
+        <v>11.36</v>
       </c>
       <c r="D10" t="n">
-        <v>11.33</v>
+        <v>11.46</v>
       </c>
       <c r="E10" t="n">
-        <v>11.32</v>
+        <v>11.36</v>
       </c>
       <c r="F10" t="n">
-        <v>100319.1698</v>
+        <v>8000</v>
       </c>
       <c r="G10" t="n">
-        <v>-597322.8314138586</v>
+        <v>-191205.9017345482</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -758,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.32</v>
+        <v>11.51</v>
       </c>
       <c r="C11" t="n">
-        <v>11.66</v>
+        <v>11.51</v>
       </c>
       <c r="D11" t="n">
-        <v>11.66</v>
+        <v>11.51</v>
       </c>
       <c r="E11" t="n">
-        <v>11.32</v>
+        <v>11.51</v>
       </c>
       <c r="F11" t="n">
-        <v>5496.7629</v>
+        <v>373.142</v>
       </c>
       <c r="G11" t="n">
-        <v>-591826.0685138586</v>
+        <v>-190832.7597345482</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -793,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.5</v>
+        <v>11.46</v>
       </c>
       <c r="C12" t="n">
-        <v>11.5</v>
+        <v>11.46</v>
       </c>
       <c r="D12" t="n">
-        <v>11.5</v>
+        <v>11.46</v>
       </c>
       <c r="E12" t="n">
-        <v>11.5</v>
+        <v>11.46</v>
       </c>
       <c r="F12" t="n">
-        <v>8000</v>
+        <v>9788.491900000001</v>
       </c>
       <c r="G12" t="n">
-        <v>-599826.0685138586</v>
+        <v>-200621.2516345482</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -828,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="C13" t="n">
-        <v>11.54</v>
+        <v>11.51</v>
       </c>
       <c r="D13" t="n">
-        <v>11.54</v>
+        <v>11.51</v>
       </c>
       <c r="E13" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="F13" t="n">
-        <v>14108.8798</v>
+        <v>111.9725</v>
       </c>
       <c r="G13" t="n">
-        <v>-585717.1887138586</v>
+        <v>-200509.2791345482</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -863,215 +863,229 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="C14" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="D14" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="E14" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="F14" t="n">
-        <v>506.8362</v>
+        <v>197.2242</v>
       </c>
       <c r="G14" t="n">
-        <v>-585210.3525138586</v>
+        <v>-200706.5033345482</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.51</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.55</v>
+        <v>11.61</v>
       </c>
       <c r="C15" t="n">
-        <v>11.55</v>
+        <v>11.61</v>
       </c>
       <c r="D15" t="n">
-        <v>11.55</v>
+        <v>11.61</v>
       </c>
       <c r="E15" t="n">
-        <v>11.55</v>
+        <v>11.61</v>
       </c>
       <c r="F15" t="n">
-        <v>59.056</v>
+        <v>123774.6290793103</v>
       </c>
       <c r="G15" t="n">
-        <v>-585210.3525138586</v>
+        <v>-76931.87425523791</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.55</v>
+        <v>11.66</v>
       </c>
       <c r="C16" t="n">
-        <v>11.55</v>
+        <v>11.66</v>
       </c>
       <c r="D16" t="n">
-        <v>11.55</v>
+        <v>11.66</v>
       </c>
       <c r="E16" t="n">
-        <v>11.55</v>
+        <v>11.66</v>
       </c>
       <c r="F16" t="n">
-        <v>13105.1078</v>
+        <v>80301.9393</v>
       </c>
       <c r="G16" t="n">
-        <v>-585210.3525138586</v>
+        <v>3370.065044762086</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="C17" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="D17" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="E17" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1133.9169</v>
+        <v>248.035</v>
       </c>
       <c r="G17" t="n">
-        <v>-584076.4356138586</v>
+        <v>3618.100044762086</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11.55</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.41</v>
+        <v>11.61</v>
       </c>
       <c r="C18" t="n">
-        <v>11.41</v>
+        <v>11.36</v>
       </c>
       <c r="D18" t="n">
-        <v>11.41</v>
+        <v>11.61</v>
       </c>
       <c r="E18" t="n">
-        <v>11.41</v>
+        <v>11.36</v>
       </c>
       <c r="F18" t="n">
-        <v>64.8245</v>
+        <v>211449.308</v>
       </c>
       <c r="G18" t="n">
-        <v>-584141.2601138586</v>
+        <v>-207831.2079552379</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="C19" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="D19" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="E19" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="F19" t="n">
-        <v>50570.4279</v>
+        <v>55</v>
       </c>
       <c r="G19" t="n">
-        <v>-634711.6880138586</v>
+        <v>-207776.2079552379</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1080,41 +1094,38 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.41</v>
+        <v>11.36</v>
       </c>
       <c r="K19" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.36</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="C20" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="D20" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="E20" t="n">
-        <v>11.4</v>
+        <v>11.36</v>
       </c>
       <c r="F20" t="n">
-        <v>346.9409</v>
+        <v>159064.4889</v>
       </c>
       <c r="G20" t="n">
-        <v>-634364.7471138586</v>
+        <v>-366840.6968552379</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1123,37 +1134,42 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="K20" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>11.36</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="C21" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="D21" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="E21" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="F21" t="n">
-        <v>9788.491900000001</v>
+        <v>72983.98910000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-634364.7471138586</v>
+        <v>-439824.6859552379</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1162,41 +1178,42 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="K21" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.53</v>
+        <v>11.38</v>
       </c>
       <c r="C22" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="D22" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="E22" t="n">
-        <v>11.53</v>
+        <v>11.38</v>
       </c>
       <c r="F22" t="n">
-        <v>156.5185</v>
+        <v>63297.9075</v>
       </c>
       <c r="G22" t="n">
-        <v>-634208.2286138586</v>
+        <v>-376526.778455238</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1205,41 +1222,42 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="K22" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="C23" t="n">
-        <v>11.32</v>
+        <v>11.39</v>
       </c>
       <c r="D23" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="E23" t="n">
-        <v>11.32</v>
+        <v>11.39</v>
       </c>
       <c r="F23" t="n">
-        <v>49935.1755</v>
+        <v>1458.1331</v>
       </c>
       <c r="G23" t="n">
-        <v>-684143.4041138586</v>
+        <v>-377984.911555238</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1248,41 +1266,42 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="K23" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C24" t="n">
-        <v>11.33</v>
+        <v>11.5</v>
       </c>
       <c r="D24" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="E24" t="n">
-        <v>11.33</v>
+        <v>11.5</v>
       </c>
       <c r="F24" t="n">
-        <v>105853.0495</v>
+        <v>179740.9121</v>
       </c>
       <c r="G24" t="n">
-        <v>-578290.3546138586</v>
+        <v>-198243.999455238</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1291,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.32</v>
+        <v>11.39</v>
       </c>
       <c r="K24" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1304,40 +1323,39 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="C25" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="D25" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="E25" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9009</v>
+        <v>31632.7456</v>
       </c>
       <c r="G25" t="n">
-        <v>-578149.4537138586</v>
+        <v>-198243.999455238</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1347,40 +1365,39 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.53</v>
+        <v>11.49</v>
       </c>
       <c r="C26" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="D26" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="E26" t="n">
-        <v>11.53</v>
+        <v>11.49</v>
       </c>
       <c r="F26" t="n">
-        <v>11689.3702</v>
+        <v>26542.3892</v>
       </c>
       <c r="G26" t="n">
-        <v>-578149.4537138586</v>
+        <v>-198243.999455238</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.53</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1390,40 +1407,39 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.44</v>
+        <v>11.59</v>
       </c>
       <c r="C27" t="n">
-        <v>11.33</v>
+        <v>11.6</v>
       </c>
       <c r="D27" t="n">
-        <v>11.44</v>
+        <v>11.6</v>
       </c>
       <c r="E27" t="n">
-        <v>11.33</v>
+        <v>11.59</v>
       </c>
       <c r="F27" t="n">
-        <v>40995.6887</v>
+        <v>67000</v>
       </c>
       <c r="G27" t="n">
-        <v>-619145.1424138586</v>
+        <v>-131243.999455238</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>11.53</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1433,28 +1449,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="C28" t="n">
-        <v>11.34</v>
+        <v>11.69</v>
       </c>
       <c r="D28" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="E28" t="n">
-        <v>11.34</v>
+        <v>11.69</v>
       </c>
       <c r="F28" t="n">
-        <v>468.2957</v>
+        <v>50.3098</v>
       </c>
       <c r="G28" t="n">
-        <v>-618676.8467138585</v>
+        <v>-131193.689655238</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1464,7 +1481,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1474,28 +1491,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.33</v>
+        <v>11.69</v>
       </c>
       <c r="C29" t="n">
-        <v>11.33</v>
+        <v>11.69</v>
       </c>
       <c r="D29" t="n">
-        <v>11.33</v>
+        <v>11.69</v>
       </c>
       <c r="E29" t="n">
-        <v>11.33</v>
+        <v>11.69</v>
       </c>
       <c r="F29" t="n">
-        <v>83618.1881</v>
+        <v>7950.4775</v>
       </c>
       <c r="G29" t="n">
-        <v>-702295.0348138586</v>
+        <v>-131193.689655238</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1505,7 +1523,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1515,28 +1533,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.33</v>
+        <v>11.69</v>
       </c>
       <c r="C30" t="n">
-        <v>11.33</v>
+        <v>12.04</v>
       </c>
       <c r="D30" t="n">
-        <v>11.33</v>
+        <v>12.04</v>
       </c>
       <c r="E30" t="n">
-        <v>11.33</v>
+        <v>11.69</v>
       </c>
       <c r="F30" t="n">
-        <v>18838.8508</v>
+        <v>20182.9936</v>
       </c>
       <c r="G30" t="n">
-        <v>-702295.0348138586</v>
+        <v>-111010.696055238</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1546,7 +1565,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1556,28 +1575,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.32</v>
+        <v>12.05</v>
       </c>
       <c r="C31" t="n">
-        <v>11.3</v>
+        <v>12.15</v>
       </c>
       <c r="D31" t="n">
-        <v>11.32</v>
+        <v>12.15</v>
       </c>
       <c r="E31" t="n">
-        <v>11.3</v>
+        <v>12.05</v>
       </c>
       <c r="F31" t="n">
-        <v>6517.3565</v>
+        <v>7433.2883</v>
       </c>
       <c r="G31" t="n">
-        <v>-708812.3913138586</v>
+        <v>-103577.407755238</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1587,7 +1607,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1597,28 +1617,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.3</v>
+        <v>12.05</v>
       </c>
       <c r="C32" t="n">
-        <v>11.3</v>
+        <v>12.05</v>
       </c>
       <c r="D32" t="n">
-        <v>11.3</v>
+        <v>12.05</v>
       </c>
       <c r="E32" t="n">
-        <v>11.3</v>
+        <v>12.05</v>
       </c>
       <c r="F32" t="n">
-        <v>1082.8881</v>
+        <v>23658.8386</v>
       </c>
       <c r="G32" t="n">
-        <v>-708812.3913138586</v>
+        <v>-127236.246355238</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1628,7 +1649,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1638,28 +1659,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.3</v>
+        <v>12.15</v>
       </c>
       <c r="C33" t="n">
-        <v>11.28</v>
+        <v>12.24</v>
       </c>
       <c r="D33" t="n">
-        <v>11.3</v>
+        <v>12.24</v>
       </c>
       <c r="E33" t="n">
-        <v>11.28</v>
+        <v>12.15</v>
       </c>
       <c r="F33" t="n">
-        <v>133835.72</v>
+        <v>15075.6686</v>
       </c>
       <c r="G33" t="n">
-        <v>-842648.1113138585</v>
+        <v>-112160.577755238</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1669,7 +1691,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1679,28 +1701,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>12.24</v>
       </c>
       <c r="C34" t="n">
-        <v>11.36</v>
+        <v>12.24</v>
       </c>
       <c r="D34" t="n">
-        <v>11.36</v>
+        <v>12.24</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>12.24</v>
       </c>
       <c r="F34" t="n">
-        <v>625673.6917</v>
+        <v>15076.116</v>
       </c>
       <c r="G34" t="n">
-        <v>-216974.4196138586</v>
+        <v>-112160.577755238</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1710,7 +1733,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1720,28 +1743,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.49</v>
+        <v>12.25</v>
       </c>
       <c r="C35" t="n">
-        <v>11.63</v>
+        <v>12.25</v>
       </c>
       <c r="D35" t="n">
-        <v>11.64</v>
+        <v>12.25</v>
       </c>
       <c r="E35" t="n">
-        <v>11.49</v>
+        <v>12.25</v>
       </c>
       <c r="F35" t="n">
-        <v>13077.8854</v>
+        <v>34864.2346</v>
       </c>
       <c r="G35" t="n">
-        <v>-203896.5342138586</v>
+        <v>-77296.34315523796</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1751,7 +1775,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1761,28 +1785,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.59</v>
+        <v>12.27</v>
       </c>
       <c r="C36" t="n">
-        <v>11.59</v>
+        <v>12.3</v>
       </c>
       <c r="D36" t="n">
-        <v>11.59</v>
+        <v>12.31</v>
       </c>
       <c r="E36" t="n">
-        <v>11.59</v>
+        <v>12.27</v>
       </c>
       <c r="F36" t="n">
-        <v>11687.4223</v>
+        <v>112572.5421573984</v>
       </c>
       <c r="G36" t="n">
-        <v>-215583.9565138586</v>
+        <v>35276.19900216044</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1792,7 +1817,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1802,28 +1827,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.59</v>
+        <v>12.28</v>
       </c>
       <c r="C37" t="n">
-        <v>11.59</v>
+        <v>12.28</v>
       </c>
       <c r="D37" t="n">
-        <v>11.59</v>
+        <v>12.28</v>
       </c>
       <c r="E37" t="n">
-        <v>11.59</v>
+        <v>12.28</v>
       </c>
       <c r="F37" t="n">
-        <v>38300</v>
+        <v>37820.0281</v>
       </c>
       <c r="G37" t="n">
-        <v>-215583.9565138586</v>
+        <v>-2543.82909783956</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1833,7 +1859,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1843,28 +1869,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.6</v>
+        <v>12.38</v>
       </c>
       <c r="C38" t="n">
-        <v>11.6</v>
+        <v>12.38</v>
       </c>
       <c r="D38" t="n">
-        <v>11.6</v>
+        <v>12.38</v>
       </c>
       <c r="E38" t="n">
-        <v>11.6</v>
+        <v>12.38</v>
       </c>
       <c r="F38" t="n">
-        <v>29623.1659</v>
+        <v>906.5416</v>
       </c>
       <c r="G38" t="n">
-        <v>-185960.7906138586</v>
+        <v>-1637.28749783956</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1874,7 +1901,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1884,28 +1911,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.59</v>
+        <v>12.38</v>
       </c>
       <c r="C39" t="n">
-        <v>11.3</v>
+        <v>12.37</v>
       </c>
       <c r="D39" t="n">
-        <v>11.59</v>
+        <v>12.38</v>
       </c>
       <c r="E39" t="n">
-        <v>11.3</v>
+        <v>12.37</v>
       </c>
       <c r="F39" t="n">
-        <v>7000</v>
+        <v>5462.0063</v>
       </c>
       <c r="G39" t="n">
-        <v>-192960.7906138586</v>
+        <v>-7099.29379783956</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1915,7 +1943,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1925,28 +1953,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.32</v>
+        <v>12.38</v>
       </c>
       <c r="C40" t="n">
-        <v>11.32</v>
+        <v>12.38</v>
       </c>
       <c r="D40" t="n">
-        <v>11.32</v>
+        <v>12.38</v>
       </c>
       <c r="E40" t="n">
-        <v>11.32</v>
+        <v>12.38</v>
       </c>
       <c r="F40" t="n">
-        <v>2289.6006</v>
+        <v>271.971</v>
       </c>
       <c r="G40" t="n">
-        <v>-190671.1900138586</v>
+        <v>-6827.322797839561</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1956,7 +1985,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1966,28 +1995,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.5</v>
+        <v>12.37</v>
       </c>
       <c r="C41" t="n">
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="D41" t="n">
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="E41" t="n">
-        <v>11.5</v>
+        <v>12.37</v>
       </c>
       <c r="F41" t="n">
-        <v>7225</v>
+        <v>79336.68850339011</v>
       </c>
       <c r="G41" t="n">
-        <v>-183446.1900138586</v>
+        <v>72509.36570555055</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1997,7 +2027,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2007,28 +2037,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.5</v>
+        <v>12.12</v>
       </c>
       <c r="C42" t="n">
-        <v>11.5</v>
+        <v>12.57</v>
       </c>
       <c r="D42" t="n">
-        <v>11.5</v>
+        <v>12.57</v>
       </c>
       <c r="E42" t="n">
-        <v>11.5</v>
+        <v>12.12</v>
       </c>
       <c r="F42" t="n">
-        <v>18733.5913</v>
+        <v>27401.0948</v>
       </c>
       <c r="G42" t="n">
-        <v>-183446.1900138586</v>
+        <v>45108.27090555055</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2038,7 +2069,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2048,28 +2079,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.4</v>
+        <v>12.46</v>
       </c>
       <c r="C43" t="n">
-        <v>11.3</v>
+        <v>12.54</v>
       </c>
       <c r="D43" t="n">
-        <v>11.4</v>
+        <v>12.57</v>
       </c>
       <c r="E43" t="n">
-        <v>11.3</v>
+        <v>12.42</v>
       </c>
       <c r="F43" t="n">
-        <v>73998.234</v>
+        <v>2606.292</v>
       </c>
       <c r="G43" t="n">
-        <v>-257444.4240138586</v>
+        <v>42501.97890555055</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2079,7 +2111,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2089,28 +2121,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="C44" t="n">
-        <v>11.58</v>
+        <v>12.33</v>
       </c>
       <c r="D44" t="n">
-        <v>11.58</v>
+        <v>12.4</v>
       </c>
       <c r="E44" t="n">
-        <v>11.5</v>
+        <v>12.32</v>
       </c>
       <c r="F44" t="n">
-        <v>68214.724</v>
+        <v>8829.266600000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-189229.7000138586</v>
+        <v>33672.71230555054</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2120,7 +2153,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2130,28 +2163,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.58</v>
+        <v>12.48</v>
       </c>
       <c r="C45" t="n">
-        <v>11.58</v>
+        <v>12.38</v>
       </c>
       <c r="D45" t="n">
-        <v>11.58</v>
+        <v>12.48</v>
       </c>
       <c r="E45" t="n">
-        <v>11.58</v>
+        <v>12.38</v>
       </c>
       <c r="F45" t="n">
-        <v>445.276</v>
+        <v>8613.920700000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-189229.7000138586</v>
+        <v>42286.63300555055</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2161,7 +2195,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2171,28 +2205,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="C46" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="D46" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="E46" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="F46" t="n">
-        <v>225.2332</v>
+        <v>15640</v>
       </c>
       <c r="G46" t="n">
-        <v>-189004.4668138586</v>
+        <v>57926.63300555055</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2202,7 +2237,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2212,28 +2247,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="C47" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="D47" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="E47" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="F47" t="n">
-        <v>12077.3166</v>
+        <v>9186</v>
       </c>
       <c r="G47" t="n">
-        <v>-189004.4668138586</v>
+        <v>57926.63300555055</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2243,7 +2279,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2253,28 +2289,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="C48" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="D48" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="E48" t="n">
-        <v>11.61</v>
+        <v>12.43</v>
       </c>
       <c r="F48" t="n">
-        <v>22605.8806</v>
+        <v>3063</v>
       </c>
       <c r="G48" t="n">
-        <v>-189004.4668138586</v>
+        <v>57926.63300555055</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2284,7 +2321,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2294,28 +2331,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.6</v>
+        <v>12.46</v>
       </c>
       <c r="C49" t="n">
-        <v>11.6</v>
+        <v>12.47</v>
       </c>
       <c r="D49" t="n">
-        <v>11.6</v>
+        <v>12.47</v>
       </c>
       <c r="E49" t="n">
-        <v>11.6</v>
+        <v>12.46</v>
       </c>
       <c r="F49" t="n">
-        <v>255.2586206896552</v>
+        <v>5797.1694</v>
       </c>
       <c r="G49" t="n">
-        <v>-189259.7254345482</v>
+        <v>63723.80240555054</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2325,7 +2363,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2335,28 +2373,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.6</v>
+        <v>12.58</v>
       </c>
       <c r="C50" t="n">
-        <v>11.61</v>
+        <v>12.58</v>
       </c>
       <c r="D50" t="n">
-        <v>11.61</v>
+        <v>12.68</v>
       </c>
       <c r="E50" t="n">
-        <v>11.6</v>
+        <v>12.58</v>
       </c>
       <c r="F50" t="n">
-        <v>9719</v>
+        <v>52708.201</v>
       </c>
       <c r="G50" t="n">
-        <v>-179540.7254345482</v>
+        <v>116432.0034055506</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2366,7 +2405,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2376,28 +2415,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.46</v>
+        <v>12.68</v>
       </c>
       <c r="C51" t="n">
-        <v>11.51</v>
+        <v>12.65</v>
       </c>
       <c r="D51" t="n">
-        <v>11.51</v>
+        <v>12.68</v>
       </c>
       <c r="E51" t="n">
-        <v>11.46</v>
+        <v>12.65</v>
       </c>
       <c r="F51" t="n">
-        <v>3665.1763</v>
+        <v>25024.2515</v>
       </c>
       <c r="G51" t="n">
-        <v>-183205.9017345482</v>
+        <v>141456.2549055506</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2407,7 +2447,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2417,28 +2457,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.46</v>
+        <v>12.65</v>
       </c>
       <c r="C52" t="n">
-        <v>11.36</v>
+        <v>12.69</v>
       </c>
       <c r="D52" t="n">
-        <v>11.46</v>
+        <v>12.69</v>
       </c>
       <c r="E52" t="n">
-        <v>11.36</v>
+        <v>12.65</v>
       </c>
       <c r="F52" t="n">
-        <v>8000</v>
+        <v>86712.87059999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-191205.9017345482</v>
+        <v>228169.1255055506</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2448,7 +2489,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2458,28 +2499,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.51</v>
+        <v>12.65</v>
       </c>
       <c r="C53" t="n">
-        <v>11.51</v>
+        <v>12.65</v>
       </c>
       <c r="D53" t="n">
-        <v>11.51</v>
+        <v>12.65</v>
       </c>
       <c r="E53" t="n">
-        <v>11.51</v>
+        <v>12.65</v>
       </c>
       <c r="F53" t="n">
-        <v>373.142</v>
+        <v>5149.1934</v>
       </c>
       <c r="G53" t="n">
-        <v>-190832.7597345482</v>
+        <v>223019.9321055506</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2489,7 +2531,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2499,28 +2541,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.46</v>
+        <v>12.43</v>
       </c>
       <c r="C54" t="n">
-        <v>11.46</v>
+        <v>12.43</v>
       </c>
       <c r="D54" t="n">
-        <v>11.46</v>
+        <v>12.43</v>
       </c>
       <c r="E54" t="n">
-        <v>11.46</v>
+        <v>12.43</v>
       </c>
       <c r="F54" t="n">
-        <v>9788.491900000001</v>
+        <v>7950.4775</v>
       </c>
       <c r="G54" t="n">
-        <v>-200621.2516345482</v>
+        <v>215069.4546055506</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2530,7 +2573,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2540,28 +2583,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.51</v>
+        <v>12.55</v>
       </c>
       <c r="C55" t="n">
-        <v>11.51</v>
+        <v>12.55</v>
       </c>
       <c r="D55" t="n">
-        <v>11.51</v>
+        <v>12.55</v>
       </c>
       <c r="E55" t="n">
-        <v>11.51</v>
+        <v>12.55</v>
       </c>
       <c r="F55" t="n">
-        <v>111.9725</v>
+        <v>158.8836</v>
       </c>
       <c r="G55" t="n">
-        <v>-200509.2791345482</v>
+        <v>215228.3382055506</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2571,7 +2615,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2581,28 +2625,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.5</v>
+        <v>12.55</v>
       </c>
       <c r="C56" t="n">
-        <v>11.5</v>
+        <v>12.55</v>
       </c>
       <c r="D56" t="n">
-        <v>11.5</v>
+        <v>12.55</v>
       </c>
       <c r="E56" t="n">
-        <v>11.5</v>
+        <v>12.55</v>
       </c>
       <c r="F56" t="n">
-        <v>197.2242</v>
+        <v>3816.1164</v>
       </c>
       <c r="G56" t="n">
-        <v>-200706.5033345482</v>
+        <v>215228.3382055506</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2612,7 +2657,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2622,28 +2667,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.61</v>
+        <v>12.55</v>
       </c>
       <c r="C57" t="n">
-        <v>11.61</v>
+        <v>12.55</v>
       </c>
       <c r="D57" t="n">
-        <v>11.61</v>
+        <v>12.55</v>
       </c>
       <c r="E57" t="n">
-        <v>11.61</v>
+        <v>12.55</v>
       </c>
       <c r="F57" t="n">
-        <v>123774.6290793103</v>
+        <v>168.4545</v>
       </c>
       <c r="G57" t="n">
-        <v>-76931.87425523791</v>
+        <v>215228.3382055506</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2653,7 +2699,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2663,28 +2709,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.66</v>
+        <v>12.55</v>
       </c>
       <c r="C58" t="n">
-        <v>11.66</v>
+        <v>12.55</v>
       </c>
       <c r="D58" t="n">
-        <v>11.66</v>
+        <v>12.55</v>
       </c>
       <c r="E58" t="n">
-        <v>11.66</v>
+        <v>12.55</v>
       </c>
       <c r="F58" t="n">
-        <v>80301.9393</v>
+        <v>5422.9787</v>
       </c>
       <c r="G58" t="n">
-        <v>3370.065044762086</v>
+        <v>215228.3382055506</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2694,7 +2741,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2704,28 +2751,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.7</v>
+        <v>12.43</v>
       </c>
       <c r="C59" t="n">
-        <v>11.7</v>
+        <v>11.53</v>
       </c>
       <c r="D59" t="n">
-        <v>11.7</v>
+        <v>12.43</v>
       </c>
       <c r="E59" t="n">
-        <v>11.7</v>
+        <v>11.53</v>
       </c>
       <c r="F59" t="n">
-        <v>248.035</v>
+        <v>72285.38310000001</v>
       </c>
       <c r="G59" t="n">
-        <v>3618.100044762086</v>
+        <v>142942.9551055506</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2735,7 +2783,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2745,28 +2793,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.61</v>
+        <v>12.45</v>
       </c>
       <c r="C60" t="n">
-        <v>11.36</v>
+        <v>12.45</v>
       </c>
       <c r="D60" t="n">
-        <v>11.61</v>
+        <v>12.45</v>
       </c>
       <c r="E60" t="n">
-        <v>11.36</v>
+        <v>12.45</v>
       </c>
       <c r="F60" t="n">
-        <v>211449.308</v>
+        <v>120.3829</v>
       </c>
       <c r="G60" t="n">
-        <v>-207831.2079552379</v>
+        <v>143063.3380055506</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2776,7 +2825,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2786,28 +2835,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.7</v>
+        <v>12.55</v>
       </c>
       <c r="C61" t="n">
-        <v>11.7</v>
+        <v>12.06</v>
       </c>
       <c r="D61" t="n">
-        <v>11.7</v>
+        <v>12.55</v>
       </c>
       <c r="E61" t="n">
-        <v>11.7</v>
+        <v>12.06</v>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>8048.1201</v>
       </c>
       <c r="G61" t="n">
-        <v>-207776.2079552379</v>
+        <v>135015.2179055506</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2817,7 +2867,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2827,28 +2877,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.59</v>
+        <v>12.06</v>
       </c>
       <c r="C62" t="n">
-        <v>11.59</v>
+        <v>12.33</v>
       </c>
       <c r="D62" t="n">
-        <v>11.59</v>
+        <v>12.33</v>
       </c>
       <c r="E62" t="n">
-        <v>11.36</v>
+        <v>12.06</v>
       </c>
       <c r="F62" t="n">
-        <v>159064.4889</v>
+        <v>17449.9883</v>
       </c>
       <c r="G62" t="n">
-        <v>-366840.6968552379</v>
+        <v>152465.2062055506</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2858,7 +2909,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2868,28 +2919,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.39</v>
+        <v>12.47</v>
       </c>
       <c r="C63" t="n">
-        <v>11.38</v>
+        <v>12.5</v>
       </c>
       <c r="D63" t="n">
-        <v>11.39</v>
+        <v>12.6</v>
       </c>
       <c r="E63" t="n">
-        <v>11.38</v>
+        <v>12.47</v>
       </c>
       <c r="F63" t="n">
-        <v>72983.98910000001</v>
+        <v>84882.2643</v>
       </c>
       <c r="G63" t="n">
-        <v>-439824.6859552379</v>
+        <v>237347.4705055506</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2899,7 +2951,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2909,46 +2961,50 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.38</v>
+        <v>12.5</v>
       </c>
       <c r="C64" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="D64" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="E64" t="n">
-        <v>11.38</v>
+        <v>12.5</v>
       </c>
       <c r="F64" t="n">
-        <v>63297.9075</v>
+        <v>1303.8057</v>
       </c>
       <c r="G64" t="n">
-        <v>-376526.778455238</v>
+        <v>237347.4705055506</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>1.095352112676057</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.029929577464789</v>
       </c>
     </row>
     <row r="65">
@@ -2956,22 +3012,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.39</v>
+        <v>12.5</v>
       </c>
       <c r="C65" t="n">
-        <v>11.39</v>
+        <v>12.59</v>
       </c>
       <c r="D65" t="n">
-        <v>11.39</v>
+        <v>12.59</v>
       </c>
       <c r="E65" t="n">
-        <v>11.39</v>
+        <v>12.5</v>
       </c>
       <c r="F65" t="n">
-        <v>1458.1331</v>
+        <v>89743.3305</v>
       </c>
       <c r="G65" t="n">
-        <v>-377984.911555238</v>
+        <v>327090.8010055505</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2980,285 +3036,250 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.5</v>
+        <v>12.64</v>
       </c>
       <c r="C66" t="n">
-        <v>11.5</v>
+        <v>12.65</v>
       </c>
       <c r="D66" t="n">
-        <v>11.5</v>
+        <v>12.65</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5</v>
+        <v>12.64</v>
       </c>
       <c r="F66" t="n">
-        <v>179740.9121</v>
+        <v>92542.9678</v>
       </c>
       <c r="G66" t="n">
-        <v>-198243.999455238</v>
+        <v>419633.7688055505</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="C67" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="D67" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="E67" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="F67" t="n">
-        <v>31632.7456</v>
+        <v>26814.516</v>
       </c>
       <c r="G67" t="n">
-        <v>-198243.999455238</v>
+        <v>392819.2528055505</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.49</v>
+        <v>12.38</v>
       </c>
       <c r="C68" t="n">
-        <v>11.5</v>
+        <v>12.38</v>
       </c>
       <c r="D68" t="n">
-        <v>11.5</v>
+        <v>12.38</v>
       </c>
       <c r="E68" t="n">
-        <v>11.49</v>
+        <v>12.38</v>
       </c>
       <c r="F68" t="n">
-        <v>26542.3892</v>
+        <v>9522.8758</v>
       </c>
       <c r="G68" t="n">
-        <v>-198243.999455238</v>
+        <v>383296.3770055505</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.59</v>
+        <v>12.16</v>
       </c>
       <c r="C69" t="n">
-        <v>11.6</v>
+        <v>12.16</v>
       </c>
       <c r="D69" t="n">
-        <v>11.6</v>
+        <v>12.16</v>
       </c>
       <c r="E69" t="n">
-        <v>11.59</v>
+        <v>12.16</v>
       </c>
       <c r="F69" t="n">
-        <v>67000</v>
+        <v>6112.9758</v>
       </c>
       <c r="G69" t="n">
-        <v>-131243.999455238</v>
+        <v>377183.4012055505</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.69</v>
+        <v>12.15</v>
       </c>
       <c r="C70" t="n">
-        <v>11.69</v>
+        <v>12.15</v>
       </c>
       <c r="D70" t="n">
-        <v>11.69</v>
+        <v>12.15</v>
       </c>
       <c r="E70" t="n">
-        <v>11.69</v>
+        <v>12.15</v>
       </c>
       <c r="F70" t="n">
-        <v>50.3098</v>
+        <v>1265.7598</v>
       </c>
       <c r="G70" t="n">
-        <v>-131193.689655238</v>
+        <v>375917.6414055505</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="C71" t="n">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="D71" t="n">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="E71" t="n">
-        <v>11.69</v>
+        <v>12.06</v>
       </c>
       <c r="F71" t="n">
-        <v>7950.4775</v>
+        <v>5136.1925</v>
       </c>
       <c r="G71" t="n">
-        <v>-131193.689655238</v>
+        <v>370781.4489055505</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.69</v>
+        <v>12.05</v>
       </c>
       <c r="C72" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="D72" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="E72" t="n">
-        <v>11.69</v>
+        <v>12.05</v>
       </c>
       <c r="F72" t="n">
-        <v>20182.9936</v>
+        <v>97.9195</v>
       </c>
       <c r="G72" t="n">
-        <v>-111010.696055238</v>
+        <v>370683.5294055505</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3267,39 +3288,34 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>7433.2883</v>
+        <v>29407.2242</v>
       </c>
       <c r="G73" t="n">
-        <v>-103577.407755238</v>
+        <v>341276.3052055505</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3308,39 +3324,34 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.05</v>
+        <v>12.1</v>
       </c>
       <c r="C74" t="n">
-        <v>12.05</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>12.05</v>
+        <v>12.1</v>
       </c>
       <c r="E74" t="n">
-        <v>12.05</v>
+        <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>23658.8386</v>
+        <v>6849.7431</v>
       </c>
       <c r="G74" t="n">
-        <v>-127236.246355238</v>
+        <v>348126.0483055505</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3349,39 +3360,34 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="C75" t="n">
-        <v>12.24</v>
+        <v>12.28</v>
       </c>
       <c r="D75" t="n">
-        <v>12.24</v>
+        <v>12.28</v>
       </c>
       <c r="E75" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="F75" t="n">
-        <v>15075.6686</v>
+        <v>16381.273</v>
       </c>
       <c r="G75" t="n">
-        <v>-112160.577755238</v>
+        <v>364507.3213055505</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3390,39 +3396,34 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.24</v>
+        <v>12.28</v>
       </c>
       <c r="C76" t="n">
-        <v>12.24</v>
+        <v>12.28</v>
       </c>
       <c r="D76" t="n">
-        <v>12.24</v>
+        <v>12.28</v>
       </c>
       <c r="E76" t="n">
-        <v>12.24</v>
+        <v>12.28</v>
       </c>
       <c r="F76" t="n">
-        <v>15076.116</v>
+        <v>133.6942</v>
       </c>
       <c r="G76" t="n">
-        <v>-112160.577755238</v>
+        <v>364507.3213055505</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3431,39 +3432,34 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.25</v>
+        <v>12.28</v>
       </c>
       <c r="C77" t="n">
-        <v>12.25</v>
+        <v>12.28</v>
       </c>
       <c r="D77" t="n">
-        <v>12.25</v>
+        <v>12.28</v>
       </c>
       <c r="E77" t="n">
-        <v>12.25</v>
+        <v>12.28</v>
       </c>
       <c r="F77" t="n">
-        <v>34864.2346</v>
+        <v>365.2064</v>
       </c>
       <c r="G77" t="n">
-        <v>-77296.34315523796</v>
+        <v>364507.3213055505</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3472,80 +3468,70 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.27</v>
+        <v>12.28</v>
       </c>
       <c r="C78" t="n">
-        <v>12.3</v>
+        <v>12.38</v>
       </c>
       <c r="D78" t="n">
-        <v>12.31</v>
+        <v>12.38</v>
       </c>
       <c r="E78" t="n">
-        <v>12.27</v>
+        <v>12.28</v>
       </c>
       <c r="F78" t="n">
-        <v>112572.5421573984</v>
+        <v>3417.317805331179</v>
       </c>
       <c r="G78" t="n">
-        <v>35276.19900216044</v>
+        <v>367924.6391108817</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="C79" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="D79" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="E79" t="n">
-        <v>12.28</v>
+        <v>12.16</v>
       </c>
       <c r="F79" t="n">
-        <v>37820.0281</v>
+        <v>6000</v>
       </c>
       <c r="G79" t="n">
-        <v>-2543.82909783956</v>
+        <v>361924.6391108817</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3554,80 +3540,70 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.38</v>
+        <v>12.16</v>
       </c>
       <c r="C80" t="n">
-        <v>12.38</v>
+        <v>11.76</v>
       </c>
       <c r="D80" t="n">
-        <v>12.38</v>
+        <v>12.16</v>
       </c>
       <c r="E80" t="n">
-        <v>12.38</v>
+        <v>11.76</v>
       </c>
       <c r="F80" t="n">
-        <v>906.5416</v>
+        <v>66423.7133</v>
       </c>
       <c r="G80" t="n">
-        <v>-1637.28749783956</v>
+        <v>295500.9258108817</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="C81" t="n">
-        <v>12.37</v>
+        <v>12.28</v>
       </c>
       <c r="D81" t="n">
-        <v>12.38</v>
+        <v>12.28</v>
       </c>
       <c r="E81" t="n">
-        <v>12.37</v>
+        <v>12.28</v>
       </c>
       <c r="F81" t="n">
-        <v>5462.0063</v>
+        <v>205.7291</v>
       </c>
       <c r="G81" t="n">
-        <v>-7099.29379783956</v>
+        <v>295706.6549108817</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3636,39 +3612,34 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.38</v>
+        <v>11.85</v>
       </c>
       <c r="C82" t="n">
-        <v>12.38</v>
+        <v>11.4</v>
       </c>
       <c r="D82" t="n">
-        <v>12.38</v>
+        <v>11.85</v>
       </c>
       <c r="E82" t="n">
-        <v>12.38</v>
+        <v>11.4</v>
       </c>
       <c r="F82" t="n">
-        <v>271.971</v>
+        <v>32101.2162</v>
       </c>
       <c r="G82" t="n">
-        <v>-6827.322797839561</v>
+        <v>263605.4387108817</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3677,39 +3648,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.37</v>
+        <v>12.17</v>
       </c>
       <c r="C83" t="n">
-        <v>12.75</v>
+        <v>12.17</v>
       </c>
       <c r="D83" t="n">
-        <v>12.75</v>
+        <v>12.17</v>
       </c>
       <c r="E83" t="n">
-        <v>12.37</v>
+        <v>12.17</v>
       </c>
       <c r="F83" t="n">
-        <v>79336.68850339011</v>
+        <v>155.8054</v>
       </c>
       <c r="G83" t="n">
-        <v>72509.36570555055</v>
+        <v>263761.2441108817</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3718,80 +3684,70 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.12</v>
+        <v>11.67</v>
       </c>
       <c r="C84" t="n">
-        <v>12.57</v>
+        <v>11.57</v>
       </c>
       <c r="D84" t="n">
-        <v>12.57</v>
+        <v>11.67</v>
       </c>
       <c r="E84" t="n">
-        <v>12.12</v>
+        <v>11.57</v>
       </c>
       <c r="F84" t="n">
-        <v>27401.0948</v>
+        <v>9103.501</v>
       </c>
       <c r="G84" t="n">
-        <v>45108.27090555055</v>
+        <v>254657.7431108817</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.46</v>
+        <v>12.06</v>
       </c>
       <c r="C85" t="n">
-        <v>12.54</v>
+        <v>12.05</v>
       </c>
       <c r="D85" t="n">
-        <v>12.57</v>
+        <v>12.06</v>
       </c>
       <c r="E85" t="n">
-        <v>12.42</v>
+        <v>12.05</v>
       </c>
       <c r="F85" t="n">
-        <v>2606.292</v>
+        <v>253.6211</v>
       </c>
       <c r="G85" t="n">
-        <v>42501.97890555055</v>
+        <v>254911.3642108817</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3800,39 +3756,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.4</v>
+        <v>11.69</v>
       </c>
       <c r="C86" t="n">
-        <v>12.33</v>
+        <v>11.54</v>
       </c>
       <c r="D86" t="n">
-        <v>12.4</v>
+        <v>11.69</v>
       </c>
       <c r="E86" t="n">
-        <v>12.32</v>
+        <v>11.54</v>
       </c>
       <c r="F86" t="n">
-        <v>8829.266600000001</v>
+        <v>180457.9149</v>
       </c>
       <c r="G86" t="n">
-        <v>33672.71230555054</v>
+        <v>74453.4493108817</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3841,39 +3792,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.48</v>
+        <v>11.54</v>
       </c>
       <c r="C87" t="n">
-        <v>12.38</v>
+        <v>11.44</v>
       </c>
       <c r="D87" t="n">
-        <v>12.48</v>
+        <v>11.54</v>
       </c>
       <c r="E87" t="n">
-        <v>12.38</v>
+        <v>11.44</v>
       </c>
       <c r="F87" t="n">
-        <v>8613.920700000001</v>
+        <v>50000</v>
       </c>
       <c r="G87" t="n">
-        <v>42286.63300555055</v>
+        <v>24453.4493108817</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3882,39 +3828,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="C88" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="D88" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="E88" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="F88" t="n">
-        <v>15640</v>
+        <v>9000</v>
       </c>
       <c r="G88" t="n">
-        <v>57926.63300555055</v>
+        <v>33453.4493108817</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3923,39 +3864,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="C89" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="D89" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="E89" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="F89" t="n">
-        <v>9186</v>
+        <v>9252</v>
       </c>
       <c r="G89" t="n">
-        <v>57926.63300555055</v>
+        <v>33453.4493108817</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3964,39 +3900,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="C90" t="n">
-        <v>12.43</v>
+        <v>11.68</v>
       </c>
       <c r="D90" t="n">
-        <v>12.43</v>
+        <v>11.68</v>
       </c>
       <c r="E90" t="n">
-        <v>12.43</v>
+        <v>11.57</v>
       </c>
       <c r="F90" t="n">
-        <v>3063</v>
+        <v>82725.2096</v>
       </c>
       <c r="G90" t="n">
-        <v>57926.63300555055</v>
+        <v>116178.6589108817</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4005,39 +3936,34 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.46</v>
+        <v>11.67</v>
       </c>
       <c r="C91" t="n">
-        <v>12.47</v>
+        <v>11.67</v>
       </c>
       <c r="D91" t="n">
-        <v>12.47</v>
+        <v>11.67</v>
       </c>
       <c r="E91" t="n">
-        <v>12.46</v>
+        <v>11.67</v>
       </c>
       <c r="F91" t="n">
-        <v>5797.1694</v>
+        <v>2424.7854</v>
       </c>
       <c r="G91" t="n">
-        <v>63723.80240555054</v>
+        <v>113753.8735108817</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4046,39 +3972,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.58</v>
+        <v>11.67</v>
       </c>
       <c r="C92" t="n">
-        <v>12.58</v>
+        <v>11.67</v>
       </c>
       <c r="D92" t="n">
-        <v>12.68</v>
+        <v>11.67</v>
       </c>
       <c r="E92" t="n">
-        <v>12.58</v>
+        <v>11.67</v>
       </c>
       <c r="F92" t="n">
-        <v>52708.201</v>
+        <v>9202.581700000001</v>
       </c>
       <c r="G92" t="n">
-        <v>116432.0034055506</v>
+        <v>113753.8735108817</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4087,39 +4008,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.68</v>
+        <v>11.88</v>
       </c>
       <c r="C93" t="n">
-        <v>12.65</v>
+        <v>11.88</v>
       </c>
       <c r="D93" t="n">
-        <v>12.68</v>
+        <v>11.88</v>
       </c>
       <c r="E93" t="n">
-        <v>12.65</v>
+        <v>11.88</v>
       </c>
       <c r="F93" t="n">
-        <v>25024.2515</v>
+        <v>4627</v>
       </c>
       <c r="G93" t="n">
-        <v>141456.2549055506</v>
+        <v>118380.8735108817</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4128,39 +4044,34 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.65</v>
+        <v>12.05</v>
       </c>
       <c r="C94" t="n">
-        <v>12.69</v>
+        <v>12.05</v>
       </c>
       <c r="D94" t="n">
-        <v>12.69</v>
+        <v>12.05</v>
       </c>
       <c r="E94" t="n">
-        <v>12.65</v>
+        <v>12.05</v>
       </c>
       <c r="F94" t="n">
-        <v>86712.87059999999</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>228169.1255055506</v>
+        <v>118480.8735108817</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4169,39 +4080,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.65</v>
+        <v>12.14</v>
       </c>
       <c r="C95" t="n">
-        <v>12.65</v>
+        <v>11.78</v>
       </c>
       <c r="D95" t="n">
-        <v>12.65</v>
+        <v>12.14</v>
       </c>
       <c r="E95" t="n">
-        <v>12.65</v>
+        <v>11.78</v>
       </c>
       <c r="F95" t="n">
-        <v>5149.1934</v>
+        <v>6964</v>
       </c>
       <c r="G95" t="n">
-        <v>223019.9321055506</v>
+        <v>111516.8735108817</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4210,39 +4116,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.43</v>
+        <v>12.03</v>
       </c>
       <c r="C96" t="n">
-        <v>12.43</v>
+        <v>12.03</v>
       </c>
       <c r="D96" t="n">
-        <v>12.43</v>
+        <v>12.03</v>
       </c>
       <c r="E96" t="n">
-        <v>12.43</v>
+        <v>12.03</v>
       </c>
       <c r="F96" t="n">
-        <v>7950.4775</v>
+        <v>1402.347</v>
       </c>
       <c r="G96" t="n">
-        <v>215069.4546055506</v>
+        <v>112919.2205108817</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4251,39 +4152,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.55</v>
+        <v>11.79</v>
       </c>
       <c r="C97" t="n">
-        <v>12.55</v>
+        <v>11.58</v>
       </c>
       <c r="D97" t="n">
-        <v>12.55</v>
+        <v>11.79</v>
       </c>
       <c r="E97" t="n">
-        <v>12.55</v>
+        <v>11.58</v>
       </c>
       <c r="F97" t="n">
-        <v>158.8836</v>
+        <v>69567.87910000001</v>
       </c>
       <c r="G97" t="n">
-        <v>215228.3382055506</v>
+        <v>43351.34141088169</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4292,39 +4188,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.55</v>
+        <v>11.58</v>
       </c>
       <c r="C98" t="n">
-        <v>12.55</v>
+        <v>11.58</v>
       </c>
       <c r="D98" t="n">
-        <v>12.55</v>
+        <v>11.58</v>
       </c>
       <c r="E98" t="n">
-        <v>12.55</v>
+        <v>11.58</v>
       </c>
       <c r="F98" t="n">
-        <v>3816.1164</v>
+        <v>4466</v>
       </c>
       <c r="G98" t="n">
-        <v>215228.3382055506</v>
+        <v>43351.34141088169</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4333,39 +4224,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="C99" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="D99" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="E99" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="F99" t="n">
-        <v>168.4545</v>
+        <v>44830.3789</v>
       </c>
       <c r="G99" t="n">
-        <v>215228.3382055506</v>
+        <v>88181.7203108817</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4374,39 +4260,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="C100" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="D100" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="E100" t="n">
-        <v>12.55</v>
+        <v>11.7</v>
       </c>
       <c r="F100" t="n">
-        <v>5422.9787</v>
+        <v>3373.2347</v>
       </c>
       <c r="G100" t="n">
-        <v>215228.3382055506</v>
+        <v>88181.7203108817</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4415,39 +4296,34 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.43</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>11.53</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>12.43</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>11.53</v>
+        <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>72285.38310000001</v>
+        <v>319.2477</v>
       </c>
       <c r="G101" t="n">
-        <v>142942.9551055506</v>
+        <v>88500.96801088171</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4456,39 +4332,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="C102" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="D102" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="E102" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="F102" t="n">
-        <v>120.3829</v>
+        <v>30737.6605</v>
       </c>
       <c r="G102" t="n">
-        <v>143063.3380055506</v>
+        <v>57763.30751088171</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4497,39 +4368,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.55</v>
+        <v>11.66</v>
       </c>
       <c r="C103" t="n">
-        <v>12.06</v>
+        <v>11.66</v>
       </c>
       <c r="D103" t="n">
-        <v>12.55</v>
+        <v>11.66</v>
       </c>
       <c r="E103" t="n">
-        <v>12.06</v>
+        <v>11.66</v>
       </c>
       <c r="F103" t="n">
-        <v>8048.1201</v>
+        <v>1087.4068</v>
       </c>
       <c r="G103" t="n">
-        <v>135015.2179055506</v>
+        <v>56675.90071088172</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4538,39 +4404,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.06</v>
+        <v>11.57</v>
       </c>
       <c r="C104" t="n">
-        <v>12.33</v>
+        <v>11.52</v>
       </c>
       <c r="D104" t="n">
-        <v>12.33</v>
+        <v>11.61</v>
       </c>
       <c r="E104" t="n">
-        <v>12.06</v>
+        <v>11.52</v>
       </c>
       <c r="F104" t="n">
-        <v>17449.9883</v>
+        <v>45271.7225</v>
       </c>
       <c r="G104" t="n">
-        <v>152465.2062055506</v>
+        <v>11404.17821088171</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4579,39 +4440,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.47</v>
+        <v>11.77</v>
       </c>
       <c r="C105" t="n">
-        <v>12.5</v>
+        <v>11.76</v>
       </c>
       <c r="D105" t="n">
-        <v>12.6</v>
+        <v>11.77</v>
       </c>
       <c r="E105" t="n">
-        <v>12.47</v>
+        <v>11.76</v>
       </c>
       <c r="F105" t="n">
-        <v>84882.2643</v>
+        <v>1805.7829</v>
       </c>
       <c r="G105" t="n">
-        <v>237347.4705055506</v>
+        <v>13209.96111088171</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4620,39 +4476,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="C106" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="D106" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="E106" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="F106" t="n">
-        <v>1303.8057</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="n">
-        <v>237347.4705055506</v>
+        <v>8209.961110881713</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4661,86 +4512,76 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="C107" t="n">
-        <v>12.59</v>
+        <v>11.7</v>
       </c>
       <c r="D107" t="n">
-        <v>12.59</v>
+        <v>11.71</v>
       </c>
       <c r="E107" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="F107" t="n">
-        <v>89743.3305</v>
+        <v>71294.2222</v>
       </c>
       <c r="G107" t="n">
-        <v>327090.8010055505</v>
+        <v>-63084.26108911829</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>1.106209179170344</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.64</v>
+        <v>11.78</v>
       </c>
       <c r="C108" t="n">
-        <v>12.65</v>
+        <v>11.66</v>
       </c>
       <c r="D108" t="n">
-        <v>12.65</v>
+        <v>11.78</v>
       </c>
       <c r="E108" t="n">
-        <v>12.64</v>
+        <v>11.66</v>
       </c>
       <c r="F108" t="n">
-        <v>92542.9678</v>
+        <v>21057.6311</v>
       </c>
       <c r="G108" t="n">
-        <v>419633.7688055505</v>
+        <v>-84141.89218911828</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4748,34 +4589,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.4</v>
+        <v>11.56</v>
       </c>
       <c r="C109" t="n">
-        <v>12.4</v>
+        <v>11.47</v>
       </c>
       <c r="D109" t="n">
-        <v>12.4</v>
+        <v>11.56</v>
       </c>
       <c r="E109" t="n">
-        <v>12.4</v>
+        <v>11.47</v>
       </c>
       <c r="F109" t="n">
-        <v>26814.516</v>
+        <v>100181.1106</v>
       </c>
       <c r="G109" t="n">
-        <v>392819.2528055505</v>
+        <v>-184323.0027891183</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4783,28 +4625,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.38</v>
+        <v>11.88</v>
       </c>
       <c r="C110" t="n">
-        <v>12.38</v>
+        <v>11.88</v>
       </c>
       <c r="D110" t="n">
-        <v>12.38</v>
+        <v>11.88</v>
       </c>
       <c r="E110" t="n">
-        <v>12.38</v>
+        <v>11.88</v>
       </c>
       <c r="F110" t="n">
-        <v>9522.8758</v>
+        <v>44.8432</v>
       </c>
       <c r="G110" t="n">
-        <v>383296.3770055505</v>
+        <v>-184278.1595891183</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4818,28 +4661,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.16</v>
+        <v>11.61</v>
       </c>
       <c r="C111" t="n">
-        <v>12.16</v>
+        <v>11.61</v>
       </c>
       <c r="D111" t="n">
-        <v>12.16</v>
+        <v>11.61</v>
       </c>
       <c r="E111" t="n">
-        <v>12.16</v>
+        <v>11.61</v>
       </c>
       <c r="F111" t="n">
-        <v>6112.9758</v>
+        <v>2365.6305</v>
       </c>
       <c r="G111" t="n">
-        <v>377183.4012055505</v>
+        <v>-186643.7900891183</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4853,28 +4697,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.15</v>
+        <v>11.92</v>
       </c>
       <c r="C112" t="n">
-        <v>12.15</v>
+        <v>11.92</v>
       </c>
       <c r="D112" t="n">
-        <v>12.15</v>
+        <v>11.92</v>
       </c>
       <c r="E112" t="n">
-        <v>12.15</v>
+        <v>11.92</v>
       </c>
       <c r="F112" t="n">
-        <v>1265.7598</v>
+        <v>236.2452</v>
       </c>
       <c r="G112" t="n">
-        <v>375917.6414055505</v>
+        <v>-186407.5448891183</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4888,28 +4733,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.06</v>
+        <v>11.62</v>
       </c>
       <c r="C113" t="n">
-        <v>12.06</v>
+        <v>11.62</v>
       </c>
       <c r="D113" t="n">
-        <v>12.06</v>
+        <v>11.62</v>
       </c>
       <c r="E113" t="n">
-        <v>12.06</v>
+        <v>11.62</v>
       </c>
       <c r="F113" t="n">
-        <v>5136.1925</v>
+        <v>4825.9601</v>
       </c>
       <c r="G113" t="n">
-        <v>370781.4489055505</v>
+        <v>-191233.5049891183</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4923,28 +4769,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="C114" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="D114" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="E114" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="F114" t="n">
-        <v>97.9195</v>
+        <v>531.807</v>
       </c>
       <c r="G114" t="n">
-        <v>370683.5294055505</v>
+        <v>-190701.6979891183</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4958,28 +4805,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="D115" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="F115" t="n">
-        <v>29407.2242</v>
+        <v>159.4748</v>
       </c>
       <c r="G115" t="n">
-        <v>341276.3052055505</v>
+        <v>-190701.6979891183</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4993,28 +4841,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.1</v>
+        <v>11.71</v>
       </c>
       <c r="C116" t="n">
-        <v>12.1</v>
+        <v>11.71</v>
       </c>
       <c r="D116" t="n">
-        <v>12.1</v>
+        <v>11.71</v>
       </c>
       <c r="E116" t="n">
-        <v>12.1</v>
+        <v>11.71</v>
       </c>
       <c r="F116" t="n">
-        <v>6849.7431</v>
+        <v>57318.9693</v>
       </c>
       <c r="G116" t="n">
-        <v>348126.0483055505</v>
+        <v>-248020.6672891183</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5028,28 +4877,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.16</v>
+        <v>11.71</v>
       </c>
       <c r="C117" t="n">
-        <v>12.28</v>
+        <v>11.71</v>
       </c>
       <c r="D117" t="n">
-        <v>12.28</v>
+        <v>11.71</v>
       </c>
       <c r="E117" t="n">
-        <v>12.16</v>
+        <v>11.71</v>
       </c>
       <c r="F117" t="n">
-        <v>16381.273</v>
+        <v>57388.4396</v>
       </c>
       <c r="G117" t="n">
-        <v>364507.3213055505</v>
+        <v>-248020.6672891183</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5063,28 +4913,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.28</v>
+        <v>11.75</v>
       </c>
       <c r="C118" t="n">
-        <v>12.28</v>
+        <v>11.75</v>
       </c>
       <c r="D118" t="n">
-        <v>12.28</v>
+        <v>11.75</v>
       </c>
       <c r="E118" t="n">
-        <v>12.28</v>
+        <v>11.75</v>
       </c>
       <c r="F118" t="n">
-        <v>133.6942</v>
+        <v>3975.4278</v>
       </c>
       <c r="G118" t="n">
-        <v>364507.3213055505</v>
+        <v>-244045.2394891182</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5098,28 +4949,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.28</v>
+        <v>11.8</v>
       </c>
       <c r="C119" t="n">
-        <v>12.28</v>
+        <v>11.7</v>
       </c>
       <c r="D119" t="n">
-        <v>12.28</v>
+        <v>11.8</v>
       </c>
       <c r="E119" t="n">
-        <v>12.28</v>
+        <v>11.7</v>
       </c>
       <c r="F119" t="n">
-        <v>365.2064</v>
+        <v>197198.6496</v>
       </c>
       <c r="G119" t="n">
-        <v>364507.3213055505</v>
+        <v>-441243.8890891182</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5133,28 +4985,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.28</v>
+        <v>11.74</v>
       </c>
       <c r="C120" t="n">
-        <v>12.38</v>
+        <v>11.7</v>
       </c>
       <c r="D120" t="n">
-        <v>12.38</v>
+        <v>11.74</v>
       </c>
       <c r="E120" t="n">
-        <v>12.28</v>
+        <v>11.7</v>
       </c>
       <c r="F120" t="n">
-        <v>3417.317805331179</v>
+        <v>17094.7871</v>
       </c>
       <c r="G120" t="n">
-        <v>367924.6391108817</v>
+        <v>-441243.8890891182</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5168,28 +5021,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.16</v>
+        <v>11.7</v>
       </c>
       <c r="C121" t="n">
-        <v>12.16</v>
+        <v>11.7</v>
       </c>
       <c r="D121" t="n">
-        <v>12.16</v>
+        <v>11.7</v>
       </c>
       <c r="E121" t="n">
-        <v>12.16</v>
+        <v>11.7</v>
       </c>
       <c r="F121" t="n">
-        <v>6000</v>
+        <v>2924.8503</v>
       </c>
       <c r="G121" t="n">
-        <v>361924.6391108817</v>
+        <v>-441243.8890891182</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5203,28 +5057,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.16</v>
+        <v>11.68</v>
       </c>
       <c r="C122" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="D122" t="n">
-        <v>12.16</v>
+        <v>11.68</v>
       </c>
       <c r="E122" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="F122" t="n">
-        <v>66423.7133</v>
+        <v>327.9686</v>
       </c>
       <c r="G122" t="n">
-        <v>295500.9258108817</v>
+        <v>-441571.8576891182</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5238,28 +5093,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.28</v>
+        <v>11.72</v>
       </c>
       <c r="C123" t="n">
-        <v>12.28</v>
+        <v>11.75</v>
       </c>
       <c r="D123" t="n">
-        <v>12.28</v>
+        <v>11.75</v>
       </c>
       <c r="E123" t="n">
-        <v>12.28</v>
+        <v>11.72</v>
       </c>
       <c r="F123" t="n">
-        <v>205.7291</v>
+        <v>100000</v>
       </c>
       <c r="G123" t="n">
-        <v>295706.6549108817</v>
+        <v>-341571.8576891182</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5273,28 +5129,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.85</v>
+        <v>11.64</v>
       </c>
       <c r="C124" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="D124" t="n">
-        <v>11.85</v>
+        <v>11.64</v>
       </c>
       <c r="E124" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="F124" t="n">
-        <v>32101.2162</v>
+        <v>152012.5493</v>
       </c>
       <c r="G124" t="n">
-        <v>263605.4387108817</v>
+        <v>-493584.4069891183</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5308,28 +5165,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.17</v>
+        <v>11.63</v>
       </c>
       <c r="C125" t="n">
-        <v>12.17</v>
+        <v>11.63</v>
       </c>
       <c r="D125" t="n">
-        <v>12.17</v>
+        <v>11.63</v>
       </c>
       <c r="E125" t="n">
-        <v>12.17</v>
+        <v>11.63</v>
       </c>
       <c r="F125" t="n">
-        <v>155.8054</v>
+        <v>140232.7984</v>
       </c>
       <c r="G125" t="n">
-        <v>263761.2441108817</v>
+        <v>-353351.6085891182</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5343,28 +5201,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.67</v>
+        <v>11.76</v>
       </c>
       <c r="C126" t="n">
-        <v>11.57</v>
+        <v>11.79</v>
       </c>
       <c r="D126" t="n">
-        <v>11.67</v>
+        <v>11.79</v>
       </c>
       <c r="E126" t="n">
-        <v>11.57</v>
+        <v>11.76</v>
       </c>
       <c r="F126" t="n">
-        <v>9103.501</v>
+        <v>17478.78712663274</v>
       </c>
       <c r="G126" t="n">
-        <v>254657.7431108817</v>
+        <v>-335872.8214624855</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5378,28 +5237,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.06</v>
+        <v>11.79</v>
       </c>
       <c r="C127" t="n">
-        <v>12.05</v>
+        <v>11.79</v>
       </c>
       <c r="D127" t="n">
-        <v>12.06</v>
+        <v>11.79</v>
       </c>
       <c r="E127" t="n">
-        <v>12.05</v>
+        <v>11.79</v>
       </c>
       <c r="F127" t="n">
-        <v>253.6211</v>
+        <v>307.6263</v>
       </c>
       <c r="G127" t="n">
-        <v>254911.3642108817</v>
+        <v>-335872.8214624855</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5413,28 +5273,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C128" t="n">
-        <v>11.54</v>
+        <v>11.7</v>
       </c>
       <c r="D128" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E128" t="n">
-        <v>11.54</v>
+        <v>11.7</v>
       </c>
       <c r="F128" t="n">
-        <v>180457.9149</v>
+        <v>55554.2956</v>
       </c>
       <c r="G128" t="n">
-        <v>74453.4493108817</v>
+        <v>-391427.1170624855</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5448,28 +5309,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.54</v>
+        <v>11.7</v>
       </c>
       <c r="C129" t="n">
-        <v>11.44</v>
+        <v>11.46</v>
       </c>
       <c r="D129" t="n">
-        <v>11.54</v>
+        <v>11.7</v>
       </c>
       <c r="E129" t="n">
-        <v>11.44</v>
+        <v>11.46</v>
       </c>
       <c r="F129" t="n">
-        <v>50000</v>
+        <v>546273.4696</v>
       </c>
       <c r="G129" t="n">
-        <v>24453.4493108817</v>
+        <v>-937700.5866624855</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5483,28 +5345,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.57</v>
+        <v>11.49</v>
       </c>
       <c r="C130" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="D130" t="n">
-        <v>11.57</v>
+        <v>11.49</v>
       </c>
       <c r="E130" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="F130" t="n">
-        <v>9000</v>
+        <v>4953.166</v>
       </c>
       <c r="G130" t="n">
-        <v>33453.4493108817</v>
+        <v>-937700.5866624855</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5518,28 +5381,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="C131" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="D131" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="E131" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="F131" t="n">
-        <v>9252</v>
+        <v>13000</v>
       </c>
       <c r="G131" t="n">
-        <v>33453.4493108817</v>
+        <v>-937700.5866624855</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5553,28 +5417,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="C132" t="n">
-        <v>11.68</v>
+        <v>11.46</v>
       </c>
       <c r="D132" t="n">
-        <v>11.68</v>
+        <v>11.46</v>
       </c>
       <c r="E132" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="F132" t="n">
-        <v>82725.2096</v>
+        <v>991.1849999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>116178.6589108817</v>
+        <v>-937700.5866624855</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5588,28 +5453,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.67</v>
+        <v>11.47</v>
       </c>
       <c r="C133" t="n">
-        <v>11.67</v>
+        <v>11.47</v>
       </c>
       <c r="D133" t="n">
-        <v>11.67</v>
+        <v>11.47</v>
       </c>
       <c r="E133" t="n">
-        <v>11.67</v>
+        <v>11.47</v>
       </c>
       <c r="F133" t="n">
-        <v>2424.7854</v>
+        <v>303.513</v>
       </c>
       <c r="G133" t="n">
-        <v>113753.8735108817</v>
+        <v>-937397.0736624855</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5623,28 +5489,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.67</v>
+        <v>11.52</v>
       </c>
       <c r="C134" t="n">
-        <v>11.67</v>
+        <v>11.52</v>
       </c>
       <c r="D134" t="n">
-        <v>11.67</v>
+        <v>11.52</v>
       </c>
       <c r="E134" t="n">
-        <v>11.67</v>
+        <v>11.52</v>
       </c>
       <c r="F134" t="n">
-        <v>9202.581700000001</v>
+        <v>77600.6603</v>
       </c>
       <c r="G134" t="n">
-        <v>113753.8735108817</v>
+        <v>-859796.4133624855</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5658,28 +5525,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.88</v>
+        <v>11.46</v>
       </c>
       <c r="C135" t="n">
-        <v>11.88</v>
+        <v>11.46</v>
       </c>
       <c r="D135" t="n">
-        <v>11.88</v>
+        <v>11.46</v>
       </c>
       <c r="E135" t="n">
-        <v>11.88</v>
+        <v>11.46</v>
       </c>
       <c r="F135" t="n">
-        <v>4627</v>
+        <v>4476.8597</v>
       </c>
       <c r="G135" t="n">
-        <v>118380.8735108817</v>
+        <v>-864273.2730624855</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5693,28 +5561,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.05</v>
+        <v>11.45</v>
       </c>
       <c r="C136" t="n">
-        <v>12.05</v>
+        <v>11.46</v>
       </c>
       <c r="D136" t="n">
-        <v>12.05</v>
+        <v>11.46</v>
       </c>
       <c r="E136" t="n">
-        <v>12.05</v>
+        <v>11.45</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>48682.0386</v>
       </c>
       <c r="G136" t="n">
-        <v>118480.8735108817</v>
+        <v>-864273.2730624855</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5728,28 +5597,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.14</v>
+        <v>11.56</v>
       </c>
       <c r="C137" t="n">
-        <v>11.78</v>
+        <v>11.65</v>
       </c>
       <c r="D137" t="n">
-        <v>12.14</v>
+        <v>11.66</v>
       </c>
       <c r="E137" t="n">
-        <v>11.78</v>
+        <v>11.5</v>
       </c>
       <c r="F137" t="n">
-        <v>6964</v>
+        <v>190242.0391</v>
       </c>
       <c r="G137" t="n">
-        <v>111516.8735108817</v>
+        <v>-674031.2339624856</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5763,28 +5633,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="C138" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="D138" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="E138" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="F138" t="n">
-        <v>1402.347</v>
+        <v>359.6675</v>
       </c>
       <c r="G138" t="n">
-        <v>112919.2205108817</v>
+        <v>-673671.5664624856</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5798,28 +5669,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.79</v>
+        <v>11.91</v>
       </c>
       <c r="C139" t="n">
-        <v>11.58</v>
+        <v>11.91</v>
       </c>
       <c r="D139" t="n">
-        <v>11.79</v>
+        <v>11.91</v>
       </c>
       <c r="E139" t="n">
-        <v>11.58</v>
+        <v>11.91</v>
       </c>
       <c r="F139" t="n">
-        <v>69567.87910000001</v>
+        <v>119.4846</v>
       </c>
       <c r="G139" t="n">
-        <v>43351.34141088169</v>
+        <v>-673671.5664624856</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5833,28 +5705,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="C140" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="D140" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="E140" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="F140" t="n">
-        <v>4466</v>
+        <v>112.3967</v>
       </c>
       <c r="G140" t="n">
-        <v>43351.34141088169</v>
+        <v>-673783.9631624856</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5868,28 +5741,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C141" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="D141" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E141" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="F141" t="n">
-        <v>44830.3789</v>
+        <v>84021.8367</v>
       </c>
       <c r="G141" t="n">
-        <v>88181.7203108817</v>
+        <v>-589762.1264624856</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5903,28 +5777,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.7</v>
+        <v>11.62</v>
       </c>
       <c r="C142" t="n">
-        <v>11.7</v>
+        <v>11.62</v>
       </c>
       <c r="D142" t="n">
-        <v>11.7</v>
+        <v>11.62</v>
       </c>
       <c r="E142" t="n">
-        <v>11.7</v>
+        <v>11.62</v>
       </c>
       <c r="F142" t="n">
-        <v>3373.2347</v>
+        <v>12.7502</v>
       </c>
       <c r="G142" t="n">
-        <v>88181.7203108817</v>
+        <v>-589774.8766624857</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5938,28 +5813,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12</v>
+        <v>11.61</v>
       </c>
       <c r="C143" t="n">
-        <v>12</v>
+        <v>11.62</v>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>11.62</v>
       </c>
       <c r="E143" t="n">
-        <v>12</v>
+        <v>11.61</v>
       </c>
       <c r="F143" t="n">
-        <v>319.2477</v>
+        <v>97044.6211</v>
       </c>
       <c r="G143" t="n">
-        <v>88500.96801088171</v>
+        <v>-589774.8766624857</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5973,28 +5849,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C144" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D144" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E144" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F144" t="n">
-        <v>30737.6605</v>
+        <v>16680</v>
       </c>
       <c r="G144" t="n">
-        <v>57763.30751088171</v>
+        <v>-606454.8766624857</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6008,28 +5885,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="C145" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="D145" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="E145" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="F145" t="n">
-        <v>1087.4068</v>
+        <v>158000</v>
       </c>
       <c r="G145" t="n">
-        <v>56675.90071088172</v>
+        <v>-606454.8766624857</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6043,28 +5921,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="C146" t="n">
-        <v>11.52</v>
+        <v>11.6</v>
       </c>
       <c r="D146" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="E146" t="n">
-        <v>11.52</v>
+        <v>11.6</v>
       </c>
       <c r="F146" t="n">
-        <v>45271.7225</v>
+        <v>164543.0595</v>
       </c>
       <c r="G146" t="n">
-        <v>11404.17821088171</v>
+        <v>-606454.8766624857</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6078,28 +5957,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.77</v>
+        <v>11.59</v>
       </c>
       <c r="C147" t="n">
-        <v>11.76</v>
+        <v>11.62</v>
       </c>
       <c r="D147" t="n">
-        <v>11.77</v>
+        <v>11.62</v>
       </c>
       <c r="E147" t="n">
-        <v>11.76</v>
+        <v>11.59</v>
       </c>
       <c r="F147" t="n">
-        <v>1805.7829</v>
+        <v>134938.2592</v>
       </c>
       <c r="G147" t="n">
-        <v>13209.96111088171</v>
+        <v>-471516.6174624857</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6113,28 +5993,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.71</v>
+        <v>11.61</v>
       </c>
       <c r="C148" t="n">
-        <v>11.71</v>
+        <v>11.61</v>
       </c>
       <c r="D148" t="n">
-        <v>11.71</v>
+        <v>11.61</v>
       </c>
       <c r="E148" t="n">
-        <v>11.71</v>
+        <v>11.61</v>
       </c>
       <c r="F148" t="n">
-        <v>5000</v>
+        <v>4531.1532</v>
       </c>
       <c r="G148" t="n">
-        <v>8209.961110881713</v>
+        <v>-476047.7706624857</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6148,28 +6029,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.71</v>
+        <v>11.8</v>
       </c>
       <c r="C149" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D149" t="n">
-        <v>11.71</v>
+        <v>11.8</v>
       </c>
       <c r="E149" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F149" t="n">
-        <v>71294.2222</v>
+        <v>43</v>
       </c>
       <c r="G149" t="n">
-        <v>-63084.26108911829</v>
+        <v>-476004.7706624857</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6183,28 +6065,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.78</v>
+        <v>11.9</v>
       </c>
       <c r="C150" t="n">
-        <v>11.66</v>
+        <v>11.9</v>
       </c>
       <c r="D150" t="n">
-        <v>11.78</v>
+        <v>11.9</v>
       </c>
       <c r="E150" t="n">
-        <v>11.66</v>
+        <v>11.9</v>
       </c>
       <c r="F150" t="n">
-        <v>21057.6311</v>
+        <v>43</v>
       </c>
       <c r="G150" t="n">
-        <v>-84141.89218911828</v>
+        <v>-475961.7706624857</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6218,28 +6101,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.56</v>
+        <v>11.87</v>
       </c>
       <c r="C151" t="n">
-        <v>11.47</v>
+        <v>11.83</v>
       </c>
       <c r="D151" t="n">
-        <v>11.56</v>
+        <v>11.87</v>
       </c>
       <c r="E151" t="n">
-        <v>11.47</v>
+        <v>11.83</v>
       </c>
       <c r="F151" t="n">
-        <v>100181.1106</v>
+        <v>152286.8089</v>
       </c>
       <c r="G151" t="n">
-        <v>-184323.0027891183</v>
+        <v>-628248.5795624857</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6253,28 +6137,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.88</v>
+        <v>11.81</v>
       </c>
       <c r="C152" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="D152" t="n">
-        <v>11.88</v>
+        <v>11.81</v>
       </c>
       <c r="E152" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="F152" t="n">
-        <v>44.8432</v>
+        <v>120346.9183</v>
       </c>
       <c r="G152" t="n">
-        <v>-184278.1595891183</v>
+        <v>-748595.4978624857</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6288,28 +6173,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="C153" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="D153" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="E153" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="F153" t="n">
-        <v>2365.6305</v>
+        <v>2247.5717</v>
       </c>
       <c r="G153" t="n">
-        <v>-186643.7900891183</v>
+        <v>-750843.0695624857</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6323,28 +6209,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="C154" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="D154" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="E154" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="F154" t="n">
-        <v>236.2452</v>
+        <v>86574.0941</v>
       </c>
       <c r="G154" t="n">
-        <v>-186407.5448891183</v>
+        <v>-664268.9754624857</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6358,28 +6245,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="C155" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="D155" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="E155" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="F155" t="n">
-        <v>4825.9601</v>
+        <v>3407</v>
       </c>
       <c r="G155" t="n">
-        <v>-191233.5049891183</v>
+        <v>-667675.9754624857</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6393,28 +6281,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.92</v>
+        <v>11.79</v>
       </c>
       <c r="C156" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="D156" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="E156" t="n">
-        <v>11.92</v>
+        <v>11.79</v>
       </c>
       <c r="F156" t="n">
-        <v>531.807</v>
+        <v>41013.1031</v>
       </c>
       <c r="G156" t="n">
-        <v>-190701.6979891183</v>
+        <v>-626662.8723624857</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6428,28 +6317,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="C157" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="D157" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="E157" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="F157" t="n">
-        <v>159.4748</v>
+        <v>45906.1296</v>
       </c>
       <c r="G157" t="n">
-        <v>-190701.6979891183</v>
+        <v>-626662.8723624857</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6463,28 +6353,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="C158" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="D158" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="E158" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="F158" t="n">
-        <v>57318.9693</v>
+        <v>12469.1261</v>
       </c>
       <c r="G158" t="n">
-        <v>-248020.6672891183</v>
+        <v>-639131.9984624857</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6498,28 +6389,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="C159" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="D159" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="E159" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="F159" t="n">
-        <v>57388.4396</v>
+        <v>16749.5659</v>
       </c>
       <c r="G159" t="n">
-        <v>-248020.6672891183</v>
+        <v>-639131.9984624857</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6533,28 +6425,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.75</v>
+        <v>11.79</v>
       </c>
       <c r="C160" t="n">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="D160" t="n">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="E160" t="n">
-        <v>11.75</v>
+        <v>11.79</v>
       </c>
       <c r="F160" t="n">
-        <v>3975.4278</v>
+        <v>37785.9611</v>
       </c>
       <c r="G160" t="n">
-        <v>-244045.2394891182</v>
+        <v>-601346.0373624858</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6568,28 +6461,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="C161" t="n">
-        <v>11.7</v>
+        <v>11.78</v>
       </c>
       <c r="D161" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="E161" t="n">
-        <v>11.7</v>
+        <v>11.78</v>
       </c>
       <c r="F161" t="n">
-        <v>197198.6496</v>
+        <v>55544.3486</v>
       </c>
       <c r="G161" t="n">
-        <v>-441243.8890891182</v>
+        <v>-656890.3859624858</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6603,28 +6497,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.74</v>
+        <v>11.76</v>
       </c>
       <c r="C162" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="D162" t="n">
-        <v>11.74</v>
+        <v>11.76</v>
       </c>
       <c r="E162" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="F162" t="n">
-        <v>17094.7871</v>
+        <v>83121.3067</v>
       </c>
       <c r="G162" t="n">
-        <v>-441243.8890891182</v>
+        <v>-740011.6926624858</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6638,28 +6533,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="C163" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="D163" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="E163" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="F163" t="n">
-        <v>2924.8503</v>
+        <v>116793.0554</v>
       </c>
       <c r="G163" t="n">
-        <v>-441243.8890891182</v>
+        <v>-740011.6926624858</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6673,28 +6569,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="C164" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="D164" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="E164" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="F164" t="n">
-        <v>327.9686</v>
+        <v>82497.6609</v>
       </c>
       <c r="G164" t="n">
-        <v>-441571.8576891182</v>
+        <v>-657514.0317624857</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6708,1492 +6605,7 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="F165" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-341571.8576891182</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F166" t="n">
-        <v>152012.5493</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-493584.4069891183</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="F167" t="n">
-        <v>140232.7984</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-353351.6085891182</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F168" t="n">
-        <v>17478.78712663274</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-335872.8214624855</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F169" t="n">
-        <v>307.6263</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-335872.8214624855</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>55554.2956</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-391427.1170624855</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E171" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F171" t="n">
-        <v>546273.4696</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F172" t="n">
-        <v>4953.166</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C173" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F173" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C174" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D174" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E174" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F174" t="n">
-        <v>991.1849999999999</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="D175" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="F175" t="n">
-        <v>303.513</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-937397.0736624855</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="F176" t="n">
-        <v>77600.6603</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-859796.4133624855</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4476.8597</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-864273.2730624855</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="F178" t="n">
-        <v>48682.0386</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-864273.2730624855</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>190242.0391</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-674031.2339624856</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F180" t="n">
-        <v>359.6675</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-673671.5664624856</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K180" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F181" t="n">
-        <v>119.4846</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-673671.5664624856</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F182" t="n">
-        <v>112.3967</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-673783.9631624856</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F183" t="n">
-        <v>84021.8367</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-589762.1264624856</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F184" t="n">
-        <v>12.7502</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-589774.8766624857</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F185" t="n">
-        <v>97044.6211</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-589774.8766624857</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F186" t="n">
-        <v>16680</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-606454.8766624857</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F187" t="n">
-        <v>158000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-606454.8766624857</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F188" t="n">
-        <v>164543.0595</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-606454.8766624857</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F189" t="n">
-        <v>134938.2592</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-471516.6174624857</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F190" t="n">
-        <v>4531.1532</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-476047.7706624857</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C191" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D191" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F191" t="n">
-        <v>43</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-476004.7706624857</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F192" t="n">
-        <v>43</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-475961.7706624857</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C193" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F193" t="n">
-        <v>152286.8089</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-628248.5795624857</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C194" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F194" t="n">
-        <v>120346.9183</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-748595.4978624857</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2247.5717</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-750843.0695624857</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C196" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F196" t="n">
-        <v>86574.0941</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-664268.9754624857</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3407</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-667675.9754624857</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C198" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D198" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E198" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F198" t="n">
-        <v>41013.1031</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-626662.8723624857</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D199" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E199" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F199" t="n">
-        <v>45906.1296</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-626662.8723624857</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F200" t="n">
-        <v>12469.1261</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-639131.9984624857</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D201" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E201" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F201" t="n">
-        <v>16749.5659</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-639131.9984624857</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E202" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F202" t="n">
-        <v>37785.9611</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-601346.0373624858</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D203" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E203" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F203" t="n">
-        <v>55544.3486</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-656890.3859624858</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="C204" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D204" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="E204" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F204" t="n">
-        <v>83121.3067</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-740011.6926624858</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C205" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D205" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E205" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F205" t="n">
-        <v>116793.0554</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-740011.6926624858</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C206" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D206" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E206" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F206" t="n">
-        <v>82497.6609</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-657514.0317624857</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,763 +2761,697 @@
         <v>-257444.4240138586</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>11.5</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="C73" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>68214.724</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-189229.7000138586</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C74" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F74" t="n">
+        <v>445.276</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-189229.7000138586</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C75" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D75" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F75" t="n">
+        <v>225.2332</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-189004.4668138586</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C76" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D76" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F76" t="n">
+        <v>12077.3166</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-189004.4668138586</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F77" t="n">
+        <v>22605.8806</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-189004.4668138586</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>255.2586206896552</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-189259.7254345482</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D79" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9719</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-179540.7254345482</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C80" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3665.1763</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-183205.9017345482</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-191205.9017345482</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F82" t="n">
+        <v>373.142</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-190832.7597345482</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J82" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9788.491900000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-200621.2516345482</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J83" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F84" t="n">
+        <v>111.9725</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-200509.2791345482</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="J84" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>197.2242</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-200706.5033345482</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F86" t="n">
+        <v>123774.6290793103</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-76931.87425523791</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F87" t="n">
+        <v>80301.9393</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3370.065044762086</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>248.035</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3618.100044762086</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F89" t="n">
+        <v>211449.308</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-207831.2079552379</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>55</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-207776.2079552379</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F91" t="n">
+        <v>159064.4889</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-366840.6968552379</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F92" t="n">
+        <v>72983.98910000001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-439824.6859552379</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D73" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>68214.724</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-189229.7000138586</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D74" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E74" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F74" t="n">
-        <v>445.276</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-189229.7000138586</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C75" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D75" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E75" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F75" t="n">
-        <v>225.2332</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-189004.4668138586</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D76" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E76" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F76" t="n">
-        <v>12077.3166</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-189004.4668138586</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C77" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D77" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F77" t="n">
-        <v>22605.8806</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-189004.4668138586</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D78" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>255.2586206896552</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-189259.7254345482</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D79" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E79" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9719</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-179540.7254345482</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C80" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D80" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="E80" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3665.1763</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-183205.9017345482</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F81" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-191205.9017345482</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="E82" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="F82" t="n">
-        <v>373.142</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-190832.7597345482</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D83" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E83" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9788.491900000001</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-200621.2516345482</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="C84" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D84" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="F84" t="n">
-        <v>111.9725</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-200509.2791345482</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>197.2242</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-200706.5033345482</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D86" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F86" t="n">
-        <v>123774.6290793103</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-76931.87425523791</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F87" t="n">
-        <v>80301.9393</v>
-      </c>
-      <c r="G87" t="n">
-        <v>3370.065044762086</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>248.035</v>
-      </c>
-      <c r="G88" t="n">
-        <v>3618.100044762086</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C89" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F89" t="n">
-        <v>211449.308</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-207831.2079552379</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>55</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-207776.2079552379</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="C91" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F91" t="n">
-        <v>159064.4889</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-366840.6968552379</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="C92" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="D92" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="F92" t="n">
-        <v>72983.98910000001</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-439824.6859552379</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3546,9 +3480,11 @@
         <v>-376526.778455238</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.38</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3583,9 +3519,11 @@
         <v>-377984.911555238</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11.5</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3620,7 +3558,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>11.39</v>
@@ -3659,7 +3597,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>11.5</v>
@@ -3698,7 +3636,7 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>11.5</v>
@@ -3737,7 +3675,7 @@
         <v>-131243.999455238</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>11.5</v>
@@ -3776,7 +3714,7 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>11.6</v>
@@ -3815,7 +3753,7 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>11.69</v>
@@ -3854,7 +3792,7 @@
         <v>-111010.696055238</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>11.69</v>
@@ -4411,16 +4349,18 @@
         <v>42286.63300555055</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4446,11 +4386,15 @@
         <v>57926.63300555055</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4479,11 +4423,15 @@
         <v>57926.63300555055</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4512,11 +4460,15 @@
         <v>57926.63300555055</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4549,7 +4501,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4582,7 +4538,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4615,7 +4575,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4644,11 +4608,15 @@
         <v>228169.1255055506</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4677,11 +4645,15 @@
         <v>223019.9321055506</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4710,11 +4682,15 @@
         <v>215069.4546055506</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4743,14 +4719,16 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4776,7 +4754,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4809,7 +4787,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4842,7 +4820,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4875,7 +4853,7 @@
         <v>142942.9551055506</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4908,7 +4886,7 @@
         <v>143063.3380055506</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4941,7 +4919,7 @@
         <v>135015.2179055506</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4974,7 +4952,7 @@
         <v>152465.2062055506</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5007,7 +4985,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5040,7 +5018,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5205,7 +5183,7 @@
         <v>377183.4012055505</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5238,7 +5216,7 @@
         <v>375917.6414055505</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5304,7 +5282,7 @@
         <v>370683.5294055505</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5337,7 +5315,7 @@
         <v>341276.3052055505</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5370,7 +5348,7 @@
         <v>348126.0483055505</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5403,7 +5381,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5436,7 +5414,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5469,7 +5447,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5502,7 +5480,7 @@
         <v>367924.6391108817</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5535,7 +5513,7 @@
         <v>361924.6391108817</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5568,7 +5546,7 @@
         <v>295500.9258108817</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5601,7 +5579,7 @@
         <v>295706.6549108817</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5634,7 +5612,7 @@
         <v>263605.4387108817</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5667,7 +5645,7 @@
         <v>263761.2441108817</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -7746,14 +7724,10 @@
         <v>-606454.8766624857</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J217" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
@@ -7786,14 +7760,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7822,19 +7790,11 @@
         <v>-476047.7706624857</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="J219" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7866,14 +7826,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7905,14 +7859,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7944,14 +7892,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7983,14 +7925,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8022,14 +7958,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8061,14 +7991,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8100,14 +8024,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8139,14 +8057,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +8090,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +8123,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8256,14 +8156,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8295,14 +8189,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +8222,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8373,14 +8255,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8412,14 +8288,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8451,20 +8321,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2266,10 +2266,14 @@
         <v>-618676.8467138585</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2302,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2342,19 @@
         <v>-702295.0348138586</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2383,19 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2424,19 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2465,19 @@
         <v>-842648.1113138585</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2506,19 @@
         <v>-216974.4196138586</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2550,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2589,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2628,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2667,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2706,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2823,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2862,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2901,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2979,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3018,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3096,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3174,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3213,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,15 +3249,17 @@
         <v>-190832.7597345482</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>11.33</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,17 +3288,15 @@
         <v>-200621.2516345482</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3169,17 +3327,15 @@
         <v>-200509.2791345482</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3213,8 +3369,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3246,8 +3408,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3279,8 +3447,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3312,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3345,8 +3525,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3378,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3411,8 +3603,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,15 +3639,15 @@
         <v>-439824.6859552379</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3480,12 +3678,12 @@
         <v>-376526.778455238</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,12 +3717,12 @@
         <v>-377984.911555238</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,12 +3756,12 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,12 +3795,12 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,12 +3834,12 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,12 +3873,12 @@
         <v>-131243.999455238</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,12 +3912,12 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,19 +3951,19 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.33</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>1.026774051191527</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -3792,17 +3990,11 @@
         <v>-111010.696055238</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>11.69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3831,15 +4023,11 @@
         <v>-103577.407755238</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3868,15 +4056,11 @@
         <v>-127236.246355238</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3905,15 +4089,11 @@
         <v>-112160.577755238</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3942,15 +4122,11 @@
         <v>-112160.577755238</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3979,15 +4155,11 @@
         <v>-77296.34315523796</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4016,15 +4188,11 @@
         <v>35276.19900216044</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4053,15 +4221,11 @@
         <v>-2543.82909783956</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4090,15 +4254,11 @@
         <v>-1637.28749783956</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4127,15 +4287,11 @@
         <v>-7099.29379783956</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4164,15 +4320,11 @@
         <v>-6827.322797839561</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4201,15 +4353,11 @@
         <v>72509.36570555055</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4238,15 +4386,11 @@
         <v>45108.27090555055</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4275,15 +4419,11 @@
         <v>42501.97890555055</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4312,15 +4452,11 @@
         <v>33672.71230555054</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4353,11 +4489,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4390,11 +4522,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4427,11 +4555,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4464,11 +4588,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4501,11 +4621,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4654,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4575,11 +4687,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4720,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4649,11 +4753,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4686,11 +4786,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4719,16 +4815,14 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4754,7 +4848,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4787,7 +4881,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4820,7 +4914,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4919,7 +5013,7 @@
         <v>135015.2179055506</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4952,7 +5046,7 @@
         <v>152465.2062055506</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4985,7 +5079,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5018,7 +5112,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5183,7 +5277,7 @@
         <v>377183.4012055505</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5216,7 +5310,7 @@
         <v>375917.6414055505</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5282,7 +5376,7 @@
         <v>370683.5294055505</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5315,7 +5409,7 @@
         <v>341276.3052055505</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5348,7 +5442,7 @@
         <v>348126.0483055505</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5381,7 +5475,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5414,7 +5508,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5447,7 +5541,7 @@
         <v>364507.3213055505</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5480,7 +5574,7 @@
         <v>367924.6391108817</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5513,7 +5607,7 @@
         <v>361924.6391108817</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5546,7 +5640,7 @@
         <v>295500.9258108817</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5579,7 +5673,7 @@
         <v>295706.6549108817</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5612,7 +5706,7 @@
         <v>263605.4387108817</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5645,7 +5739,7 @@
         <v>263761.2441108817</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -8329,6 +8423,6 @@
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -2266,14 +2266,10 @@
         <v>-618676.8467138585</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2306,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2342,19 +2332,11 @@
         <v>-702295.0348138586</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2383,101 +2365,83 @@
         <v>-708812.3913138586</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1082.8881</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-708812.3913138586</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="F62" t="n">
+        <v>133835.72</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-842648.1113138585</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1082.8881</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-708812.3913138586</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D62" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="F62" t="n">
-        <v>133835.72</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-842648.1113138585</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2511,9 +2475,7 @@
       <c r="I63" t="n">
         <v>11.28</v>
       </c>
-      <c r="J63" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,9 +2512,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2589,9 +2549,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,9 +2586,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2667,9 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,9 +2660,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,9 +2697,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,9 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,9 +2771,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,9 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,9 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,9 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,9 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3057,9 +2993,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,9 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3135,9 +3067,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,9 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,9 +3141,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,12 +3175,12 @@
         <v>-190832.7597345482</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3291,9 +3217,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3327,12 +3251,12 @@
         <v>-200509.2791345482</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,12 +3290,12 @@
         <v>-200706.5033345482</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3405,12 +3329,12 @@
         <v>-76931.87425523791</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,12 +3368,12 @@
         <v>3370.065044762086</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,12 +3407,12 @@
         <v>3618.100044762086</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,9 +3449,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3561,12 +3483,12 @@
         <v>-207776.2079552379</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,12 +3522,12 @@
         <v>-366840.6968552379</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,12 +3561,12 @@
         <v>-439824.6859552379</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,12 +3600,12 @@
         <v>-376526.778455238</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,12 +3639,12 @@
         <v>-377984.911555238</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,12 +3678,12 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,12 +3717,12 @@
         <v>-198243.999455238</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3873,12 +3793,12 @@
         <v>-131243.999455238</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,12 +3832,12 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3951,779 +3871,867 @@
         <v>-131193.689655238</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C101" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D101" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20182.9936</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-111010.696055238</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7433.2883</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-103577.407755238</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C103" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F103" t="n">
+        <v>23658.8386</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-127236.246355238</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D104" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15075.6686</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-112160.577755238</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E105" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15076.116</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-112160.577755238</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C106" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D106" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E106" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>34864.2346</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-77296.34315523796</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="E107" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F107" t="n">
+        <v>112572.5421573984</v>
+      </c>
+      <c r="G107" t="n">
+        <v>35276.19900216044</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="E108" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="F108" t="n">
+        <v>37820.0281</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2543.82909783956</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E109" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F109" t="n">
+        <v>906.5416</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1637.28749783956</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5462.0063</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-7099.29379783956</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C111" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E111" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F111" t="n">
+        <v>271.971</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-6827.322797839561</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C112" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F112" t="n">
+        <v>79336.68850339011</v>
+      </c>
+      <c r="G112" t="n">
+        <v>72509.36570555055</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C113" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F113" t="n">
+        <v>27401.0948</v>
+      </c>
+      <c r="G113" t="n">
+        <v>45108.27090555055</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C114" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2606.292</v>
+      </c>
+      <c r="G114" t="n">
+        <v>42501.97890555055</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8829.266600000001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>33672.71230555054</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8613.920700000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42286.63300555055</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15640</v>
+      </c>
+      <c r="G117" t="n">
+        <v>57926.63300555055</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9186</v>
+      </c>
+      <c r="G118" t="n">
+        <v>57926.63300555055</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3063</v>
+      </c>
+      <c r="G119" t="n">
+        <v>57926.63300555055</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5797.1694</v>
+      </c>
+      <c r="G120" t="n">
+        <v>63723.80240555054</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F121" t="n">
+        <v>52708.201</v>
+      </c>
+      <c r="G121" t="n">
+        <v>116432.0034055506</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25024.2515</v>
+      </c>
+      <c r="G122" t="n">
+        <v>141456.2549055506</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F123" t="n">
+        <v>86712.87059999999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>228169.1255055506</v>
+      </c>
+      <c r="H123" t="n">
         <v>2</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K100" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1.026774051191527</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C101" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D101" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F101" t="n">
-        <v>20182.9936</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-111010.696055238</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C102" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D102" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E102" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F102" t="n">
-        <v>7433.2883</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-103577.407755238</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C103" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D103" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E103" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F103" t="n">
-        <v>23658.8386</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-127236.246355238</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C104" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="D104" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="E104" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F104" t="n">
-        <v>15075.6686</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-112160.577755238</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="C105" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="D105" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="E105" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F105" t="n">
-        <v>15076.116</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-112160.577755238</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="C106" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="D106" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E106" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="F106" t="n">
-        <v>34864.2346</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-77296.34315523796</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="C107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="E107" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="F107" t="n">
-        <v>112572.5421573984</v>
-      </c>
-      <c r="G107" t="n">
-        <v>35276.19900216044</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="D108" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="F108" t="n">
-        <v>37820.0281</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-2543.82909783956</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C109" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D109" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E109" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F109" t="n">
-        <v>906.5416</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1637.28749783956</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C110" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D110" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5462.0063</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-7099.29379783956</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C111" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D111" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F111" t="n">
-        <v>271.971</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-6827.322797839561</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C112" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D112" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F112" t="n">
-        <v>79336.68850339011</v>
-      </c>
-      <c r="G112" t="n">
-        <v>72509.36570555055</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C113" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D113" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F113" t="n">
-        <v>27401.0948</v>
-      </c>
-      <c r="G113" t="n">
-        <v>45108.27090555055</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2606.292</v>
-      </c>
-      <c r="G114" t="n">
-        <v>42501.97890555055</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="F115" t="n">
-        <v>8829.266600000001</v>
-      </c>
-      <c r="G115" t="n">
-        <v>33672.71230555054</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8613.920700000001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>42286.63300555055</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="F117" t="n">
-        <v>15640</v>
-      </c>
-      <c r="G117" t="n">
-        <v>57926.63300555055</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="F118" t="n">
-        <v>9186</v>
-      </c>
-      <c r="G118" t="n">
-        <v>57926.63300555055</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3063</v>
-      </c>
-      <c r="G119" t="n">
-        <v>57926.63300555055</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F120" t="n">
-        <v>5797.1694</v>
-      </c>
-      <c r="G120" t="n">
-        <v>63723.80240555054</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F121" t="n">
-        <v>52708.201</v>
-      </c>
-      <c r="G121" t="n">
-        <v>116432.0034055506</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="F122" t="n">
-        <v>25024.2515</v>
-      </c>
-      <c r="G122" t="n">
-        <v>141456.2549055506</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="F123" t="n">
-        <v>86712.87059999999</v>
-      </c>
-      <c r="G123" t="n">
-        <v>228169.1255055506</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4749,7 +4757,7 @@
         <v>223019.9321055506</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4782,7 +4790,7 @@
         <v>215069.4546055506</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4815,7 +4823,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4848,7 +4856,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4881,7 +4889,7 @@
         <v>215228.3382055506</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4947,7 +4955,7 @@
         <v>142942.9551055506</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5046,7 +5054,7 @@
         <v>152465.2062055506</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5079,7 +5087,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5112,7 +5120,7 @@
         <v>237347.4705055506</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5145,7 +5153,7 @@
         <v>327090.8010055505</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5178,7 +5186,7 @@
         <v>419633.7688055505</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5211,7 +5219,7 @@
         <v>392819.2528055505</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5244,7 +5252,7 @@
         <v>383296.3770055505</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5277,7 +5285,7 @@
         <v>377183.4012055505</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-16 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>186309.6912</v>
       </c>
       <c r="G2" t="n">
-        <v>-391216.1178526646</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>211696.0196</v>
       </c>
       <c r="G3" t="n">
-        <v>-179520.0982526646</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>-179470.0982526646</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>106089.552238806</v>
       </c>
       <c r="G5" t="n">
-        <v>-73380.54601385855</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2400</v>
       </c>
       <c r="G6" t="n">
-        <v>-75780.54601385855</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>106089.5522</v>
       </c>
       <c r="G7" t="n">
-        <v>-181870.0982138586</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>55</v>
       </c>
       <c r="G8" t="n">
-        <v>-181815.0982138586</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>103740.6004</v>
       </c>
       <c r="G9" t="n">
-        <v>-285555.6986138585</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2121.3613</v>
       </c>
       <c r="G10" t="n">
-        <v>-287677.0599138585</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>54</v>
       </c>
       <c r="G11" t="n">
-        <v>-287623.0599138585</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9757.427100000001</v>
       </c>
       <c r="G12" t="n">
-        <v>-297380.4870138585</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>99.4924</v>
       </c>
       <c r="G13" t="n">
-        <v>-297280.9946138585</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>7235.5355</v>
       </c>
       <c r="G14" t="n">
-        <v>-304516.5301138585</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>5159.6745</v>
       </c>
       <c r="G15" t="n">
-        <v>-304516.5301138585</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>53861.5019</v>
       </c>
       <c r="G16" t="n">
-        <v>-358378.0320138586</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>55</v>
       </c>
       <c r="G17" t="n">
-        <v>-358323.0320138586</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>24471.118</v>
       </c>
       <c r="G18" t="n">
-        <v>-382794.1500138586</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8587.431399999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-391381.5814138586</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>105809.1664</v>
       </c>
       <c r="G20" t="n">
-        <v>-285572.4150138586</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20127.118</v>
       </c>
       <c r="G21" t="n">
-        <v>-265445.2970138586</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>220000</v>
       </c>
       <c r="G22" t="n">
-        <v>-265445.2970138586</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>31030.4418</v>
       </c>
       <c r="G23" t="n">
-        <v>-296475.7388138586</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>460992.8127</v>
       </c>
       <c r="G24" t="n">
-        <v>164517.0738861414</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>93837.3634</v>
       </c>
       <c r="G25" t="n">
-        <v>70679.71048614141</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>80.07340000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>70759.78388614141</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>11046.5404</v>
       </c>
       <c r="G27" t="n">
-        <v>59713.24348614141</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9088.961600000001</v>
       </c>
       <c r="G28" t="n">
-        <v>50624.28188614141</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>5672.9758</v>
       </c>
       <c r="G29" t="n">
-        <v>50624.28188614141</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>46298.655</v>
       </c>
       <c r="G30" t="n">
-        <v>50624.28188614141</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>45777.7843</v>
       </c>
       <c r="G31" t="n">
-        <v>4846.497586141406</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>66583.7424</v>
       </c>
       <c r="G32" t="n">
-        <v>4846.497586141406</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>6510</v>
       </c>
       <c r="G33" t="n">
-        <v>11356.49758614141</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>46319.5789</v>
       </c>
       <c r="G34" t="n">
-        <v>-34963.08131385859</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2131.5987</v>
       </c>
       <c r="G35" t="n">
-        <v>-32831.48261385859</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1866.0439</v>
       </c>
       <c r="G36" t="n">
-        <v>-32831.48261385859</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>464249.907</v>
       </c>
       <c r="G37" t="n">
-        <v>-497081.3896138586</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>77.72799999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>-497003.6616138586</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>100319.1698</v>
       </c>
       <c r="G39" t="n">
-        <v>-597322.8314138586</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>5496.7629</v>
       </c>
       <c r="G40" t="n">
-        <v>-591826.0685138586</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>8000</v>
       </c>
       <c r="G41" t="n">
-        <v>-599826.0685138586</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>14108.8798</v>
       </c>
       <c r="G42" t="n">
-        <v>-585717.1887138586</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>506.8362</v>
       </c>
       <c r="G43" t="n">
-        <v>-585210.3525138586</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>59.056</v>
       </c>
       <c r="G44" t="n">
-        <v>-585210.3525138586</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>13105.1078</v>
       </c>
       <c r="G45" t="n">
-        <v>-585210.3525138586</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1133.9169</v>
       </c>
       <c r="G46" t="n">
-        <v>-584076.4356138586</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>64.8245</v>
       </c>
       <c r="G47" t="n">
-        <v>-584141.2601138586</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>50570.4279</v>
       </c>
       <c r="G48" t="n">
-        <v>-634711.6880138586</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>346.9409</v>
       </c>
       <c r="G49" t="n">
-        <v>-634364.7471138586</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>9788.491900000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-634364.7471138586</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>156.5185</v>
       </c>
       <c r="G51" t="n">
-        <v>-634208.2286138586</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>49935.1755</v>
       </c>
       <c r="G52" t="n">
-        <v>-684143.4041138586</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>105853.0495</v>
       </c>
       <c r="G53" t="n">
-        <v>-578290.3546138586</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>140.9009</v>
       </c>
       <c r="G54" t="n">
-        <v>-578149.4537138586</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>11689.3702</v>
       </c>
       <c r="G55" t="n">
-        <v>-578149.4537138586</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>40995.6887</v>
       </c>
       <c r="G56" t="n">
-        <v>-619145.1424138586</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>468.2957</v>
       </c>
       <c r="G57" t="n">
-        <v>-618676.8467138585</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>83618.1881</v>
       </c>
       <c r="G58" t="n">
-        <v>-702295.0348138586</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>18838.8508</v>
       </c>
       <c r="G59" t="n">
-        <v>-702295.0348138586</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,21 @@
         <v>6517.3565</v>
       </c>
       <c r="G60" t="n">
-        <v>-708812.3913138586</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>11.33</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2219,21 @@
         <v>1082.8881</v>
       </c>
       <c r="G61" t="n">
-        <v>-708812.3913138586</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,24 +2255,21 @@
         <v>133835.72</v>
       </c>
       <c r="G62" t="n">
-        <v>-842648.1113138585</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
         <v>11.3</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2467,24 +2291,21 @@
         <v>625673.6917</v>
       </c>
       <c r="G63" t="n">
-        <v>-216974.4196138586</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
         <v>11.28</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2506,22 +2327,21 @@
         <v>13077.8854</v>
       </c>
       <c r="G64" t="n">
-        <v>-203896.5342138586</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,22 +2363,19 @@
         <v>11687.4223</v>
       </c>
       <c r="G65" t="n">
-        <v>-215583.9565138586</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2580,22 +2397,19 @@
         <v>38300</v>
       </c>
       <c r="G66" t="n">
-        <v>-215583.9565138586</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2617,22 +2431,19 @@
         <v>29623.1659</v>
       </c>
       <c r="G67" t="n">
-        <v>-185960.7906138586</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2654,22 +2465,19 @@
         <v>7000</v>
       </c>
       <c r="G68" t="n">
-        <v>-192960.7906138586</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2691,22 +2499,19 @@
         <v>2289.6006</v>
       </c>
       <c r="G69" t="n">
-        <v>-190671.1900138586</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2728,22 +2533,19 @@
         <v>7225</v>
       </c>
       <c r="G70" t="n">
-        <v>-183446.1900138586</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2765,22 +2567,19 @@
         <v>18733.5913</v>
       </c>
       <c r="G71" t="n">
-        <v>-183446.1900138586</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2802,22 +2601,19 @@
         <v>73998.234</v>
       </c>
       <c r="G72" t="n">
-        <v>-257444.4240138586</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2839,22 +2635,19 @@
         <v>68214.724</v>
       </c>
       <c r="G73" t="n">
-        <v>-189229.7000138586</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2876,22 +2669,19 @@
         <v>445.276</v>
       </c>
       <c r="G74" t="n">
-        <v>-189229.7000138586</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2913,22 +2703,19 @@
         <v>225.2332</v>
       </c>
       <c r="G75" t="n">
-        <v>-189004.4668138586</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2950,22 +2737,19 @@
         <v>12077.3166</v>
       </c>
       <c r="G76" t="n">
-        <v>-189004.4668138586</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2987,22 +2771,19 @@
         <v>22605.8806</v>
       </c>
       <c r="G77" t="n">
-        <v>-189004.4668138586</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3024,22 +2805,19 @@
         <v>255.2586206896552</v>
       </c>
       <c r="G78" t="n">
-        <v>-189259.7254345482</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3061,22 +2839,19 @@
         <v>9719</v>
       </c>
       <c r="G79" t="n">
-        <v>-179540.7254345482</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3098,22 +2873,19 @@
         <v>3665.1763</v>
       </c>
       <c r="G80" t="n">
-        <v>-183205.9017345482</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3135,22 +2907,19 @@
         <v>8000</v>
       </c>
       <c r="G81" t="n">
-        <v>-191205.9017345482</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3172,24 +2941,19 @@
         <v>373.142</v>
       </c>
       <c r="G82" t="n">
-        <v>-190832.7597345482</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3211,22 +2975,19 @@
         <v>9788.491900000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-200621.2516345482</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3248,24 +3009,19 @@
         <v>111.9725</v>
       </c>
       <c r="G84" t="n">
-        <v>-200509.2791345482</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3287,24 +3043,19 @@
         <v>197.2242</v>
       </c>
       <c r="G85" t="n">
-        <v>-200706.5033345482</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3326,24 +3077,19 @@
         <v>123774.6290793103</v>
       </c>
       <c r="G86" t="n">
-        <v>-76931.87425523791</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3365,24 +3111,19 @@
         <v>80301.9393</v>
       </c>
       <c r="G87" t="n">
-        <v>3370.065044762086</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3404,24 +3145,19 @@
         <v>248.035</v>
       </c>
       <c r="G88" t="n">
-        <v>3618.100044762086</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3443,22 +3179,19 @@
         <v>211449.308</v>
       </c>
       <c r="G89" t="n">
-        <v>-207831.2079552379</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3480,24 +3213,19 @@
         <v>55</v>
       </c>
       <c r="G90" t="n">
-        <v>-207776.2079552379</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3519,24 +3247,19 @@
         <v>159064.4889</v>
       </c>
       <c r="G91" t="n">
-        <v>-366840.6968552379</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3558,24 +3281,19 @@
         <v>72983.98910000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-439824.6859552379</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3597,24 +3315,19 @@
         <v>63297.9075</v>
       </c>
       <c r="G93" t="n">
-        <v>-376526.778455238</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3636,24 +3349,19 @@
         <v>1458.1331</v>
       </c>
       <c r="G94" t="n">
-        <v>-377984.911555238</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3675,24 +3383,19 @@
         <v>179740.9121</v>
       </c>
       <c r="G95" t="n">
-        <v>-198243.999455238</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3714,24 +3417,19 @@
         <v>31632.7456</v>
       </c>
       <c r="G96" t="n">
-        <v>-198243.999455238</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3753,22 +3451,19 @@
         <v>26542.3892</v>
       </c>
       <c r="G97" t="n">
-        <v>-198243.999455238</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3790,24 +3485,19 @@
         <v>67000</v>
       </c>
       <c r="G98" t="n">
-        <v>-131243.999455238</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3829,24 +3519,19 @@
         <v>50.3098</v>
       </c>
       <c r="G99" t="n">
-        <v>-131193.689655238</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3868,22 +3553,19 @@
         <v>7950.4775</v>
       </c>
       <c r="G100" t="n">
-        <v>-131193.689655238</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3905,22 +3587,19 @@
         <v>20182.9936</v>
       </c>
       <c r="G101" t="n">
-        <v>-111010.696055238</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3942,22 +3621,19 @@
         <v>7433.2883</v>
       </c>
       <c r="G102" t="n">
-        <v>-103577.407755238</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3979,22 +3655,19 @@
         <v>23658.8386</v>
       </c>
       <c r="G103" t="n">
-        <v>-127236.246355238</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4016,22 +3689,19 @@
         <v>15075.6686</v>
       </c>
       <c r="G104" t="n">
-        <v>-112160.577755238</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4053,22 +3723,19 @@
         <v>15076.116</v>
       </c>
       <c r="G105" t="n">
-        <v>-112160.577755238</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4090,22 +3757,19 @@
         <v>34864.2346</v>
       </c>
       <c r="G106" t="n">
-        <v>-77296.34315523796</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4127,22 +3791,19 @@
         <v>112572.5421573984</v>
       </c>
       <c r="G107" t="n">
-        <v>35276.19900216044</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4164,22 +3825,19 @@
         <v>37820.0281</v>
       </c>
       <c r="G108" t="n">
-        <v>-2543.82909783956</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4201,22 +3859,19 @@
         <v>906.5416</v>
       </c>
       <c r="G109" t="n">
-        <v>-1637.28749783956</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4238,22 +3893,19 @@
         <v>5462.0063</v>
       </c>
       <c r="G110" t="n">
-        <v>-7099.29379783956</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4275,22 +3927,19 @@
         <v>271.971</v>
       </c>
       <c r="G111" t="n">
-        <v>-6827.322797839561</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4312,22 +3961,19 @@
         <v>79336.68850339011</v>
       </c>
       <c r="G112" t="n">
-        <v>72509.36570555055</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4349,22 +3995,17 @@
         <v>27401.0948</v>
       </c>
       <c r="G113" t="n">
-        <v>45108.27090555055</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4386,22 +4027,15 @@
         <v>2606.292</v>
       </c>
       <c r="G114" t="n">
-        <v>42501.97890555055</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4423,22 +4057,15 @@
         <v>8829.266600000001</v>
       </c>
       <c r="G115" t="n">
-        <v>33672.71230555054</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4460,22 +4087,15 @@
         <v>8613.920700000001</v>
       </c>
       <c r="G116" t="n">
-        <v>42286.63300555055</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4497,22 +4117,15 @@
         <v>15640</v>
       </c>
       <c r="G117" t="n">
-        <v>57926.63300555055</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4534,22 +4147,15 @@
         <v>9186</v>
       </c>
       <c r="G118" t="n">
-        <v>57926.63300555055</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4571,22 +4177,15 @@
         <v>3063</v>
       </c>
       <c r="G119" t="n">
-        <v>57926.63300555055</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4608,22 +4207,15 @@
         <v>5797.1694</v>
       </c>
       <c r="G120" t="n">
-        <v>63723.80240555054</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4645,22 +4237,15 @@
         <v>52708.201</v>
       </c>
       <c r="G121" t="n">
-        <v>116432.0034055506</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4682,22 +4267,15 @@
         <v>25024.2515</v>
       </c>
       <c r="G122" t="n">
-        <v>141456.2549055506</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4719,20 +4297,15 @@
         <v>86712.87059999999</v>
       </c>
       <c r="G123" t="n">
-        <v>228169.1255055506</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K123" t="n">
+        <v>1</v>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4754,18 +4327,15 @@
         <v>5149.1934</v>
       </c>
       <c r="G124" t="n">
-        <v>223019.9321055506</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4787,18 +4357,15 @@
         <v>7950.4775</v>
       </c>
       <c r="G125" t="n">
-        <v>215069.4546055506</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4820,18 +4387,15 @@
         <v>158.8836</v>
       </c>
       <c r="G126" t="n">
-        <v>215228.3382055506</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4853,18 +4417,15 @@
         <v>3816.1164</v>
       </c>
       <c r="G127" t="n">
-        <v>215228.3382055506</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4886,18 +4447,15 @@
         <v>168.4545</v>
       </c>
       <c r="G128" t="n">
-        <v>215228.3382055506</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4919,18 +4477,15 @@
         <v>5422.9787</v>
       </c>
       <c r="G129" t="n">
-        <v>215228.3382055506</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4952,18 +4507,15 @@
         <v>72285.38310000001</v>
       </c>
       <c r="G130" t="n">
-        <v>142942.9551055506</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4985,18 +4537,15 @@
         <v>120.3829</v>
       </c>
       <c r="G131" t="n">
-        <v>143063.3380055506</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5018,18 +4567,15 @@
         <v>8048.1201</v>
       </c>
       <c r="G132" t="n">
-        <v>135015.2179055506</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5051,18 +4597,15 @@
         <v>17449.9883</v>
       </c>
       <c r="G133" t="n">
-        <v>152465.2062055506</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5084,18 +4627,15 @@
         <v>84882.2643</v>
       </c>
       <c r="G134" t="n">
-        <v>237347.4705055506</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5117,18 +4657,15 @@
         <v>1303.8057</v>
       </c>
       <c r="G135" t="n">
-        <v>237347.4705055506</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5150,18 +4687,15 @@
         <v>89743.3305</v>
       </c>
       <c r="G136" t="n">
-        <v>327090.8010055505</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5183,18 +4717,15 @@
         <v>92542.9678</v>
       </c>
       <c r="G137" t="n">
-        <v>419633.7688055505</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5216,18 +4747,15 @@
         <v>26814.516</v>
       </c>
       <c r="G138" t="n">
-        <v>392819.2528055505</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5249,18 +4777,15 @@
         <v>9522.8758</v>
       </c>
       <c r="G139" t="n">
-        <v>383296.3770055505</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5282,18 +4807,15 @@
         <v>6112.9758</v>
       </c>
       <c r="G140" t="n">
-        <v>377183.4012055505</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5315,18 +4837,15 @@
         <v>1265.7598</v>
       </c>
       <c r="G141" t="n">
-        <v>375917.6414055505</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5348,18 +4867,15 @@
         <v>5136.1925</v>
       </c>
       <c r="G142" t="n">
-        <v>370781.4489055505</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5381,18 +4897,15 @@
         <v>97.9195</v>
       </c>
       <c r="G143" t="n">
-        <v>370683.5294055505</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5414,18 +4927,15 @@
         <v>29407.2242</v>
       </c>
       <c r="G144" t="n">
-        <v>341276.3052055505</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5447,18 +4957,15 @@
         <v>6849.7431</v>
       </c>
       <c r="G145" t="n">
-        <v>348126.0483055505</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5480,18 +4987,15 @@
         <v>16381.273</v>
       </c>
       <c r="G146" t="n">
-        <v>364507.3213055505</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5513,18 +5017,15 @@
         <v>133.6942</v>
       </c>
       <c r="G147" t="n">
-        <v>364507.3213055505</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5546,18 +5047,15 @@
         <v>365.2064</v>
       </c>
       <c r="G148" t="n">
-        <v>364507.3213055505</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5579,18 +5077,15 @@
         <v>3417.317805331179</v>
       </c>
       <c r="G149" t="n">
-        <v>367924.6391108817</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5612,18 +5107,15 @@
         <v>6000</v>
       </c>
       <c r="G150" t="n">
-        <v>361924.6391108817</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5645,18 +5137,15 @@
         <v>66423.7133</v>
       </c>
       <c r="G151" t="n">
-        <v>295500.9258108817</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5678,18 +5167,15 @@
         <v>205.7291</v>
       </c>
       <c r="G152" t="n">
-        <v>295706.6549108817</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5711,18 +5197,15 @@
         <v>32101.2162</v>
       </c>
       <c r="G153" t="n">
-        <v>263605.4387108817</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5744,18 +5227,15 @@
         <v>155.8054</v>
       </c>
       <c r="G154" t="n">
-        <v>263761.2441108817</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5777,18 +5257,15 @@
         <v>9103.501</v>
       </c>
       <c r="G155" t="n">
-        <v>254657.7431108817</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5810,18 +5287,15 @@
         <v>253.6211</v>
       </c>
       <c r="G156" t="n">
-        <v>254911.3642108817</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5843,18 +5317,15 @@
         <v>180457.9149</v>
       </c>
       <c r="G157" t="n">
-        <v>74453.4493108817</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5876,18 +5347,15 @@
         <v>50000</v>
       </c>
       <c r="G158" t="n">
-        <v>24453.4493108817</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5909,18 +5377,15 @@
         <v>9000</v>
       </c>
       <c r="G159" t="n">
-        <v>33453.4493108817</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5942,18 +5407,15 @@
         <v>9252</v>
       </c>
       <c r="G160" t="n">
-        <v>33453.4493108817</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5975,18 +5437,15 @@
         <v>82725.2096</v>
       </c>
       <c r="G161" t="n">
-        <v>116178.6589108817</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6008,18 +5467,15 @@
         <v>2424.7854</v>
       </c>
       <c r="G162" t="n">
-        <v>113753.8735108817</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6041,18 +5497,15 @@
         <v>9202.581700000001</v>
       </c>
       <c r="G163" t="n">
-        <v>113753.8735108817</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6074,18 +5527,15 @@
         <v>4627</v>
       </c>
       <c r="G164" t="n">
-        <v>118380.8735108817</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6107,18 +5557,15 @@
         <v>100</v>
       </c>
       <c r="G165" t="n">
-        <v>118480.8735108817</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6140,18 +5587,15 @@
         <v>6964</v>
       </c>
       <c r="G166" t="n">
-        <v>111516.8735108817</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6173,18 +5617,15 @@
         <v>1402.347</v>
       </c>
       <c r="G167" t="n">
-        <v>112919.2205108817</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6206,18 +5647,15 @@
         <v>69567.87910000001</v>
       </c>
       <c r="G168" t="n">
-        <v>43351.34141088169</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6239,18 +5677,15 @@
         <v>4466</v>
       </c>
       <c r="G169" t="n">
-        <v>43351.34141088169</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6272,18 +5707,15 @@
         <v>44830.3789</v>
       </c>
       <c r="G170" t="n">
-        <v>88181.7203108817</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6305,18 +5737,15 @@
         <v>3373.2347</v>
       </c>
       <c r="G171" t="n">
-        <v>88181.7203108817</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6338,18 +5767,15 @@
         <v>319.2477</v>
       </c>
       <c r="G172" t="n">
-        <v>88500.96801088171</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6371,18 +5797,15 @@
         <v>30737.6605</v>
       </c>
       <c r="G173" t="n">
-        <v>57763.30751088171</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6404,18 +5827,15 @@
         <v>1087.4068</v>
       </c>
       <c r="G174" t="n">
-        <v>56675.90071088172</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6437,18 +5857,15 @@
         <v>45271.7225</v>
       </c>
       <c r="G175" t="n">
-        <v>11404.17821088171</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6470,18 +5887,15 @@
         <v>1805.7829</v>
       </c>
       <c r="G176" t="n">
-        <v>13209.96111088171</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6503,18 +5917,15 @@
         <v>5000</v>
       </c>
       <c r="G177" t="n">
-        <v>8209.961110881713</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6536,18 +5947,15 @@
         <v>71294.2222</v>
       </c>
       <c r="G178" t="n">
-        <v>-63084.26108911829</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6569,18 +5977,15 @@
         <v>21057.6311</v>
       </c>
       <c r="G179" t="n">
-        <v>-84141.89218911828</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6602,18 +6007,15 @@
         <v>100181.1106</v>
       </c>
       <c r="G180" t="n">
-        <v>-184323.0027891183</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6635,18 +6037,15 @@
         <v>44.8432</v>
       </c>
       <c r="G181" t="n">
-        <v>-184278.1595891183</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6668,18 +6067,15 @@
         <v>2365.6305</v>
       </c>
       <c r="G182" t="n">
-        <v>-186643.7900891183</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6701,18 +6097,15 @@
         <v>236.2452</v>
       </c>
       <c r="G183" t="n">
-        <v>-186407.5448891183</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6734,18 +6127,15 @@
         <v>4825.9601</v>
       </c>
       <c r="G184" t="n">
-        <v>-191233.5049891183</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6767,18 +6157,15 @@
         <v>531.807</v>
       </c>
       <c r="G185" t="n">
-        <v>-190701.6979891183</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6800,18 +6187,15 @@
         <v>159.4748</v>
       </c>
       <c r="G186" t="n">
-        <v>-190701.6979891183</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6833,18 +6217,15 @@
         <v>57318.9693</v>
       </c>
       <c r="G187" t="n">
-        <v>-248020.6672891183</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6866,18 +6247,15 @@
         <v>57388.4396</v>
       </c>
       <c r="G188" t="n">
-        <v>-248020.6672891183</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6899,18 +6277,15 @@
         <v>3975.4278</v>
       </c>
       <c r="G189" t="n">
-        <v>-244045.2394891182</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6932,18 +6307,15 @@
         <v>197198.6496</v>
       </c>
       <c r="G190" t="n">
-        <v>-441243.8890891182</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6965,18 +6337,15 @@
         <v>17094.7871</v>
       </c>
       <c r="G191" t="n">
-        <v>-441243.8890891182</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6998,18 +6367,15 @@
         <v>2924.8503</v>
       </c>
       <c r="G192" t="n">
-        <v>-441243.8890891182</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7031,18 +6397,15 @@
         <v>327.9686</v>
       </c>
       <c r="G193" t="n">
-        <v>-441571.8576891182</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7064,18 +6427,15 @@
         <v>100000</v>
       </c>
       <c r="G194" t="n">
-        <v>-341571.8576891182</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7097,18 +6457,15 @@
         <v>152012.5493</v>
       </c>
       <c r="G195" t="n">
-        <v>-493584.4069891183</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7130,18 +6487,15 @@
         <v>140232.7984</v>
       </c>
       <c r="G196" t="n">
-        <v>-353351.6085891182</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7163,18 +6517,15 @@
         <v>17478.78712663274</v>
       </c>
       <c r="G197" t="n">
-        <v>-335872.8214624855</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7196,18 +6547,15 @@
         <v>307.6263</v>
       </c>
       <c r="G198" t="n">
-        <v>-335872.8214624855</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7229,18 +6577,15 @@
         <v>55554.2956</v>
       </c>
       <c r="G199" t="n">
-        <v>-391427.1170624855</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7262,18 +6607,15 @@
         <v>546273.4696</v>
       </c>
       <c r="G200" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7295,18 +6637,15 @@
         <v>4953.166</v>
       </c>
       <c r="G201" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7328,18 +6667,15 @@
         <v>13000</v>
       </c>
       <c r="G202" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7361,18 +6697,15 @@
         <v>991.1849999999999</v>
       </c>
       <c r="G203" t="n">
-        <v>-937700.5866624855</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7394,18 +6727,15 @@
         <v>303.513</v>
       </c>
       <c r="G204" t="n">
-        <v>-937397.0736624855</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7427,18 +6757,15 @@
         <v>77600.6603</v>
       </c>
       <c r="G205" t="n">
-        <v>-859796.4133624855</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7460,18 +6787,15 @@
         <v>4476.8597</v>
       </c>
       <c r="G206" t="n">
-        <v>-864273.2730624855</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7493,18 +6817,15 @@
         <v>48682.0386</v>
       </c>
       <c r="G207" t="n">
-        <v>-864273.2730624855</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7526,18 +6847,15 @@
         <v>190242.0391</v>
       </c>
       <c r="G208" t="n">
-        <v>-674031.2339624856</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7559,18 +6877,15 @@
         <v>359.6675</v>
       </c>
       <c r="G209" t="n">
-        <v>-673671.5664624856</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7592,18 +6907,15 @@
         <v>119.4846</v>
       </c>
       <c r="G210" t="n">
-        <v>-673671.5664624856</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7625,18 +6937,15 @@
         <v>112.3967</v>
       </c>
       <c r="G211" t="n">
-        <v>-673783.9631624856</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7658,18 +6967,15 @@
         <v>84021.8367</v>
       </c>
       <c r="G212" t="n">
-        <v>-589762.1264624856</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7691,18 +6997,15 @@
         <v>12.7502</v>
       </c>
       <c r="G213" t="n">
-        <v>-589774.8766624857</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7724,18 +7027,15 @@
         <v>97044.6211</v>
       </c>
       <c r="G214" t="n">
-        <v>-589774.8766624857</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7757,18 +7057,15 @@
         <v>16680</v>
       </c>
       <c r="G215" t="n">
-        <v>-606454.8766624857</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7790,18 +7087,15 @@
         <v>158000</v>
       </c>
       <c r="G216" t="n">
-        <v>-606454.8766624857</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7823,18 +7117,15 @@
         <v>164543.0595</v>
       </c>
       <c r="G217" t="n">
-        <v>-606454.8766624857</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7856,18 +7147,15 @@
         <v>134938.2592</v>
       </c>
       <c r="G218" t="n">
-        <v>-471516.6174624857</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7889,18 +7177,15 @@
         <v>4531.1532</v>
       </c>
       <c r="G219" t="n">
-        <v>-476047.7706624857</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7922,18 +7207,15 @@
         <v>43</v>
       </c>
       <c r="G220" t="n">
-        <v>-476004.7706624857</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7955,18 +7237,15 @@
         <v>43</v>
       </c>
       <c r="G221" t="n">
-        <v>-475961.7706624857</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7988,18 +7267,15 @@
         <v>152286.8089</v>
       </c>
       <c r="G222" t="n">
-        <v>-628248.5795624857</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8021,18 +7297,15 @@
         <v>120346.9183</v>
       </c>
       <c r="G223" t="n">
-        <v>-748595.4978624857</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8054,18 +7327,15 @@
         <v>2247.5717</v>
       </c>
       <c r="G224" t="n">
-        <v>-750843.0695624857</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8087,18 +7357,15 @@
         <v>86574.0941</v>
       </c>
       <c r="G225" t="n">
-        <v>-664268.9754624857</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8120,18 +7387,15 @@
         <v>3407</v>
       </c>
       <c r="G226" t="n">
-        <v>-667675.9754624857</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8153,18 +7417,15 @@
         <v>41013.1031</v>
       </c>
       <c r="G227" t="n">
-        <v>-626662.8723624857</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8186,18 +7447,15 @@
         <v>45906.1296</v>
       </c>
       <c r="G228" t="n">
-        <v>-626662.8723624857</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8219,18 +7477,15 @@
         <v>12469.1261</v>
       </c>
       <c r="G229" t="n">
-        <v>-639131.9984624857</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8252,18 +7507,15 @@
         <v>16749.5659</v>
       </c>
       <c r="G230" t="n">
-        <v>-639131.9984624857</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8285,18 +7537,15 @@
         <v>37785.9611</v>
       </c>
       <c r="G231" t="n">
-        <v>-601346.0373624858</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8318,18 +7567,15 @@
         <v>55544.3486</v>
       </c>
       <c r="G232" t="n">
-        <v>-656890.3859624858</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8351,18 +7597,15 @@
         <v>83121.3067</v>
       </c>
       <c r="G233" t="n">
-        <v>-740011.6926624858</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8384,18 +7627,15 @@
         <v>116793.0554</v>
       </c>
       <c r="G234" t="n">
-        <v>-740011.6926624858</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8417,18 +7657,15 @@
         <v>82497.6609</v>
       </c>
       <c r="G235" t="n">
-        <v>-657514.0317624857</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
